--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I249"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,17 +593,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00415686 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>97500</v>
+        <v>134.6</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>132.35</v>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,17 +624,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00415686 BTC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>134.6</v>
+        <v>97500</v>
       </c>
       <c r="F6" t="n">
-        <v>132.35</v>
+        <v>400</v>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -1089,17 +1089,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>475.91852275 DOGE</t>
+          <t>478.35446066 DOGE</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2099</v>
+        <v>0.209</v>
       </c>
       <c r="F21" t="n">
         <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.11</v>
+        <v>-0.01</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1120,17 +1120,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>484.98957272 DOGE</t>
+          <t>475.91852275 DOGE</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2086</v>
+        <v>0.2099</v>
       </c>
       <c r="F22" t="n">
         <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>1.16</v>
+        <v>-0.11</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1151,17 +1151,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>478.35446066 DOGE</t>
+          <t>484.98957272 DOGE</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.209</v>
+        <v>0.2086</v>
       </c>
       <c r="F23" t="n">
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.01</v>
+        <v>1.16</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1306,17 +1306,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>485.95587521 DOGE</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1985</v>
+        <v>249</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>252.17</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.52</v>
+        <v>-3.17</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1337,17 +1337,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>485.95587521 DOGE</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>121.46</v>
+        <v>0.1985</v>
       </c>
       <c r="F29" t="n">
-        <v>121.46</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.52</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1372,13 +1372,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>249</v>
+        <v>121.46</v>
       </c>
       <c r="F30" t="n">
-        <v>252.17</v>
+        <v>121.46</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.17</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>SOL/USDT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1523,17 +1523,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>926.48165169 DOGE</t>
+          <t>1.00616275 SOL</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2258</v>
+        <v>155.88</v>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G35" t="n">
-        <v>9.199999999999999</v>
+        <v>-3.16</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>113.44</v>
+        <v>266.75</v>
       </c>
       <c r="F36" t="n">
-        <v>119.56</v>
+        <v>265.2</v>
       </c>
       <c r="G36" t="n">
-        <v>-6.12</v>
+        <v>1.55</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SOL/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1585,17 +1585,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.00616275 SOL</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>155.88</v>
+        <v>113.44</v>
       </c>
       <c r="F37" t="n">
-        <v>160</v>
+        <v>119.56</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.16</v>
+        <v>-6.12</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1620,13 +1620,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>266.75</v>
+        <v>263.56</v>
       </c>
       <c r="F38" t="n">
-        <v>265.2</v>
+        <v>264.4</v>
       </c>
       <c r="G38" t="n">
-        <v>1.55</v>
+        <v>-0.84</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1651,13 +1651,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>263.56</v>
+        <v>120.83</v>
       </c>
       <c r="F39" t="n">
-        <v>264.4</v>
+        <v>122.14</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.84</v>
+        <v>-1.31</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>SOL/USDT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1709,17 +1709,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.97282179 SOL</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>120.83</v>
+        <v>162.02</v>
       </c>
       <c r="F41" t="n">
-        <v>122.14</v>
+        <v>160</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.31</v>
+        <v>-2.38</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SOL/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1740,17 +1740,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.97282179 SOL</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>162.02</v>
+        <v>286.76</v>
       </c>
       <c r="F42" t="n">
-        <v>160</v>
+        <v>257.22</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.38</v>
+        <v>29.54</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1771,17 +1771,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>926.48165169 DOGE</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>286.76</v>
+        <v>0.2258</v>
       </c>
       <c r="F43" t="n">
-        <v>257.22</v>
+        <v>200</v>
       </c>
       <c r="G43" t="n">
-        <v>29.54</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>255.75</v>
+        <v>249.2</v>
       </c>
       <c r="F45" t="n">
-        <v>245.27</v>
+        <v>242.44</v>
       </c>
       <c r="G45" t="n">
-        <v>10.48</v>
+        <v>6.76</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -1868,13 +1868,13 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>238.58</v>
+        <v>251.6</v>
       </c>
       <c r="F46" t="n">
-        <v>245</v>
+        <v>252.84</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.42</v>
+        <v>-1.24</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -1899,13 +1899,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>243.24</v>
+        <v>247.25</v>
       </c>
       <c r="F47" t="n">
-        <v>243.23</v>
+        <v>252.44</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01</v>
+        <v>-5.19</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -1930,13 +1930,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>247.25</v>
+        <v>245.19</v>
       </c>
       <c r="F48" t="n">
-        <v>252.44</v>
+        <v>249.4</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.19</v>
+        <v>-4.21</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -1961,13 +1961,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>251.6</v>
+        <v>238.58</v>
       </c>
       <c r="F49" t="n">
-        <v>252.84</v>
+        <v>245</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.24</v>
+        <v>-6.42</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -1992,13 +1992,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>249.2</v>
+        <v>243.24</v>
       </c>
       <c r="F50" t="n">
-        <v>242.44</v>
+        <v>243.23</v>
       </c>
       <c r="G50" t="n">
-        <v>6.76</v>
+        <v>0.01</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>245.19</v>
+        <v>255.75</v>
       </c>
       <c r="F51" t="n">
-        <v>249.4</v>
+        <v>245.27</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.21</v>
+        <v>10.48</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2054,13 +2054,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>273.8</v>
+        <v>302</v>
       </c>
       <c r="F52" t="n">
-        <v>276.75</v>
+        <v>296.69</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.95</v>
+        <v>5.31</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2085,13 +2085,13 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>289.5</v>
+        <v>295.94</v>
       </c>
       <c r="F53" t="n">
-        <v>292.4</v>
+        <v>291.39</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.9</v>
+        <v>4.55</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2116,13 +2116,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>295.94</v>
+        <v>294</v>
       </c>
       <c r="F54" t="n">
-        <v>291.39</v>
+        <v>296.98</v>
       </c>
       <c r="G54" t="n">
-        <v>4.55</v>
+        <v>-2.98</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>294.6</v>
+        <v>280.8</v>
       </c>
       <c r="F55" t="n">
-        <v>297.52</v>
+        <v>277.48</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.92</v>
+        <v>3.32</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2178,13 +2178,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>294</v>
+        <v>273.8</v>
       </c>
       <c r="F56" t="n">
-        <v>296.98</v>
+        <v>276.75</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.98</v>
+        <v>-2.95</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2209,13 +2209,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>302</v>
+        <v>289.5</v>
       </c>
       <c r="F57" t="n">
-        <v>296.69</v>
+        <v>292.4</v>
       </c>
       <c r="G57" t="n">
-        <v>5.31</v>
+        <v>-2.9</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2240,13 +2240,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>280.8</v>
+        <v>294.6</v>
       </c>
       <c r="F58" t="n">
-        <v>277.48</v>
+        <v>297.52</v>
       </c>
       <c r="G58" t="n">
-        <v>3.32</v>
+        <v>-2.92</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>297.79</v>
+        <v>300.48</v>
       </c>
       <c r="F59" t="n">
-        <v>298.64</v>
+        <v>303.24</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.85</v>
+        <v>-2.76</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2298,17 +2298,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00345504 BTC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>300.48</v>
+        <v>91600</v>
       </c>
       <c r="F60" t="n">
-        <v>303.24</v>
+        <v>300</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.76</v>
+        <v>14.36</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2329,17 +2329,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00163177 BTC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>301.69</v>
+        <v>91943.45</v>
       </c>
       <c r="F61" t="n">
-        <v>298.73</v>
+        <v>150</v>
       </c>
       <c r="G61" t="n">
-        <v>2.96</v>
+        <v>0.03</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2360,17 +2360,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>357.77499455 DOGE</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>300.75</v>
+        <v>0.2137</v>
       </c>
       <c r="F62" t="n">
-        <v>300.85</v>
+        <v>70</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1</v>
+        <v>5.51</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -2395,13 +2395,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>301.05</v>
+        <v>292.52</v>
       </c>
       <c r="F63" t="n">
-        <v>299.58</v>
+        <v>297.86</v>
       </c>
       <c r="G63" t="n">
-        <v>1.47</v>
+        <v>-5.34</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2426,13 +2426,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>296.64</v>
+        <v>311.5</v>
       </c>
       <c r="F64" t="n">
-        <v>298.88</v>
+        <v>298.9</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.24</v>
+        <v>12.6</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>311.5</v>
+        <v>298.29</v>
       </c>
       <c r="F65" t="n">
-        <v>298.9</v>
+        <v>300.25</v>
       </c>
       <c r="G65" t="n">
-        <v>12.6</v>
+        <v>-1.96</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2484,17 +2484,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.00345504 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>91600</v>
+        <v>296.64</v>
       </c>
       <c r="F66" t="n">
-        <v>300</v>
+        <v>298.88</v>
       </c>
       <c r="G66" t="n">
-        <v>14.36</v>
+        <v>-2.24</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.00163177 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>91943.45</v>
+        <v>297.79</v>
       </c>
       <c r="F67" t="n">
-        <v>150</v>
+        <v>298.64</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03</v>
+        <v>-0.85</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -2550,13 +2550,13 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>298.29</v>
+        <v>301.05</v>
       </c>
       <c r="F68" t="n">
-        <v>300.25</v>
+        <v>299.58</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.96</v>
+        <v>1.47</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -2581,13 +2581,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>292.52</v>
+        <v>300.75</v>
       </c>
       <c r="F69" t="n">
-        <v>297.86</v>
+        <v>300.85</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.34</v>
+        <v>-0.1</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2608,17 +2608,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>357.77499455 DOGE</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.2137</v>
+        <v>301.69</v>
       </c>
       <c r="F70" t="n">
-        <v>70</v>
+        <v>298.73</v>
       </c>
       <c r="G70" t="n">
-        <v>5.51</v>
+        <v>2.96</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -2643,13 +2643,13 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F71" t="n">
-        <v>301.08</v>
+        <v>293.9</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08</v>
+        <v>-0.9</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -2674,13 +2674,13 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>298.28</v>
+        <v>296.5</v>
       </c>
       <c r="F72" t="n">
-        <v>303.45</v>
+        <v>288.22</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.17</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>289</v>
+        <v>301.25</v>
       </c>
       <c r="F73" t="n">
-        <v>299.6</v>
+        <v>298.87</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.6</v>
+        <v>2.38</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -2736,13 +2736,13 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>296.5</v>
+        <v>298.28</v>
       </c>
       <c r="F74" t="n">
-        <v>288.22</v>
+        <v>303.45</v>
       </c>
       <c r="G74" t="n">
-        <v>8.279999999999999</v>
+        <v>-5.17</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -2767,13 +2767,13 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F75" t="n">
-        <v>293.9</v>
+        <v>299.6</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.9</v>
+        <v>-10.6</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -2829,13 +2829,13 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>301.25</v>
+        <v>301</v>
       </c>
       <c r="F77" t="n">
-        <v>298.87</v>
+        <v>301.08</v>
       </c>
       <c r="G77" t="n">
-        <v>2.38</v>
+        <v>-0.08</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
@@ -3197,17 +3197,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>2 shares</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>293.82</v>
+        <v>294.86</v>
       </c>
       <c r="F89" t="n">
-        <v>294.63</v>
+        <v>584.4</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8100000000000001</v>
+        <v>5.32</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>277.5</v>
+        <v>293.82</v>
       </c>
       <c r="F90" t="n">
-        <v>263.16</v>
+        <v>294.63</v>
       </c>
       <c r="G90" t="n">
-        <v>14.34</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>290</v>
+        <v>277.5</v>
       </c>
       <c r="F91" t="n">
-        <v>278.3</v>
+        <v>263.16</v>
       </c>
       <c r="G91" t="n">
-        <v>11.7</v>
+        <v>14.34</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
@@ -3290,17 +3290,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2 shares</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>294.86</v>
+        <v>290</v>
       </c>
       <c r="F92" t="n">
-        <v>584.4</v>
+        <v>278.3</v>
       </c>
       <c r="G92" t="n">
-        <v>5.32</v>
+        <v>11.7</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3352,17 +3352,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00600252 BTC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>290.5</v>
+        <v>83228.45</v>
       </c>
       <c r="F94" t="n">
-        <v>290.31</v>
+        <v>500</v>
       </c>
       <c r="G94" t="n">
-        <v>0.19</v>
+        <v>-0.42</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3383,17 +3383,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00297475 BTC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>289.35</v>
+        <v>84487.62</v>
       </c>
       <c r="F95" t="n">
-        <v>291.25</v>
+        <v>250</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.9</v>
+        <v>2.56</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3414,17 +3414,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00593669 BTC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>287</v>
+        <v>84056.77</v>
       </c>
       <c r="F96" t="n">
-        <v>289.72</v>
+        <v>500</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.72</v>
+        <v>-0.98</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3445,17 +3445,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00596002 BTC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>285.25</v>
+        <v>84073.45</v>
       </c>
       <c r="F97" t="n">
-        <v>288.38</v>
+        <v>500</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.13</v>
+        <v>1.08</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
@@ -3476,17 +3476,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.00601472 BTC</t>
+          <t>0.00600211 BTC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>82878.57000000001</v>
+        <v>83847.73</v>
       </c>
       <c r="F98" t="n">
         <v>500</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.51</v>
+        <v>3.26</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
@@ -3507,17 +3507,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.00603002 BTC</t>
+          <t>0.00597371 BTC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>82706.56</v>
+        <v>83609.36</v>
       </c>
       <c r="F99" t="n">
         <v>500</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.28</v>
+        <v>-0.54</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3569,17 +3569,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.00600361 BTC</t>
+          <t>0.00603002 BTC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>83265</v>
+        <v>82706.56</v>
       </c>
       <c r="F101" t="n">
         <v>500</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.11</v>
+        <v>-1.28</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
@@ -3600,17 +3600,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.00600211 BTC</t>
+          <t>0.00601472 BTC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>83847.73</v>
+        <v>82878.57000000001</v>
       </c>
       <c r="F102" t="n">
         <v>500</v>
       </c>
       <c r="G102" t="n">
-        <v>3.26</v>
+        <v>-1.51</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3631,17 +3631,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.00596002 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>84073.45</v>
+        <v>287</v>
       </c>
       <c r="F103" t="n">
-        <v>500</v>
+        <v>289.72</v>
       </c>
       <c r="G103" t="n">
-        <v>1.08</v>
+        <v>-2.72</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3662,17 +3662,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.00593669 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>84056.77</v>
+        <v>290.5</v>
       </c>
       <c r="F104" t="n">
-        <v>500</v>
+        <v>290.31</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.98</v>
+        <v>0.19</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
@@ -3693,17 +3693,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.00297475 BTC</t>
+          <t>0.00600361 BTC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>84487.62</v>
+        <v>83265</v>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G105" t="n">
-        <v>2.56</v>
+        <v>-0.11</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
@@ -3724,17 +3724,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.00597371 BTC</t>
+          <t>0.00599115 BTC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>83609.36</v>
+        <v>83418.53</v>
       </c>
       <c r="F106" t="n">
         <v>500</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.54</v>
+        <v>-0.23</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3755,17 +3755,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.00600252 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>83228.45</v>
+        <v>285.25</v>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>288.38</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.42</v>
+        <v>-3.13</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
@@ -3786,17 +3786,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.00601019 BTC</t>
+          <t>0.00598435 BTC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>83198.78</v>
+        <v>83539.45</v>
       </c>
       <c r="F108" t="n">
         <v>500</v>
       </c>
       <c r="G108" t="n">
-        <v>0.04</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
@@ -3910,17 +3910,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.00300708 BTC</t>
+          <t>0.00301103 BTC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>83082.14999999999</v>
+        <v>83073.64</v>
       </c>
       <c r="F112" t="n">
         <v>250</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.17</v>
+        <v>0.36</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
@@ -3941,17 +3941,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0.00599115 BTC</t>
+          <t>0.00300708 BTC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>83418.53</v>
+        <v>83082.14999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.23</v>
+        <v>-0.17</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
@@ -3972,17 +3972,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.00600784 BTC</t>
+          <t>0.00601019 BTC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>83176.14999999999</v>
+        <v>83198.78</v>
       </c>
       <c r="F114" t="n">
         <v>500</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.29</v>
+        <v>0.04</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4034,17 +4034,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.00300557 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>83382.71000000001</v>
+        <v>289.35</v>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>291.25</v>
       </c>
       <c r="G116" t="n">
-        <v>1.21</v>
+        <v>-1.9</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
@@ -4065,17 +4065,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.00598775 BTC</t>
+          <t>0.00601191 BTC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>83438.05</v>
+        <v>83166.41</v>
       </c>
       <c r="F117" t="n">
         <v>500</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.39</v>
+        <v>-0.01</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -4096,17 +4096,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.00299431 BTC</t>
+          <t>0.00300557 BTC</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>83691.63</v>
+        <v>83382.71000000001</v>
       </c>
       <c r="F118" t="n">
         <v>250</v>
       </c>
       <c r="G118" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
@@ -4127,17 +4127,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.00598082 BTC</t>
+          <t>0.00598775 BTC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>83539.63</v>
+        <v>83438.05</v>
       </c>
       <c r="F119" t="n">
         <v>500</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.36</v>
+        <v>-0.39</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -4158,17 +4158,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.00598435 BTC</t>
+          <t>0.00299431 BTC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>83539.45</v>
+        <v>83691.63</v>
       </c>
       <c r="F120" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.07000000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
@@ -4189,17 +4189,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0.00601191 BTC</t>
+          <t>0.00600784 BTC</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>83166.41</v>
+        <v>83176.14999999999</v>
       </c>
       <c r="F121" t="n">
         <v>500</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.01</v>
+        <v>-0.29</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
@@ -4220,17 +4220,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0.00301103 BTC</t>
+          <t>0.00598082 BTC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>83073.64</v>
+        <v>83539.63</v>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G122" t="n">
-        <v>0.36</v>
+        <v>-0.36</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
@@ -4251,17 +4251,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0.00588456 BTC</t>
+          <t>0.00611995 BTC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>83122.3</v>
+        <v>81515.13</v>
       </c>
       <c r="F123" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.86</v>
+        <v>-1.13</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
@@ -4282,17 +4282,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.00596537 BTC</t>
+          <t>0.00612925 BTC</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>83682.89999999999</v>
+        <v>81627</v>
       </c>
       <c r="F124" t="n">
         <v>500</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.8</v>
+        <v>0.31</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0.00601109 BTC</t>
+          <t>0.00612942 BTC</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>83133.07000000001</v>
+        <v>81500.00999999999</v>
       </c>
       <c r="F125" t="n">
         <v>500</v>
       </c>
       <c r="G125" t="n">
-        <v>0.82</v>
+        <v>-0.45</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
@@ -4344,17 +4344,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0.00602287 BTC</t>
+          <t>0.00614209 BTC</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>83002.39</v>
+        <v>81407.16</v>
       </c>
       <c r="F126" t="n">
         <v>500</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.09</v>
+        <v>0.01</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -4375,17 +4375,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0.00361031 BTC</t>
+          <t>0.00608717 BTC</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>82808.98</v>
+        <v>82069.03</v>
       </c>
       <c r="F127" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G127" t="n">
-        <v>-1.03</v>
+        <v>-0.43</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
@@ -4406,17 +4406,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.00610175 BTC</t>
+          <t>0.00307352 BTC</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>82126.63</v>
+        <v>81681.92</v>
       </c>
       <c r="F128" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
-        <v>1.12</v>
+        <v>2.12</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
@@ -4437,17 +4437,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0.00610217 BTC</t>
+          <t>0.00487116 BTC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>81893.85000000001</v>
+        <v>82004.86</v>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.27</v>
+        <v>-0.54</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
@@ -4468,17 +4468,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0.00597451 BTC</t>
+          <t>0.00609590 BTC</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>81921.47</v>
+        <v>81964.3</v>
       </c>
       <c r="F130" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.35</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
@@ -4499,17 +4499,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0.00609590 BTC</t>
+          <t>0.00597451 BTC</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>81964.3</v>
+        <v>81921.47</v>
       </c>
       <c r="F131" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.35</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
@@ -4530,17 +4530,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0.00487116 BTC</t>
+          <t>0.00610217 BTC</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>82004.86</v>
+        <v>81893.85000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.54</v>
+        <v>-0.27</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
@@ -4561,17 +4561,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0.00608717 BTC</t>
+          <t>0.00614576 BTC</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>82069.03</v>
+        <v>81284.81</v>
       </c>
       <c r="F133" t="n">
         <v>500</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
@@ -4592,17 +4592,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0.00307352 BTC</t>
+          <t>0.00306277 BTC</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>81681.92</v>
+        <v>81561.82000000001</v>
       </c>
       <c r="F134" t="n">
         <v>250</v>
       </c>
       <c r="G134" t="n">
-        <v>2.12</v>
+        <v>1.13</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
@@ -4623,17 +4623,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0.00614209 BTC</t>
+          <t>0.00612231 BTC</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>81407.16</v>
+        <v>81557.94</v>
       </c>
       <c r="F135" t="n">
         <v>500</v>
       </c>
       <c r="G135" t="n">
-        <v>0.01</v>
+        <v>-0.68</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
@@ -4654,17 +4654,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0.00612942 BTC</t>
+          <t>0.00612084 BTC</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>81500.00999999999</v>
+        <v>81603.82000000001</v>
       </c>
       <c r="F136" t="n">
         <v>500</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.45</v>
+        <v>-0.52</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
@@ -4685,17 +4685,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0.00612925 BTC</t>
+          <t>0.00611960 BTC</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>81627</v>
+        <v>81608.75</v>
       </c>
       <c r="F137" t="n">
         <v>500</v>
       </c>
       <c r="G137" t="n">
-        <v>0.31</v>
+        <v>-0.59</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
@@ -4716,17 +4716,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0.00614576 BTC</t>
+          <t>0.00306105 BTC</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>81284.81</v>
+        <v>81784.50999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.44</v>
+        <v>1.29</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
@@ -4747,17 +4747,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0.00306277 BTC</t>
+          <t>0.00307541 BTC</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>81561.82000000001</v>
+        <v>81794.06</v>
       </c>
       <c r="F139" t="n">
         <v>250</v>
       </c>
       <c r="G139" t="n">
-        <v>1.13</v>
+        <v>3.4</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
@@ -4778,17 +4778,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.00614677 BTC</t>
+          <t>0.00615666 BTC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>81181.84</v>
+        <v>81205.71000000001</v>
       </c>
       <c r="F140" t="n">
         <v>500</v>
       </c>
       <c r="G140" t="n">
-        <v>-0.99</v>
+        <v>-0.04</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
@@ -4809,17 +4809,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0.00611995 BTC</t>
+          <t>0.00361031 BTC</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>81515.13</v>
+        <v>82808.98</v>
       </c>
       <c r="F141" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G141" t="n">
-        <v>-1.13</v>
+        <v>-1.03</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -4840,17 +4840,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0.00307541 BTC</t>
+          <t>0.00601307 BTC</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>81794.06</v>
+        <v>83045.95</v>
       </c>
       <c r="F142" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G142" t="n">
-        <v>3.4</v>
+        <v>-0.64</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0.00306105 BTC</t>
+          <t>0.00602287 BTC</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>81784.50999999999</v>
+        <v>83002.39</v>
       </c>
       <c r="F143" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G143" t="n">
-        <v>1.29</v>
+        <v>-0.09</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -4902,17 +4902,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0.00615666 BTC</t>
+          <t>0.00588456 BTC</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>81205.71000000001</v>
+        <v>83122.3</v>
       </c>
       <c r="F144" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.04</v>
+        <v>-0.86</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -4933,17 +4933,17 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0.00612231 BTC</t>
+          <t>0.00601109 BTC</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>81557.94</v>
+        <v>83133.07000000001</v>
       </c>
       <c r="F145" t="n">
         <v>500</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.68</v>
+        <v>0.82</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -4964,17 +4964,17 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0.00612084 BTC</t>
+          <t>0.00596537 BTC</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>81603.82000000001</v>
+        <v>83682.89999999999</v>
       </c>
       <c r="F146" t="n">
         <v>500</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.52</v>
+        <v>-0.8</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4995,17 +4995,17 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00610175 BTC</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>287.38</v>
+        <v>82126.63</v>
       </c>
       <c r="F147" t="n">
-        <v>288.38</v>
+        <v>500</v>
       </c>
       <c r="G147" t="n">
-        <v>-1</v>
+        <v>1.12</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5026,17 +5026,17 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0.00611960 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>81608.75</v>
+        <v>287.38</v>
       </c>
       <c r="F148" t="n">
-        <v>500</v>
+        <v>288.38</v>
       </c>
       <c r="G148" t="n">
-        <v>-0.59</v>
+        <v>-1</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
@@ -5057,17 +5057,17 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0.00601307 BTC</t>
+          <t>0.00614677 BTC</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>83045.95</v>
+        <v>81181.84</v>
       </c>
       <c r="F149" t="n">
         <v>500</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.64</v>
+        <v>-0.99</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
@@ -5088,17 +5088,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0.00604678 BTC</t>
+          <t>0.00302339 BTC</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>82629.73</v>
+        <v>83063.61</v>
       </c>
       <c r="F150" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.36</v>
+        <v>2.34</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
@@ -5119,17 +5119,17 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0.00292945 BTC</t>
+          <t>0.00662940 BTC</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>85550.25999999999</v>
+        <v>82881.06</v>
       </c>
       <c r="F151" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="G151" t="n">
-        <v>1.42</v>
+        <v>-0.55</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -5150,17 +5150,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0.00307504 BTC</t>
+          <t>0.00601133 BTC</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>85273.86</v>
+        <v>83049.50999999999</v>
       </c>
       <c r="F152" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="G152" t="n">
-        <v>4.73</v>
+        <v>-0.76</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
@@ -5181,17 +5181,17 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0.00309217 BTC</t>
+          <t>0.00292945 BTC</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>84590.81</v>
+        <v>85550.25999999999</v>
       </c>
       <c r="F153" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G153" t="n">
-        <v>3.28</v>
+        <v>1.42</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -5212,17 +5212,17 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0.00301402 BTC</t>
+          <t>0.00307504 BTC</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>83995.99000000001</v>
+        <v>85273.86</v>
       </c>
       <c r="F154" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G154" t="n">
-        <v>3.79</v>
+        <v>4.73</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -5243,17 +5243,17 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.00604796 BTC</t>
+          <t>0.00309217 BTC</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>82744.75999999999</v>
+        <v>84590.81</v>
       </c>
       <c r="F155" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="G155" t="n">
-        <v>0.44</v>
+        <v>3.28</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
@@ -5274,17 +5274,17 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0.00604569 BTC</t>
+          <t>0.00604796 BTC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>82619.56</v>
+        <v>82744.75999999999</v>
       </c>
       <c r="F156" t="n">
         <v>500</v>
       </c>
       <c r="G156" t="n">
-        <v>-0.51</v>
+        <v>0.44</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
@@ -5305,17 +5305,17 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0.00604566 BTC</t>
+          <t>0.00604569 BTC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>82697.61</v>
+        <v>82619.56</v>
       </c>
       <c r="F157" t="n">
         <v>500</v>
       </c>
       <c r="G157" t="n">
-        <v>-0.04</v>
+        <v>-0.51</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
@@ -5336,17 +5336,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0.00772381 BTC</t>
+          <t>0.00301402 BTC</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>82887.96000000001</v>
+        <v>83995.99000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>640</v>
+        <v>250</v>
       </c>
       <c r="G158" t="n">
-        <v>0.21</v>
+        <v>3.79</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
@@ -5367,17 +5367,17 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0.00603339 BTC</t>
+          <t>0.00604566 BTC</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>82807.66</v>
+        <v>82697.61</v>
       </c>
       <c r="F159" t="n">
         <v>500</v>
       </c>
       <c r="G159" t="n">
-        <v>-0.39</v>
+        <v>-0.04</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -5398,17 +5398,17 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0.00603021 BTC</t>
+          <t>0.00604898 BTC</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>82848.03</v>
+        <v>82579.38</v>
       </c>
       <c r="F160" t="n">
         <v>500</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.41</v>
+        <v>-0.48</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
@@ -5429,17 +5429,17 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0.00662940 BTC</t>
+          <t>0.00772381 BTC</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>82881.06</v>
+        <v>82887.96000000001</v>
       </c>
       <c r="F161" t="n">
-        <v>550</v>
+        <v>640</v>
       </c>
       <c r="G161" t="n">
-        <v>-0.55</v>
+        <v>0.21</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
@@ -5460,17 +5460,17 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0.00601133 BTC</t>
+          <t>0.00603339 BTC</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>83049.50999999999</v>
+        <v>82807.66</v>
       </c>
       <c r="F162" t="n">
         <v>500</v>
       </c>
       <c r="G162" t="n">
-        <v>-0.76</v>
+        <v>-0.39</v>
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
@@ -5491,17 +5491,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0.00302339 BTC</t>
+          <t>0.00603021 BTC</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>83063.61</v>
+        <v>82848.03</v>
       </c>
       <c r="F163" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G163" t="n">
-        <v>2.34</v>
+        <v>-0.41</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
@@ -5522,17 +5522,17 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0.00604898 BTC</t>
+          <t>0.00604678 BTC</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>82579.38</v>
+        <v>82629.73</v>
       </c>
       <c r="F164" t="n">
         <v>500</v>
       </c>
       <c r="G164" t="n">
-        <v>-0.48</v>
+        <v>-0.36</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
@@ -5584,17 +5584,17 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0.00680529 BTC</t>
+          <t>0.00282986 BTC</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>88267.2</v>
+        <v>88365.02</v>
       </c>
       <c r="F166" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="G166" t="n">
-        <v>-0.86</v>
+        <v>1.15</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
@@ -5615,17 +5615,17 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0.00452833 BTC</t>
+          <t>0.00680529 BTC</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>88324.13</v>
+        <v>88267.2</v>
       </c>
       <c r="F167" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G167" t="n">
-        <v>-0.04</v>
+        <v>-0.86</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
@@ -5646,17 +5646,17 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0.00284366 BTC</t>
+          <t>0.00452833 BTC</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>88305.92</v>
+        <v>88324.13</v>
       </c>
       <c r="F168" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="G168" t="n">
-        <v>4.1</v>
+        <v>-0.04</v>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
@@ -5677,17 +5677,17 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0.00855437 BTC</t>
+          <t>0.00284366 BTC</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>88004</v>
+        <v>88305.92</v>
       </c>
       <c r="F169" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="G169" t="n">
-        <v>2.82</v>
+        <v>4.1</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
@@ -5708,17 +5708,17 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0.00282986 BTC</t>
+          <t>0.00287227 BTC</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>88365.02</v>
+        <v>86894.34</v>
       </c>
       <c r="F170" t="n">
         <v>250</v>
       </c>
       <c r="G170" t="n">
-        <v>1.15</v>
+        <v>-0.42</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5739,17 +5739,17 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>0.00287227 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>86894.34</v>
+        <v>323.32</v>
       </c>
       <c r="F171" t="n">
-        <v>250</v>
+        <v>325.72</v>
       </c>
       <c r="G171" t="n">
-        <v>-0.42</v>
+        <v>-2.4</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5863,17 +5863,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00855437 BTC</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>323.32</v>
+        <v>88004</v>
       </c>
       <c r="F175" t="n">
-        <v>325.72</v>
+        <v>750</v>
       </c>
       <c r="G175" t="n">
-        <v>-2.4</v>
+        <v>2.82</v>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USD</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6142,17 +6142,17 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0.00913291 BTC</t>
+          <t>829.83292879 DOGE</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>87593.10000000001</v>
+        <v>0.1926</v>
       </c>
       <c r="F184" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="G184" t="n">
-        <v>-0.02</v>
+        <v>-0.17</v>
       </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
@@ -6173,17 +6173,17 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0.00801470 BTC</t>
+          <t>0.00913291 BTC</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>88106.78</v>
+        <v>87593.10000000001</v>
       </c>
       <c r="F185" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G185" t="n">
-        <v>6.15</v>
+        <v>-0.02</v>
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>DOGE/USD</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6235,17 +6235,17 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>829.83292879 DOGE</t>
+          <t>0.00801470 BTC</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.1926</v>
+        <v>88106.78</v>
       </c>
       <c r="F187" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="G187" t="n">
-        <v>-0.17</v>
+        <v>6.15</v>
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
@@ -6297,17 +6297,17 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0.00915665 BTC</t>
+          <t>0.00915311 BTC</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>87278.22</v>
+        <v>87396</v>
       </c>
       <c r="F189" t="n">
         <v>800</v>
       </c>
       <c r="G189" t="n">
-        <v>-0.82</v>
+        <v>-0.06</v>
       </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
@@ -6328,17 +6328,17 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0.00915311 BTC</t>
+          <t>0.00915665 BTC</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>87396</v>
+        <v>87278.22</v>
       </c>
       <c r="F190" t="n">
         <v>800</v>
       </c>
       <c r="G190" t="n">
-        <v>-0.06</v>
+        <v>-0.82</v>
       </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
@@ -6886,17 +6886,17 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0.01562217 BTC</t>
+          <t>0.02167198 BTC</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>83156</v>
+        <v>83373.64</v>
       </c>
       <c r="F208" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="G208" t="n">
-        <v>-0.92</v>
+        <v>6.87</v>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
@@ -6917,17 +6917,17 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>0.02167198 BTC</t>
+          <t>0.01562217 BTC</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>83373.64</v>
+        <v>83156</v>
       </c>
       <c r="F209" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="G209" t="n">
-        <v>6.87</v>
+        <v>-0.92</v>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -6948,17 +6948,17 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.01405324 BTC</t>
+          <t>0.01525242 BTC</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>85265.36</v>
+        <v>85137.91</v>
       </c>
       <c r="F210" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G210" t="n">
-        <v>-1.75</v>
+        <v>-1.44</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -6979,17 +6979,17 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0.01525242 BTC</t>
+          <t>0.01528139 BTC</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>85137.91</v>
+        <v>85034.85000000001</v>
       </c>
       <c r="F211" t="n">
         <v>1300</v>
       </c>
       <c r="G211" t="n">
-        <v>-1.44</v>
+        <v>-0.55</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -7010,17 +7010,17 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0.01528139 BTC</t>
+          <t>0.01405324 BTC</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>85034.85000000001</v>
+        <v>85265.36</v>
       </c>
       <c r="F212" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G212" t="n">
-        <v>-0.55</v>
+        <v>-1.75</v>
       </c>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
@@ -7196,17 +7196,17 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0.01532621 BTC</t>
+          <t>0.01532997 BTC</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>84759.37</v>
+        <v>84719.92999999999</v>
       </c>
       <c r="F218" t="n">
         <v>1300</v>
       </c>
       <c r="G218" t="n">
-        <v>-0.96</v>
+        <v>-1.25</v>
       </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
@@ -7258,17 +7258,17 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0.01532997 BTC</t>
+          <t>0.01532621 BTC</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>84719.92999999999</v>
+        <v>84759.37</v>
       </c>
       <c r="F220" t="n">
         <v>1300</v>
       </c>
       <c r="G220" t="n">
-        <v>-1.25</v>
+        <v>-0.96</v>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
@@ -7444,17 +7444,17 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>0.01523107 BTC</t>
+          <t>0.01176083 BTC</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>85208.53</v>
+        <v>85008</v>
       </c>
       <c r="F226" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G226" t="n">
-        <v>-2.18</v>
+        <v>-0.24</v>
       </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
@@ -7506,17 +7506,17 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>0.01532366 BTC</t>
+          <t>0.01523107 BTC</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>85287.21000000001</v>
+        <v>85208.53</v>
       </c>
       <c r="F228" t="n">
         <v>1300</v>
       </c>
       <c r="G228" t="n">
-        <v>6.91</v>
+        <v>-2.18</v>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
@@ -7537,17 +7537,17 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0.01566760 BTC</t>
+          <t>0.01554689 BTC</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>82898.91</v>
+        <v>83520.28999999999</v>
       </c>
       <c r="F229" t="n">
         <v>1300</v>
       </c>
       <c r="G229" t="n">
-        <v>-1.17</v>
+        <v>-1.52</v>
       </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
@@ -7568,17 +7568,17 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>0.01530492 BTC</t>
+          <t>0.01531120 BTC</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>84845.41</v>
+        <v>84778.21000000001</v>
       </c>
       <c r="F230" t="n">
         <v>1300</v>
       </c>
       <c r="G230" t="n">
-        <v>-1.45</v>
+        <v>-1.94</v>
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
@@ -7599,17 +7599,17 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>0.01574576 BTC</t>
+          <t>0.01532366 BTC</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>83122.8484</v>
+        <v>85287.21000000001</v>
       </c>
       <c r="F231" t="n">
         <v>1300</v>
       </c>
       <c r="G231" t="n">
-        <v>8.83</v>
+        <v>6.91</v>
       </c>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
@@ -7630,17 +7630,17 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0.01565901 BTC</t>
+          <t>0.01574576 BTC</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>82951.8</v>
+        <v>83122.8484</v>
       </c>
       <c r="F232" t="n">
         <v>1300</v>
       </c>
       <c r="G232" t="n">
-        <v>-1.06</v>
+        <v>8.83</v>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
@@ -7661,17 +7661,17 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>0.01566660 BTC</t>
+          <t>0.01565901 BTC</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>83137.84</v>
+        <v>82951.8</v>
       </c>
       <c r="F233" t="n">
         <v>1300</v>
       </c>
       <c r="G233" t="n">
-        <v>2.49</v>
+        <v>-1.06</v>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
@@ -7692,17 +7692,17 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>0.01563843 BTC</t>
+          <t>0.01566660 BTC</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>83056</v>
+        <v>83137.84</v>
       </c>
       <c r="F234" t="n">
         <v>1300</v>
       </c>
       <c r="G234" t="n">
-        <v>-1.13</v>
+        <v>2.49</v>
       </c>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
@@ -7723,17 +7723,17 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>0.01564569 BTC</t>
+          <t>0.01563843 BTC</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>83237.52</v>
+        <v>83056</v>
       </c>
       <c r="F235" t="n">
         <v>1300</v>
       </c>
       <c r="G235" t="n">
-        <v>2.31</v>
+        <v>-1.13</v>
       </c>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
@@ -7878,17 +7878,17 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>0.01567484 BTC</t>
+          <t>0.01564569 BTC</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>82922.96000000001</v>
+        <v>83237.52</v>
       </c>
       <c r="F240" t="n">
         <v>1300</v>
       </c>
       <c r="G240" t="n">
-        <v>-0.2</v>
+        <v>2.31</v>
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
@@ -7909,17 +7909,17 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0.01567529 BTC</t>
+          <t>0.01567484 BTC</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>82992.31</v>
+        <v>82922.96000000001</v>
       </c>
       <c r="F241" t="n">
         <v>1300</v>
       </c>
       <c r="G241" t="n">
-        <v>0.93</v>
+        <v>-0.2</v>
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
@@ -7940,17 +7940,17 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>0.01437815 BTC</t>
+          <t>0.01567529 BTC</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>83458.2164</v>
+        <v>82992.31</v>
       </c>
       <c r="F242" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G242" t="n">
-        <v>-0.03</v>
+        <v>0.93</v>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
@@ -7971,17 +7971,17 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>0.01556970 BTC</t>
+          <t>0.01437815 BTC</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>83443.34</v>
+        <v>83458.2164</v>
       </c>
       <c r="F243" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G243" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.03</v>
       </c>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
@@ -8002,17 +8002,17 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>0.01556218 BTC</t>
+          <t>0.01556970 BTC</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>83589.00999999999</v>
+        <v>83443.34</v>
       </c>
       <c r="F244" t="n">
         <v>1300</v>
       </c>
       <c r="G244" t="n">
-        <v>0.83</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
@@ -8033,17 +8033,17 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>0.01554689 BTC</t>
+          <t>0.01556218 BTC</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>83520.28999999999</v>
+        <v>83589.00999999999</v>
       </c>
       <c r="F245" t="n">
         <v>1300</v>
       </c>
       <c r="G245" t="n">
-        <v>-1.52</v>
+        <v>0.83</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
@@ -8126,17 +8126,17 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>0.01531120 BTC</t>
+          <t>0.01566760 BTC</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>84778.21000000001</v>
+        <v>82898.91</v>
       </c>
       <c r="F248" t="n">
         <v>1300</v>
       </c>
       <c r="G248" t="n">
-        <v>-1.94</v>
+        <v>-1.17</v>
       </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
@@ -8157,20 +8157,1539 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>0.01176083 BTC</t>
+          <t>0.01530492 BTC</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>85008</v>
+        <v>84845.41</v>
       </c>
       <c r="F249" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G249" t="n">
-        <v>-0.24</v>
+        <v>-1.45</v>
       </c>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>0.01158808 BTC</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>86110.48</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>0.01153005 BTC</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>86711.06</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>0.00115314 BTC</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>86653.61</v>
+      </c>
+      <c r="F252" t="n">
+        <v>100</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>0.01158766 BTC</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>86193.42</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>0.01159651 BTC</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>86224.13</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>0.01158555 BTC</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>86209.92</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>0.01158673 BTC</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>86244.75999999999</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>0.01159017 BTC</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>87583.24000000001</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G257" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>0.01158139 BTC</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>86788.21000000001</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G258" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>0.00566534 BTC</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>87929</v>
+      </c>
+      <c r="F259" t="n">
+        <v>500</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>0.00582479 BTC</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>85373.22</v>
+      </c>
+      <c r="F260" t="n">
+        <v>500</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>0.01145427 BTC</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>87186.44</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>0.00572866 BTC</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>86618.38</v>
+      </c>
+      <c r="F262" t="n">
+        <v>500</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-3.79</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>0.00579441 BTC</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>85640.09</v>
+      </c>
+      <c r="F263" t="n">
+        <v>500</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-3.77</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>0.00581152 BTC</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>85748.64</v>
+      </c>
+      <c r="F264" t="n">
+        <v>500</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>0.00581503 BTC</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>85952.7</v>
+      </c>
+      <c r="F265" t="n">
+        <v>500</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>0.00581943 BTC</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>85760.07000000001</v>
+      </c>
+      <c r="F266" t="n">
+        <v>500</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>0.00582273 BTC</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>85760.81</v>
+      </c>
+      <c r="F267" t="n">
+        <v>500</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>0.01155963 BTC</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>86301.87</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>0.00585194 BTC</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>85305.71000000001</v>
+      </c>
+      <c r="F269" t="n">
+        <v>500</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>0.00584405 BTC</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>85541.5</v>
+      </c>
+      <c r="F270" t="n">
+        <v>500</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>0.00569396 BTC</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>87548.3</v>
+      </c>
+      <c r="F271" t="n">
+        <v>500</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>0.01155804 BTC</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>86509.5</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>0.01152400 BTC</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>86667.16</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>0.01156576 BTC</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>86375.75999999999</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>0.01178633 BTC</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>85274.95</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G275" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>0.01171814 BTC</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>85229.89</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>0.01170772 BTC</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>85809.14</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G277" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>0.01166018 BTC</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>85642.36</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>0.01166950 BTC</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>85566.05</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>0.01167896 BTC</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>85462.13</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>DOGE/USD</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>6,418.92795222 DOGE</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>0.1712</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>0.01170220 BTC</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>85372.92</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>0.01170520 BTC</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>85486.98</v>
+      </c>
+      <c r="F283" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>0.01170679 BTC</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>85537.05</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G284" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>0.01159348 BTC</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>86480.34</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G285" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>0.01166045 BTC</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>85664.28999999999</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>0.01167897 BTC</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>85618.41</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>0.01165387 BTC</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>86258.39999999999</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G288" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>0.01159344 BTC</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>86985.94</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G289" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>0.01152355 BTC</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>86810.71000000001</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>0.01148311 BTC</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>87078.66</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>0.01148125 BTC</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>86982.53</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>0.01149670 BTC</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>87054.37</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>0.01155241 BTC</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>86460.71000000001</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>0.01155762 BTC</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>86512.75999999999</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>0.01156023 BTC</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>86398.25</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>0.01167480 BTC</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>85686.12</v>
+      </c>
+      <c r="F297" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>0.00586190 BTC</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>85400.27</v>
+      </c>
+      <c r="F298" t="n">
+        <v>500</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,17 +593,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00415686 BTC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>134.6</v>
+        <v>97500</v>
       </c>
       <c r="F5" t="n">
-        <v>132.35</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,17 +624,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00415686 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>97500</v>
+        <v>134.6</v>
       </c>
       <c r="F6" t="n">
-        <v>400</v>
+        <v>132.35</v>
       </c>
       <c r="G6" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -903,17 +903,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.00156239 BTC</t>
+          <t>429.66400275 DOGE</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>95950</v>
+        <v>0.2209</v>
       </c>
       <c r="F15" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.09</v>
+        <v>-5.07</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -934,17 +934,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>780.63787340 DOGE</t>
+          <t>233.45940141 DOGE</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2394</v>
+        <v>0.2143</v>
       </c>
       <c r="F16" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>-16.67</v>
+        <v>0.03</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -955,7 +955,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -965,17 +965,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>429.66400275 DOGE</t>
+          <t>0.00156239 BTC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.2209</v>
+        <v>95950</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.07</v>
+        <v>-0.09</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -996,17 +996,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>233.45940141 DOGE</t>
+          <t>780.63787340 DOGE</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2143</v>
+        <v>0.2394</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03</v>
+        <v>-16.67</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1027,17 +1027,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>488.30509302 DOGE</t>
+          <t>478.35446066 DOGE</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.2041</v>
+        <v>0.209</v>
       </c>
       <c r="F19" t="n">
         <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.33</v>
+        <v>-0.01</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1058,17 +1058,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>475.91852275 DOGE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>132.43</v>
+        <v>0.2099</v>
       </c>
       <c r="F20" t="n">
-        <v>128.58</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>3.85</v>
+        <v>-0.11</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>478.35446066 DOGE</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.209</v>
+        <v>132.43</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>128.58</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01</v>
+        <v>3.85</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1120,17 +1120,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>475.91852275 DOGE</t>
+          <t>488.30509302 DOGE</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2099</v>
+        <v>0.2041</v>
       </c>
       <c r="F22" t="n">
         <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.11</v>
+        <v>-0.33</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>249</v>
+        <v>119.85</v>
       </c>
       <c r="F28" t="n">
-        <v>252.17</v>
+        <v>122.42</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.17</v>
+        <v>-2.57</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1337,17 +1337,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>485.95587521 DOGE</t>
+          <t>524.72011754 DOGE</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1985</v>
+        <v>0.198</v>
       </c>
       <c r="F29" t="n">
         <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.52</v>
+        <v>3.91</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1372,13 +1372,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>121.46</v>
+        <v>249</v>
       </c>
       <c r="F30" t="n">
-        <v>121.46</v>
+        <v>252.17</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-3.17</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ETH/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1399,17 +1399,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.04637380 ETH</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2213.35</v>
+        <v>121.46</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>121.46</v>
       </c>
       <c r="G31" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1430,17 +1430,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>485.95587521 DOGE</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>119.85</v>
+        <v>0.1985</v>
       </c>
       <c r="F32" t="n">
-        <v>122.42</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.57</v>
+        <v>-3.52</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>ETH/USDT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1461,17 +1461,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>524.72011754 DOGE</t>
+          <t>0.04637380 ETH</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.198</v>
+        <v>2213.35</v>
       </c>
       <c r="F33" t="n">
         <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>3.91</v>
+        <v>2.64</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SOL/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1523,17 +1523,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.00616275 SOL</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>155.88</v>
+        <v>113.44</v>
       </c>
       <c r="F35" t="n">
-        <v>160</v>
+        <v>119.56</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.16</v>
+        <v>-6.12</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1589,13 +1589,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>113.44</v>
+        <v>263.56</v>
       </c>
       <c r="F37" t="n">
-        <v>119.56</v>
+        <v>264.4</v>
       </c>
       <c r="G37" t="n">
-        <v>-6.12</v>
+        <v>-0.84</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1616,17 +1616,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>451.65078361 DOGE</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>263.56</v>
+        <v>0.2189</v>
       </c>
       <c r="F38" t="n">
-        <v>264.4</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.84</v>
+        <v>-1.12</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>SOL/USDT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>1.00616275 SOL</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>120.83</v>
+        <v>155.88</v>
       </c>
       <c r="F39" t="n">
-        <v>122.14</v>
+        <v>160</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.31</v>
+        <v>-3.16</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -1678,17 +1678,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.99870755 SOL</t>
+          <t>0.97282179 SOL</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>169.71</v>
+        <v>162.02</v>
       </c>
       <c r="F40" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.51</v>
+        <v>-2.38</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SOL/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1709,17 +1709,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.97282179 SOL</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>162.02</v>
+        <v>286.76</v>
       </c>
       <c r="F41" t="n">
-        <v>160</v>
+        <v>257.22</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.38</v>
+        <v>29.54</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1740,17 +1740,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>926.48165169 DOGE</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>286.76</v>
+        <v>0.2258</v>
       </c>
       <c r="F42" t="n">
-        <v>257.22</v>
+        <v>200</v>
       </c>
       <c r="G42" t="n">
-        <v>29.54</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>SOL/USDT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1771,17 +1771,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>926.48165169 DOGE</t>
+          <t>0.99870755 SOL</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2258</v>
+        <v>169.71</v>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G43" t="n">
-        <v>9.199999999999999</v>
+        <v>-0.51</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1802,17 +1802,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>451.65078361 DOGE</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.2189</v>
+        <v>120.83</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>122.14</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.12</v>
+        <v>-1.31</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2085,13 +2085,13 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>295.94</v>
+        <v>294</v>
       </c>
       <c r="F53" t="n">
-        <v>291.39</v>
+        <v>296.98</v>
       </c>
       <c r="G53" t="n">
-        <v>4.55</v>
+        <v>-2.98</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2116,13 +2116,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>294</v>
+        <v>294.6</v>
       </c>
       <c r="F54" t="n">
-        <v>296.98</v>
+        <v>297.52</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.98</v>
+        <v>-2.92</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>280.8</v>
+        <v>289.5</v>
       </c>
       <c r="F55" t="n">
-        <v>277.48</v>
+        <v>292.4</v>
       </c>
       <c r="G55" t="n">
-        <v>3.32</v>
+        <v>-2.9</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2209,13 +2209,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>289.5</v>
+        <v>295.94</v>
       </c>
       <c r="F57" t="n">
-        <v>292.4</v>
+        <v>291.39</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.9</v>
+        <v>4.55</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2240,13 +2240,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>294.6</v>
+        <v>280.8</v>
       </c>
       <c r="F58" t="n">
-        <v>297.52</v>
+        <v>277.48</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.92</v>
+        <v>3.32</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2267,17 +2267,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00345504 BTC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>300.48</v>
+        <v>91600</v>
       </c>
       <c r="F59" t="n">
-        <v>303.24</v>
+        <v>300</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.76</v>
+        <v>14.36</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2298,17 +2298,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.00345504 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>91600</v>
+        <v>300.48</v>
       </c>
       <c r="F60" t="n">
-        <v>300</v>
+        <v>303.24</v>
       </c>
       <c r="G60" t="n">
-        <v>14.36</v>
+        <v>-2.76</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2329,17 +2329,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.00163177 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>91943.45</v>
+        <v>301.05</v>
       </c>
       <c r="F61" t="n">
-        <v>150</v>
+        <v>299.58</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03</v>
+        <v>1.47</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2360,17 +2360,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>357.77499455 DOGE</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.2137</v>
+        <v>297.79</v>
       </c>
       <c r="F62" t="n">
-        <v>70</v>
+        <v>298.64</v>
       </c>
       <c r="G62" t="n">
-        <v>5.51</v>
+        <v>-0.85</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -2395,13 +2395,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>292.52</v>
+        <v>296.64</v>
       </c>
       <c r="F63" t="n">
-        <v>297.86</v>
+        <v>298.88</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.34</v>
+        <v>-2.24</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2426,13 +2426,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>311.5</v>
+        <v>301.69</v>
       </c>
       <c r="F64" t="n">
-        <v>298.9</v>
+        <v>298.73</v>
       </c>
       <c r="G64" t="n">
-        <v>12.6</v>
+        <v>2.96</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>298.29</v>
+        <v>311.5</v>
       </c>
       <c r="F65" t="n">
-        <v>300.25</v>
+        <v>298.9</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.96</v>
+        <v>12.6</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>296.64</v>
+        <v>292.52</v>
       </c>
       <c r="F66" t="n">
-        <v>298.88</v>
+        <v>297.86</v>
       </c>
       <c r="G66" t="n">
-        <v>-2.24</v>
+        <v>-5.34</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>357.77499455 DOGE</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>297.79</v>
+        <v>0.2137</v>
       </c>
       <c r="F67" t="n">
-        <v>298.64</v>
+        <v>70</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.85</v>
+        <v>5.51</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2546,17 +2546,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00163177 BTC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>301.05</v>
+        <v>91943.45</v>
       </c>
       <c r="F68" t="n">
-        <v>299.58</v>
+        <v>150</v>
       </c>
       <c r="G68" t="n">
-        <v>1.47</v>
+        <v>0.03</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -2581,13 +2581,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>300.75</v>
+        <v>298.29</v>
       </c>
       <c r="F69" t="n">
-        <v>300.85</v>
+        <v>300.25</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1</v>
+        <v>-1.96</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>301.69</v>
+        <v>300.75</v>
       </c>
       <c r="F70" t="n">
-        <v>298.73</v>
+        <v>300.85</v>
       </c>
       <c r="G70" t="n">
-        <v>2.96</v>
+        <v>-0.1</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -2643,13 +2643,13 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F71" t="n">
-        <v>293.9</v>
+        <v>301.08</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.9</v>
+        <v>-0.08</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -2674,13 +2674,13 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>296.5</v>
+        <v>298.28</v>
       </c>
       <c r="F72" t="n">
-        <v>288.22</v>
+        <v>303.45</v>
       </c>
       <c r="G72" t="n">
-        <v>8.279999999999999</v>
+        <v>-5.17</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>301.25</v>
+        <v>289</v>
       </c>
       <c r="F73" t="n">
-        <v>298.87</v>
+        <v>299.6</v>
       </c>
       <c r="G73" t="n">
-        <v>2.38</v>
+        <v>-10.6</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -2736,13 +2736,13 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>298.28</v>
+        <v>296.5</v>
       </c>
       <c r="F74" t="n">
-        <v>303.45</v>
+        <v>288.22</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.17</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -2767,13 +2767,13 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F75" t="n">
-        <v>299.6</v>
+        <v>293.9</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.6</v>
+        <v>-0.9</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -2829,13 +2829,13 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>301</v>
+        <v>301.25</v>
       </c>
       <c r="F77" t="n">
-        <v>301.08</v>
+        <v>298.87</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.08</v>
+        <v>2.38</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2856,17 +2856,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>120.75544607 DOGE</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.166</v>
+        <v>266.4</v>
       </c>
       <c r="F78" t="n">
-        <v>25</v>
+        <v>303.25</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.93</v>
+        <v>-36.85</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2887,17 +2887,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>120.75544607 DOGE</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>266.4</v>
+        <v>0.166</v>
       </c>
       <c r="F79" t="n">
-        <v>303.25</v>
+        <v>25</v>
       </c>
       <c r="G79" t="n">
-        <v>-36.85</v>
+        <v>-7.93</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="E80" t="n">
+        <v>246</v>
+      </c>
+      <c r="F80" t="n">
         <v>245.8</v>
       </c>
-      <c r="F80" t="n">
-        <v>247.21</v>
-      </c>
       <c r="G80" t="n">
-        <v>-1.41</v>
+        <v>0.2</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -2953,13 +2953,13 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>246</v>
+        <v>245.8</v>
       </c>
       <c r="F81" t="n">
-        <v>245.8</v>
+        <v>247.21</v>
       </c>
       <c r="G81" t="n">
-        <v>0.2</v>
+        <v>-1.41</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -3197,17 +3197,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2 shares</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>294.86</v>
+        <v>293.82</v>
       </c>
       <c r="F89" t="n">
-        <v>584.4</v>
+        <v>294.63</v>
       </c>
       <c r="G89" t="n">
-        <v>5.32</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>293.82</v>
+        <v>290</v>
       </c>
       <c r="F90" t="n">
-        <v>294.63</v>
+        <v>278.3</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.8100000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -3290,17 +3290,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>2 shares</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>290</v>
+        <v>294.86</v>
       </c>
       <c r="F92" t="n">
-        <v>278.3</v>
+        <v>584.4</v>
       </c>
       <c r="G92" t="n">
-        <v>11.7</v>
+        <v>5.32</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3352,17 +3352,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.00600252 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>83228.45</v>
+        <v>285.25</v>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>288.38</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.42</v>
+        <v>-3.13</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3383,17 +3383,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.00297475 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>84487.62</v>
+        <v>290.5</v>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>290.31</v>
       </c>
       <c r="G95" t="n">
-        <v>2.56</v>
+        <v>0.19</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3414,17 +3414,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.00593669 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>84056.77</v>
+        <v>289.35</v>
       </c>
       <c r="F96" t="n">
-        <v>500</v>
+        <v>291.25</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.98</v>
+        <v>-1.9</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3445,17 +3445,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.00596002 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>84073.45</v>
+        <v>287</v>
       </c>
       <c r="F97" t="n">
-        <v>500</v>
+        <v>289.72</v>
       </c>
       <c r="G97" t="n">
-        <v>1.08</v>
+        <v>-2.72</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
@@ -3476,17 +3476,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.00600211 BTC</t>
+          <t>0.00601472 BTC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>83847.73</v>
+        <v>82878.57000000001</v>
       </c>
       <c r="F98" t="n">
         <v>500</v>
       </c>
       <c r="G98" t="n">
-        <v>3.26</v>
+        <v>-1.51</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
@@ -3507,17 +3507,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.00597371 BTC</t>
+          <t>0.00297475 BTC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>83609.36</v>
+        <v>84487.62</v>
       </c>
       <c r="F99" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.54</v>
+        <v>2.56</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3569,17 +3569,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.00603002 BTC</t>
+          <t>0.00597371 BTC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>82706.56</v>
+        <v>83609.36</v>
       </c>
       <c r="F101" t="n">
         <v>500</v>
       </c>
       <c r="G101" t="n">
-        <v>-1.28</v>
+        <v>-0.54</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
@@ -3600,17 +3600,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>0.00601472 BTC</t>
+          <t>0.00600211 BTC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>82878.57000000001</v>
+        <v>83847.73</v>
       </c>
       <c r="F102" t="n">
         <v>500</v>
       </c>
       <c r="G102" t="n">
-        <v>-1.51</v>
+        <v>3.26</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3631,17 +3631,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00596002 BTC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>287</v>
+        <v>84073.45</v>
       </c>
       <c r="F103" t="n">
-        <v>289.72</v>
+        <v>500</v>
       </c>
       <c r="G103" t="n">
-        <v>-2.72</v>
+        <v>1.08</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3662,17 +3662,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00593669 BTC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>290.5</v>
+        <v>84056.77</v>
       </c>
       <c r="F104" t="n">
-        <v>290.31</v>
+        <v>500</v>
       </c>
       <c r="G104" t="n">
-        <v>0.19</v>
+        <v>-0.98</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
@@ -3693,17 +3693,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.00600361 BTC</t>
+          <t>0.00603002 BTC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>83265</v>
+        <v>82706.56</v>
       </c>
       <c r="F105" t="n">
         <v>500</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.11</v>
+        <v>-1.28</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3755,17 +3755,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00600361 BTC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>285.25</v>
+        <v>83265</v>
       </c>
       <c r="F107" t="n">
-        <v>288.38</v>
+        <v>500</v>
       </c>
       <c r="G107" t="n">
-        <v>-3.13</v>
+        <v>-0.11</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
@@ -3786,17 +3786,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.00598435 BTC</t>
+          <t>0.00600252 BTC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>83539.45</v>
+        <v>83228.45</v>
       </c>
       <c r="F108" t="n">
         <v>500</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.42</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
@@ -3848,17 +3848,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.00600784 BTC</t>
+          <t>0.00601381 BTC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>83154.24000000001</v>
+        <v>83082.8</v>
       </c>
       <c r="F110" t="n">
         <v>500</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.42</v>
+        <v>-0.36</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
@@ -3879,17 +3879,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.00601381 BTC</t>
+          <t>0.00301103 BTC</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>83082.8</v>
+        <v>83073.64</v>
       </c>
       <c r="F111" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.36</v>
+        <v>0.36</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
@@ -3910,17 +3910,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.00301103 BTC</t>
+          <t>0.00300708 BTC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>83073.64</v>
+        <v>83082.14999999999</v>
       </c>
       <c r="F112" t="n">
         <v>250</v>
       </c>
       <c r="G112" t="n">
-        <v>0.36</v>
+        <v>-0.17</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
@@ -3941,17 +3941,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0.00300708 BTC</t>
+          <t>0.00601019 BTC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>83082.14999999999</v>
+        <v>83198.78</v>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.17</v>
+        <v>0.04</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
@@ -3972,17 +3972,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.00601019 BTC</t>
+          <t>0.00600826 BTC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>83198.78</v>
+        <v>83177.03999999999</v>
       </c>
       <c r="F114" t="n">
         <v>500</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04</v>
+        <v>-0.25</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
@@ -4003,17 +4003,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.00600826 BTC</t>
+          <t>0.00600784 BTC</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>83177.03999999999</v>
+        <v>83154.24000000001</v>
       </c>
       <c r="F115" t="n">
         <v>500</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.25</v>
+        <v>-0.42</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4034,17 +4034,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00601191 BTC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>289.35</v>
+        <v>83166.41</v>
       </c>
       <c r="F116" t="n">
-        <v>291.25</v>
+        <v>500</v>
       </c>
       <c r="G116" t="n">
-        <v>-1.9</v>
+        <v>-0.01</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
@@ -4065,17 +4065,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.00601191 BTC</t>
+          <t>0.00300557 BTC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>83166.41</v>
+        <v>83382.71000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.01</v>
+        <v>1.21</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -4096,17 +4096,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.00300557 BTC</t>
+          <t>0.00598775 BTC</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>83382.71000000001</v>
+        <v>83438.05</v>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G118" t="n">
-        <v>1.21</v>
+        <v>-0.39</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
@@ -4127,17 +4127,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.00598775 BTC</t>
+          <t>0.00299431 BTC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>83438.05</v>
+        <v>83691.63</v>
       </c>
       <c r="F119" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.39</v>
+        <v>1.17</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -4158,17 +4158,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.00299431 BTC</t>
+          <t>0.00598082 BTC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>83691.63</v>
+        <v>83539.63</v>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G120" t="n">
-        <v>1.17</v>
+        <v>-0.36</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
@@ -4189,17 +4189,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0.00600784 BTC</t>
+          <t>0.00598435 BTC</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>83176.14999999999</v>
+        <v>83539.45</v>
       </c>
       <c r="F121" t="n">
         <v>500</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.29</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
@@ -4220,17 +4220,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0.00598082 BTC</t>
+          <t>0.00600784 BTC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>83539.63</v>
+        <v>83176.14999999999</v>
       </c>
       <c r="F122" t="n">
         <v>500</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.36</v>
+        <v>-0.29</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
@@ -4251,17 +4251,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0.00611995 BTC</t>
+          <t>0.00612925 BTC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>81515.13</v>
+        <v>81627</v>
       </c>
       <c r="F123" t="n">
         <v>500</v>
       </c>
       <c r="G123" t="n">
-        <v>-1.13</v>
+        <v>0.31</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
@@ -4282,17 +4282,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.00612925 BTC</t>
+          <t>0.00612942 BTC</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>81627</v>
+        <v>81500.00999999999</v>
       </c>
       <c r="F124" t="n">
         <v>500</v>
       </c>
       <c r="G124" t="n">
-        <v>0.31</v>
+        <v>-0.45</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0.00612942 BTC</t>
+          <t>0.00614209 BTC</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>81500.00999999999</v>
+        <v>81407.16</v>
       </c>
       <c r="F125" t="n">
         <v>500</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.45</v>
+        <v>0.01</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
@@ -4344,17 +4344,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0.00614209 BTC</t>
+          <t>0.00614576 BTC</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>81407.16</v>
+        <v>81284.81</v>
       </c>
       <c r="F126" t="n">
         <v>500</v>
       </c>
       <c r="G126" t="n">
-        <v>0.01</v>
+        <v>-0.44</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -4375,17 +4375,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0.00608717 BTC</t>
+          <t>0.00307352 BTC</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>82069.03</v>
+        <v>81681.92</v>
       </c>
       <c r="F127" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.43</v>
+        <v>2.12</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
@@ -4406,17 +4406,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.00307352 BTC</t>
+          <t>0.00597451 BTC</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>81681.92</v>
+        <v>81921.47</v>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="G128" t="n">
-        <v>2.12</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
@@ -4499,17 +4499,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0.00597451 BTC</t>
+          <t>0.00610217 BTC</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>81921.47</v>
+        <v>81893.85000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.27</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
@@ -4530,17 +4530,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0.00610217 BTC</t>
+          <t>0.00610175 BTC</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>81893.85000000001</v>
+        <v>82126.63</v>
       </c>
       <c r="F132" t="n">
         <v>500</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.27</v>
+        <v>1.12</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
@@ -4561,17 +4561,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0.00614576 BTC</t>
+          <t>0.00611995 BTC</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81284.81</v>
+        <v>81515.13</v>
       </c>
       <c r="F133" t="n">
         <v>500</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.44</v>
+        <v>-1.13</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
@@ -4592,17 +4592,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0.00306277 BTC</t>
+          <t>0.00608717 BTC</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>81561.82000000001</v>
+        <v>82069.03</v>
       </c>
       <c r="F134" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G134" t="n">
-        <v>1.13</v>
+        <v>-0.43</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
@@ -4623,17 +4623,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0.00612231 BTC</t>
+          <t>0.00306277 BTC</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>81557.94</v>
+        <v>81561.82000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.68</v>
+        <v>1.13</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
@@ -4654,17 +4654,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0.00612084 BTC</t>
+          <t>0.00306105 BTC</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>81603.82000000001</v>
+        <v>81784.50999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.52</v>
+        <v>1.29</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
@@ -4685,17 +4685,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0.00611960 BTC</t>
+          <t>0.00612084 BTC</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>81608.75</v>
+        <v>81603.82000000001</v>
       </c>
       <c r="F137" t="n">
         <v>500</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.59</v>
+        <v>-0.52</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
@@ -4716,17 +4716,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0.00306105 BTC</t>
+          <t>0.00596537 BTC</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>81784.50999999999</v>
+        <v>83682.89999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G138" t="n">
-        <v>1.29</v>
+        <v>-0.8</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
@@ -4747,17 +4747,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0.00307541 BTC</t>
+          <t>0.00601109 BTC</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>81794.06</v>
+        <v>83133.07000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G139" t="n">
-        <v>3.4</v>
+        <v>0.82</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
@@ -4778,17 +4778,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.00615666 BTC</t>
+          <t>0.00588456 BTC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>81205.71000000001</v>
+        <v>83122.3</v>
       </c>
       <c r="F140" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G140" t="n">
-        <v>-0.04</v>
+        <v>-0.86</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4809,17 +4809,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0.00361031 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>82808.98</v>
+        <v>287.38</v>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>288.38</v>
       </c>
       <c r="G141" t="n">
-        <v>-1.03</v>
+        <v>-1</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0.00602287 BTC</t>
+          <t>0.00361031 BTC</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>83002.39</v>
+        <v>82808.98</v>
       </c>
       <c r="F143" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.09</v>
+        <v>-1.03</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -4902,17 +4902,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0.00588456 BTC</t>
+          <t>0.00602287 BTC</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>83122.3</v>
+        <v>83002.39</v>
       </c>
       <c r="F144" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.86</v>
+        <v>-0.09</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -4933,17 +4933,17 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0.00601109 BTC</t>
+          <t>0.00615666 BTC</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>83133.07000000001</v>
+        <v>81205.71000000001</v>
       </c>
       <c r="F145" t="n">
         <v>500</v>
       </c>
       <c r="G145" t="n">
-        <v>0.82</v>
+        <v>-0.04</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -4964,17 +4964,17 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0.00596537 BTC</t>
+          <t>0.00307541 BTC</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>83682.89999999999</v>
+        <v>81794.06</v>
       </c>
       <c r="F146" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -4995,17 +4995,17 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0.00610175 BTC</t>
+          <t>0.00611960 BTC</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>82126.63</v>
+        <v>81608.75</v>
       </c>
       <c r="F147" t="n">
         <v>500</v>
       </c>
       <c r="G147" t="n">
-        <v>1.12</v>
+        <v>-0.59</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5026,17 +5026,17 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00612231 BTC</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>287.38</v>
+        <v>81557.94</v>
       </c>
       <c r="F148" t="n">
-        <v>288.38</v>
+        <v>500</v>
       </c>
       <c r="G148" t="n">
-        <v>-1</v>
+        <v>-0.68</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
@@ -5088,17 +5088,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0.00302339 BTC</t>
+          <t>0.00604569 BTC</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>83063.61</v>
+        <v>82619.56</v>
       </c>
       <c r="F150" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G150" t="n">
-        <v>2.34</v>
+        <v>-0.51</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
@@ -5119,17 +5119,17 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0.00662940 BTC</t>
+          <t>0.00292945 BTC</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>82881.06</v>
+        <v>85550.25999999999</v>
       </c>
       <c r="F151" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.55</v>
+        <v>1.42</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -5150,17 +5150,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0.00601133 BTC</t>
+          <t>0.00307504 BTC</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>83049.50999999999</v>
+        <v>85273.86</v>
       </c>
       <c r="F152" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="G152" t="n">
-        <v>-0.76</v>
+        <v>4.73</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
@@ -5181,17 +5181,17 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0.00292945 BTC</t>
+          <t>0.00301402 BTC</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>85550.25999999999</v>
+        <v>83995.99000000001</v>
       </c>
       <c r="F153" t="n">
         <v>250</v>
       </c>
       <c r="G153" t="n">
-        <v>1.42</v>
+        <v>3.79</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -5212,17 +5212,17 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0.00307504 BTC</t>
+          <t>0.00604796 BTC</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>85273.86</v>
+        <v>82744.75999999999</v>
       </c>
       <c r="F154" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="G154" t="n">
-        <v>4.73</v>
+        <v>0.44</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -5243,17 +5243,17 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.00309217 BTC</t>
+          <t>0.00604678 BTC</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>84590.81</v>
+        <v>82629.73</v>
       </c>
       <c r="F155" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="G155" t="n">
-        <v>3.28</v>
+        <v>-0.36</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
@@ -5274,17 +5274,17 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0.00604796 BTC</t>
+          <t>0.00309217 BTC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>82744.75999999999</v>
+        <v>84590.81</v>
       </c>
       <c r="F156" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="G156" t="n">
-        <v>0.44</v>
+        <v>3.28</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
@@ -5305,17 +5305,17 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0.00604569 BTC</t>
+          <t>0.00604898 BTC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>82619.56</v>
+        <v>82579.38</v>
       </c>
       <c r="F157" t="n">
         <v>500</v>
       </c>
       <c r="G157" t="n">
-        <v>-0.51</v>
+        <v>-0.48</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
@@ -5336,17 +5336,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0.00301402 BTC</t>
+          <t>0.00772381 BTC</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>83995.99000000001</v>
+        <v>82887.96000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>250</v>
+        <v>640</v>
       </c>
       <c r="G158" t="n">
-        <v>3.79</v>
+        <v>0.21</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
@@ -5367,17 +5367,17 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0.00604566 BTC</t>
+          <t>0.00603339 BTC</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>82697.61</v>
+        <v>82807.66</v>
       </c>
       <c r="F159" t="n">
         <v>500</v>
       </c>
       <c r="G159" t="n">
-        <v>-0.04</v>
+        <v>-0.39</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -5398,17 +5398,17 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0.00604898 BTC</t>
+          <t>0.00603021 BTC</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>82579.38</v>
+        <v>82848.03</v>
       </c>
       <c r="F160" t="n">
         <v>500</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.48</v>
+        <v>-0.41</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
@@ -5429,17 +5429,17 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0.00772381 BTC</t>
+          <t>0.00662940 BTC</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>82887.96000000001</v>
+        <v>82881.06</v>
       </c>
       <c r="F161" t="n">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="G161" t="n">
-        <v>0.21</v>
+        <v>-0.55</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
@@ -5460,17 +5460,17 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0.00603339 BTC</t>
+          <t>0.00601133 BTC</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>82807.66</v>
+        <v>83049.50999999999</v>
       </c>
       <c r="F162" t="n">
         <v>500</v>
       </c>
       <c r="G162" t="n">
-        <v>-0.39</v>
+        <v>-0.76</v>
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
@@ -5491,17 +5491,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0.00603021 BTC</t>
+          <t>0.00302339 BTC</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>82848.03</v>
+        <v>83063.61</v>
       </c>
       <c r="F163" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G163" t="n">
-        <v>-0.41</v>
+        <v>2.34</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
@@ -5522,17 +5522,17 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0.00604678 BTC</t>
+          <t>0.00604566 BTC</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>82629.73</v>
+        <v>82697.61</v>
       </c>
       <c r="F164" t="n">
         <v>500</v>
       </c>
       <c r="G164" t="n">
-        <v>-0.36</v>
+        <v>-0.04</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
@@ -5584,17 +5584,17 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0.00282986 BTC</t>
+          <t>0.00680529 BTC</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>88365.02</v>
+        <v>88267.2</v>
       </c>
       <c r="F166" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="G166" t="n">
-        <v>1.15</v>
+        <v>-0.86</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
@@ -5615,17 +5615,17 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0.00680529 BTC</t>
+          <t>0.00452833 BTC</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>88267.2</v>
+        <v>88324.13</v>
       </c>
       <c r="F167" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G167" t="n">
-        <v>-0.86</v>
+        <v>-0.04</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
@@ -5646,17 +5646,17 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0.00452833 BTC</t>
+          <t>0.00282986 BTC</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>88324.13</v>
+        <v>88365.02</v>
       </c>
       <c r="F168" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G168" t="n">
-        <v>-0.04</v>
+        <v>1.15</v>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
@@ -5677,17 +5677,17 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0.00284366 BTC</t>
+          <t>0.00855437 BTC</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>88305.92</v>
+        <v>88004</v>
       </c>
       <c r="F169" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="G169" t="n">
-        <v>4.1</v>
+        <v>2.82</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
@@ -5708,17 +5708,17 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0.00287227 BTC</t>
+          <t>0.00284366 BTC</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>86894.34</v>
+        <v>88305.92</v>
       </c>
       <c r="F170" t="n">
         <v>250</v>
       </c>
       <c r="G170" t="n">
-        <v>-0.42</v>
+        <v>4.1</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5739,17 +5739,17 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00287227 BTC</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>323.32</v>
+        <v>86894.34</v>
       </c>
       <c r="F171" t="n">
-        <v>325.72</v>
+        <v>250</v>
       </c>
       <c r="G171" t="n">
-        <v>-2.4</v>
+        <v>-0.42</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5863,17 +5863,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0.00855437 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>88004</v>
+        <v>323.32</v>
       </c>
       <c r="F175" t="n">
-        <v>750</v>
+        <v>325.72</v>
       </c>
       <c r="G175" t="n">
-        <v>2.82</v>
+        <v>-2.4</v>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DOGE/USD</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6142,17 +6142,17 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>829.83292879 DOGE</t>
+          <t>0.00913291 BTC</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.1926</v>
+        <v>87593.10000000001</v>
       </c>
       <c r="F184" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="G184" t="n">
-        <v>-0.17</v>
+        <v>-0.02</v>
       </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
@@ -6173,17 +6173,17 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0.00913291 BTC</t>
+          <t>0.00801470 BTC</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>87593.10000000001</v>
+        <v>88106.78</v>
       </c>
       <c r="F185" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G185" t="n">
-        <v>-0.02</v>
+        <v>6.15</v>
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USD</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6204,17 +6204,17 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.01031803 BTC</t>
+          <t>829.83292879 DOGE</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>87226.89</v>
+        <v>0.1926</v>
       </c>
       <c r="F186" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="G186" t="n">
-        <v>0.01</v>
+        <v>-0.17</v>
       </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
@@ -6235,17 +6235,17 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0.00801470 BTC</t>
+          <t>0.00917285 BTC</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>88106.78</v>
+        <v>87127.25</v>
       </c>
       <c r="F187" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G187" t="n">
-        <v>6.15</v>
+        <v>-0.79</v>
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
@@ -6266,17 +6266,17 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0.00917285 BTC</t>
+          <t>0.00917491 BTC</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>87127.25</v>
+        <v>87075.42</v>
       </c>
       <c r="F188" t="n">
         <v>800</v>
       </c>
       <c r="G188" t="n">
-        <v>-0.79</v>
+        <v>-1.09</v>
       </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
@@ -6297,17 +6297,17 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0.00915311 BTC</t>
+          <t>0.00915665 BTC</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>87396</v>
+        <v>87278.22</v>
       </c>
       <c r="F189" t="n">
         <v>800</v>
       </c>
       <c r="G189" t="n">
-        <v>-0.06</v>
+        <v>-0.82</v>
       </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
@@ -6328,17 +6328,17 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0.00915665 BTC</t>
+          <t>0.00915311 BTC</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>87278.22</v>
+        <v>87396</v>
       </c>
       <c r="F190" t="n">
         <v>800</v>
       </c>
       <c r="G190" t="n">
-        <v>-0.82</v>
+        <v>-0.06</v>
       </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
@@ -6359,17 +6359,17 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0.00917491 BTC</t>
+          <t>0.01031803 BTC</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>87075.42</v>
+        <v>87226.89</v>
       </c>
       <c r="F191" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G191" t="n">
-        <v>-1.09</v>
+        <v>0.01</v>
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
@@ -6483,17 +6483,17 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0.01573888 BTC</t>
+          <t>0.01453463 BTC</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>82544.11</v>
+        <v>82523.71000000001</v>
       </c>
       <c r="F195" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G195" t="n">
-        <v>-0.85</v>
+        <v>-0.55</v>
       </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
@@ -6514,17 +6514,17 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0.01574912 BTC</t>
+          <t>0.01573888 BTC</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>82600</v>
+        <v>82544.11</v>
       </c>
       <c r="F196" t="n">
         <v>1300</v>
       </c>
       <c r="G196" t="n">
-        <v>0.88</v>
+        <v>-0.85</v>
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
@@ -6545,17 +6545,17 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0.01453200 BTC</t>
+          <t>0.01574912 BTC</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>82664</v>
+        <v>82600</v>
       </c>
       <c r="F197" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G197" t="n">
-        <v>1.27</v>
+        <v>0.88</v>
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
@@ -6576,17 +6576,17 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0.01576589 BTC</t>
+          <t>0.01453200 BTC</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>82386.5</v>
+        <v>82664</v>
       </c>
       <c r="F198" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G198" t="n">
-        <v>-1.1</v>
+        <v>1.27</v>
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
@@ -6607,17 +6607,17 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0.01576568 BTC</t>
+          <t>0.01576589 BTC</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>82441.61</v>
+        <v>82386.5</v>
       </c>
       <c r="F199" t="n">
         <v>1300</v>
       </c>
       <c r="G199" t="n">
-        <v>-0.25</v>
+        <v>-1.1</v>
       </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
@@ -6638,17 +6638,17 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>0.01572137 BTC</t>
+          <t>0.01576568 BTC</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>82597.84</v>
+        <v>82441.61</v>
       </c>
       <c r="F200" t="n">
         <v>1300</v>
       </c>
       <c r="G200" t="n">
-        <v>-1.45</v>
+        <v>-0.25</v>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -6669,17 +6669,17 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0.01453463 BTC</t>
+          <t>0.01572137 BTC</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>82523.71000000001</v>
+        <v>82597.84</v>
       </c>
       <c r="F201" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G201" t="n">
-        <v>-0.55</v>
+        <v>-1.45</v>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -6700,17 +6700,17 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0.01561391 BTC</t>
+          <t>0.01562217 BTC</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>83202.84</v>
+        <v>83156</v>
       </c>
       <c r="F202" t="n">
         <v>1300</v>
       </c>
       <c r="G202" t="n">
-        <v>-0.88</v>
+        <v>-0.92</v>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
@@ -6917,17 +6917,17 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>0.01562217 BTC</t>
+          <t>0.01561391 BTC</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>83156</v>
+        <v>83202.84</v>
       </c>
       <c r="F209" t="n">
         <v>1300</v>
       </c>
       <c r="G209" t="n">
-        <v>-0.92</v>
+        <v>-0.88</v>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -6948,17 +6948,17 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.01525242 BTC</t>
+          <t>0.01574576 BTC</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>85137.91</v>
+        <v>83122.8484</v>
       </c>
       <c r="F210" t="n">
         <v>1300</v>
       </c>
       <c r="G210" t="n">
-        <v>-1.44</v>
+        <v>8.83</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -6979,17 +6979,17 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0.01528139 BTC</t>
+          <t>0.01565901 BTC</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>85034.85000000001</v>
+        <v>82951.8</v>
       </c>
       <c r="F211" t="n">
         <v>1300</v>
       </c>
       <c r="G211" t="n">
-        <v>-0.55</v>
+        <v>-1.06</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -7010,17 +7010,17 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0.01405324 BTC</t>
+          <t>0.01566660 BTC</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>85265.36</v>
+        <v>83137.84</v>
       </c>
       <c r="F212" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G212" t="n">
-        <v>-1.75</v>
+        <v>2.49</v>
       </c>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
@@ -7041,17 +7041,17 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0.01527597 BTC</t>
+          <t>0.01563843 BTC</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>85083.22</v>
+        <v>83056</v>
       </c>
       <c r="F213" t="n">
         <v>1300</v>
       </c>
       <c r="G213" t="n">
-        <v>-0.27</v>
+        <v>-1.13</v>
       </c>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
@@ -7072,17 +7072,17 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0.01528324 BTC</t>
+          <t>0.01564569 BTC</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>84991.22</v>
+        <v>83237.52</v>
       </c>
       <c r="F214" t="n">
         <v>1300</v>
       </c>
       <c r="G214" t="n">
-        <v>-1.06</v>
+        <v>2.31</v>
       </c>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
@@ -7103,17 +7103,17 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0.01530246 BTC</t>
+          <t>0.01563295 BTC</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>85047.34</v>
+        <v>83117.49000000001</v>
       </c>
       <c r="F215" t="n">
         <v>1300</v>
       </c>
       <c r="G215" t="n">
-        <v>1.43</v>
+        <v>-0.63</v>
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
@@ -7134,17 +7134,17 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0.01528690 BTC</t>
+          <t>0.01564990 BTC</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>84919.55</v>
+        <v>83035.95</v>
       </c>
       <c r="F216" t="n">
         <v>1300</v>
       </c>
       <c r="G216" t="n">
-        <v>-1.84</v>
+        <v>-0.5</v>
       </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
@@ -7165,17 +7165,17 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>0.01529663 BTC</t>
+          <t>0.01528324 BTC</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>85131.60000000001</v>
+        <v>84991.22</v>
       </c>
       <c r="F217" t="n">
         <v>1300</v>
       </c>
       <c r="G217" t="n">
-        <v>2.23</v>
+        <v>-1.06</v>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
@@ -7196,17 +7196,17 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0.01532997 BTC</t>
+          <t>0.01530246 BTC</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>84719.92999999999</v>
+        <v>85047.34</v>
       </c>
       <c r="F218" t="n">
         <v>1300</v>
       </c>
       <c r="G218" t="n">
-        <v>-1.25</v>
+        <v>1.43</v>
       </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
@@ -7227,17 +7227,17 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>0.01409120 BTC</t>
+          <t>0.01528690 BTC</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>85087.59</v>
+        <v>84919.55</v>
       </c>
       <c r="F219" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G219" t="n">
-        <v>-1.01</v>
+        <v>-1.84</v>
       </c>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
@@ -7258,17 +7258,17 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0.01532621 BTC</t>
+          <t>0.01529663 BTC</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>84759.37</v>
+        <v>85131.60000000001</v>
       </c>
       <c r="F220" t="n">
         <v>1300</v>
       </c>
       <c r="G220" t="n">
-        <v>-0.96</v>
+        <v>2.23</v>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
@@ -7289,17 +7289,17 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0.01534120 BTC</t>
+          <t>0.01527363 BTC</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>84960.5</v>
+        <v>85154.47</v>
       </c>
       <c r="F221" t="n">
         <v>1300</v>
       </c>
       <c r="G221" t="n">
-        <v>3.4</v>
+        <v>0.62</v>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -7320,17 +7320,17 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>0.01528771 BTC</t>
+          <t>0.01409120 BTC</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>85044.12</v>
+        <v>85087.59</v>
       </c>
       <c r="F222" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G222" t="n">
-        <v>0.13</v>
+        <v>-1.01</v>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
@@ -7351,17 +7351,17 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0.01175862 BTC</t>
+          <t>0.01527597 BTC</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>85029.27</v>
+        <v>85083.22</v>
       </c>
       <c r="F223" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G223" t="n">
-        <v>-0.17</v>
+        <v>-0.27</v>
       </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
@@ -7382,17 +7382,17 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>0.01175915 BTC</t>
+          <t>0.01532621 BTC</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>84983.19</v>
+        <v>84759.37</v>
       </c>
       <c r="F224" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G224" t="n">
-        <v>-0.67</v>
+        <v>-0.96</v>
       </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
@@ -7413,17 +7413,17 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0.01176914 BTC</t>
+          <t>0.01534120 BTC</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>84906.64</v>
+        <v>84960.5</v>
       </c>
       <c r="F225" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G225" t="n">
-        <v>-0.72</v>
+        <v>3.4</v>
       </c>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
@@ -7444,17 +7444,17 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>0.01176083 BTC</t>
+          <t>0.01175862 BTC</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>85008</v>
+        <v>85029.27</v>
       </c>
       <c r="F226" t="n">
         <v>1000</v>
       </c>
       <c r="G226" t="n">
-        <v>-0.24</v>
+        <v>-0.17</v>
       </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
@@ -7475,17 +7475,17 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>0.01527363 BTC</t>
+          <t>0.01175915 BTC</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>85154.47</v>
+        <v>84983.19</v>
       </c>
       <c r="F227" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G227" t="n">
-        <v>0.62</v>
+        <v>-0.67</v>
       </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
@@ -7506,17 +7506,17 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>0.01523107 BTC</t>
+          <t>0.01176914 BTC</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>85208.53</v>
+        <v>84906.64</v>
       </c>
       <c r="F228" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G228" t="n">
-        <v>-2.18</v>
+        <v>-0.72</v>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
@@ -7537,17 +7537,17 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0.01554689 BTC</t>
+          <t>0.01176083 BTC</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>83520.28999999999</v>
+        <v>85008</v>
       </c>
       <c r="F229" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G229" t="n">
-        <v>-1.52</v>
+        <v>-0.24</v>
       </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
@@ -7568,17 +7568,17 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>0.01531120 BTC</t>
+          <t>0.01563778 BTC</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>84778.21000000001</v>
+        <v>83107.14</v>
       </c>
       <c r="F230" t="n">
         <v>1300</v>
       </c>
       <c r="G230" t="n">
-        <v>-1.94</v>
+        <v>-0.39</v>
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
@@ -7599,17 +7599,17 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>0.01532366 BTC</t>
+          <t>0.01532997 BTC</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>85287.21000000001</v>
+        <v>84719.92999999999</v>
       </c>
       <c r="F231" t="n">
         <v>1300</v>
       </c>
       <c r="G231" t="n">
-        <v>6.91</v>
+        <v>-1.25</v>
       </c>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
@@ -7630,17 +7630,17 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0.01574576 BTC</t>
+          <t>0.01528139 BTC</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>83122.8484</v>
+        <v>85034.85000000001</v>
       </c>
       <c r="F232" t="n">
         <v>1300</v>
       </c>
       <c r="G232" t="n">
-        <v>8.83</v>
+        <v>-0.55</v>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
@@ -7661,17 +7661,17 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>0.01565901 BTC</t>
+          <t>0.01528771 BTC</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>82951.8</v>
+        <v>85044.12</v>
       </c>
       <c r="F233" t="n">
         <v>1300</v>
       </c>
       <c r="G233" t="n">
-        <v>-1.06</v>
+        <v>0.13</v>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
@@ -7692,17 +7692,17 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>0.01566660 BTC</t>
+          <t>0.01405324 BTC</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>83137.84</v>
+        <v>85265.36</v>
       </c>
       <c r="F234" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G234" t="n">
-        <v>2.49</v>
+        <v>-1.75</v>
       </c>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
@@ -7723,17 +7723,17 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>0.01563843 BTC</t>
+          <t>0.01525242 BTC</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>83056</v>
+        <v>85137.91</v>
       </c>
       <c r="F235" t="n">
         <v>1300</v>
       </c>
       <c r="G235" t="n">
-        <v>-1.13</v>
+        <v>-1.44</v>
       </c>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
@@ -7754,17 +7754,17 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.01563295 BTC</t>
+          <t>0.01565851 BTC</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>83117.49000000001</v>
+        <v>82972.85000000001</v>
       </c>
       <c r="F236" t="n">
         <v>1300</v>
       </c>
       <c r="G236" t="n">
-        <v>-0.63</v>
+        <v>-0.77</v>
       </c>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
@@ -7785,17 +7785,17 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>0.01563778 BTC</t>
+          <t>0.01566760 BTC</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>83107.14</v>
+        <v>82898.91</v>
       </c>
       <c r="F237" t="n">
         <v>1300</v>
       </c>
       <c r="G237" t="n">
-        <v>-0.39</v>
+        <v>-1.17</v>
       </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
@@ -7816,17 +7816,17 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>0.01564990 BTC</t>
+          <t>0.01567529 BTC</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>83035.95</v>
+        <v>82992.31</v>
       </c>
       <c r="F238" t="n">
         <v>1300</v>
       </c>
       <c r="G238" t="n">
-        <v>-0.5</v>
+        <v>0.93</v>
       </c>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
@@ -7847,17 +7847,17 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>0.01565851 BTC</t>
+          <t>0.01437815 BTC</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>82972.85000000001</v>
+        <v>83458.2164</v>
       </c>
       <c r="F239" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G239" t="n">
-        <v>-0.77</v>
+        <v>-0.03</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -7878,17 +7878,17 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>0.01564569 BTC</t>
+          <t>0.01556970 BTC</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>83237.52</v>
+        <v>83443.34</v>
       </c>
       <c r="F240" t="n">
         <v>1300</v>
       </c>
       <c r="G240" t="n">
-        <v>2.31</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
@@ -7909,17 +7909,17 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0.01567484 BTC</t>
+          <t>0.01556218 BTC</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>82922.96000000001</v>
+        <v>83589.00999999999</v>
       </c>
       <c r="F241" t="n">
         <v>1300</v>
       </c>
       <c r="G241" t="n">
-        <v>-0.2</v>
+        <v>0.83</v>
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
@@ -7940,17 +7940,17 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>0.01567529 BTC</t>
+          <t>0.01567484 BTC</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>82992.31</v>
+        <v>82922.96000000001</v>
       </c>
       <c r="F242" t="n">
         <v>1300</v>
       </c>
       <c r="G242" t="n">
-        <v>0.93</v>
+        <v>-0.2</v>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
@@ -7971,17 +7971,17 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>0.01437815 BTC</t>
+          <t>0.01555407 BTC</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>83458.2164</v>
+        <v>83560.41</v>
       </c>
       <c r="F243" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G243" t="n">
-        <v>-0.03</v>
+        <v>-0.3</v>
       </c>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
@@ -8002,17 +8002,17 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>0.01556970 BTC</t>
+          <t>0.01554726 BTC</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>83443.34</v>
+        <v>84943.80100000001</v>
       </c>
       <c r="F244" t="n">
         <v>1300</v>
       </c>
       <c r="G244" t="n">
-        <v>-0.8100000000000001</v>
+        <v>20.64</v>
       </c>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
@@ -8033,17 +8033,17 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>0.01556218 BTC</t>
+          <t>0.01530492 BTC</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>83589.00999999999</v>
+        <v>84845.41</v>
       </c>
       <c r="F245" t="n">
         <v>1300</v>
       </c>
       <c r="G245" t="n">
-        <v>0.83</v>
+        <v>-1.45</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
@@ -8064,17 +8064,17 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>0.01555407 BTC</t>
+          <t>0.01531120 BTC</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>83560.41</v>
+        <v>84778.21000000001</v>
       </c>
       <c r="F246" t="n">
         <v>1300</v>
       </c>
       <c r="G246" t="n">
-        <v>-0.3</v>
+        <v>-1.94</v>
       </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
@@ -8095,17 +8095,17 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>0.01554726 BTC</t>
+          <t>0.01532366 BTC</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>84943.80100000001</v>
+        <v>85287.21000000001</v>
       </c>
       <c r="F247" t="n">
         <v>1300</v>
       </c>
       <c r="G247" t="n">
-        <v>20.64</v>
+        <v>6.91</v>
       </c>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
@@ -8126,17 +8126,17 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>0.01566760 BTC</t>
+          <t>0.01554689 BTC</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>82898.91</v>
+        <v>83520.28999999999</v>
       </c>
       <c r="F248" t="n">
         <v>1300</v>
       </c>
       <c r="G248" t="n">
-        <v>-1.17</v>
+        <v>-1.52</v>
       </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
@@ -8157,17 +8157,17 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>0.01530492 BTC</t>
+          <t>0.01523107 BTC</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>84845.41</v>
+        <v>85208.53</v>
       </c>
       <c r="F249" t="n">
         <v>1300</v>
       </c>
       <c r="G249" t="n">
-        <v>-1.45</v>
+        <v>-2.18</v>
       </c>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
@@ -8188,17 +8188,17 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>0.01158808 BTC</t>
+          <t>0.00566534 BTC</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>86110.48</v>
+        <v>87929</v>
       </c>
       <c r="F250" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G250" t="n">
-        <v>-2.14</v>
+        <v>-1.85</v>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
@@ -8219,17 +8219,17 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>0.01153005 BTC</t>
+          <t>0.01159017 BTC</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>86711.06</v>
+        <v>87583.24000000001</v>
       </c>
       <c r="F251" t="n">
         <v>1000</v>
       </c>
       <c r="G251" t="n">
-        <v>-0.22</v>
+        <v>15.1</v>
       </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
@@ -8250,17 +8250,17 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>0.00115314 BTC</t>
+          <t>0.01158808 BTC</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>86653.61</v>
+        <v>86110.48</v>
       </c>
       <c r="F252" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G252" t="n">
-        <v>-0.08</v>
+        <v>-2.14</v>
       </c>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
@@ -8281,17 +8281,17 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>0.01158766 BTC</t>
+          <t>0.01153005 BTC</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>86193.42</v>
+        <v>86711.06</v>
       </c>
       <c r="F253" t="n">
         <v>1000</v>
       </c>
       <c r="G253" t="n">
-        <v>-1.22</v>
+        <v>-0.22</v>
       </c>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
@@ -8343,17 +8343,17 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>0.01158555 BTC</t>
+          <t>0.01158139 BTC</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>86209.92</v>
+        <v>86788.21000000001</v>
       </c>
       <c r="F255" t="n">
         <v>1000</v>
       </c>
       <c r="G255" t="n">
-        <v>-1.21</v>
+        <v>5.13</v>
       </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
@@ -8374,17 +8374,17 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>0.01158673 BTC</t>
+          <t>0.01158555 BTC</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>86244.75999999999</v>
+        <v>86209.92</v>
       </c>
       <c r="F256" t="n">
         <v>1000</v>
       </c>
       <c r="G256" t="n">
-        <v>-0.7</v>
+        <v>-1.21</v>
       </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
@@ -8405,17 +8405,17 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>0.01159017 BTC</t>
+          <t>0.00569396 BTC</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>87583.24000000001</v>
+        <v>87548.3</v>
       </c>
       <c r="F257" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G257" t="n">
-        <v>15.1</v>
+        <v>-1.5</v>
       </c>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
@@ -8436,17 +8436,17 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>0.01158139 BTC</t>
+          <t>0.01158766 BTC</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>86788.21000000001</v>
+        <v>86193.42</v>
       </c>
       <c r="F258" t="n">
         <v>1000</v>
       </c>
       <c r="G258" t="n">
-        <v>5.13</v>
+        <v>-1.22</v>
       </c>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
@@ -8467,17 +8467,17 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>0.00566534 BTC</t>
+          <t>0.00115314 BTC</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>87929</v>
+        <v>86653.61</v>
       </c>
       <c r="F259" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G259" t="n">
-        <v>-1.85</v>
+        <v>-0.08</v>
       </c>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
@@ -8498,17 +8498,17 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>0.00582479 BTC</t>
+          <t>0.01145427 BTC</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>85373.22</v>
+        <v>87186.44</v>
       </c>
       <c r="F260" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G260" t="n">
-        <v>-2.72</v>
+        <v>-1.34</v>
       </c>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
@@ -8529,17 +8529,17 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>0.01145427 BTC</t>
+          <t>0.00585194 BTC</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>87186.44</v>
+        <v>85305.71000000001</v>
       </c>
       <c r="F261" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G261" t="n">
-        <v>-1.34</v>
+        <v>-0.8</v>
       </c>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
@@ -8560,17 +8560,17 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>0.00572866 BTC</t>
+          <t>0.00579441 BTC</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>86618.38</v>
+        <v>85640.09</v>
       </c>
       <c r="F262" t="n">
         <v>500</v>
       </c>
       <c r="G262" t="n">
-        <v>-3.79</v>
+        <v>-3.77</v>
       </c>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
@@ -8591,17 +8591,17 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>0.00579441 BTC</t>
+          <t>0.00581152 BTC</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>85640.09</v>
+        <v>85748.64</v>
       </c>
       <c r="F263" t="n">
         <v>500</v>
       </c>
       <c r="G263" t="n">
-        <v>-3.77</v>
+        <v>-1.67</v>
       </c>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
@@ -8622,17 +8622,17 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>0.00581152 BTC</t>
+          <t>0.00581503 BTC</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>85748.64</v>
+        <v>85952.7</v>
       </c>
       <c r="F264" t="n">
         <v>500</v>
       </c>
       <c r="G264" t="n">
-        <v>-1.67</v>
+        <v>-0.18</v>
       </c>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
@@ -8653,17 +8653,17 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>0.00581503 BTC</t>
+          <t>0.00581943 BTC</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>85952.7</v>
+        <v>85760.07000000001</v>
       </c>
       <c r="F265" t="n">
         <v>500</v>
       </c>
       <c r="G265" t="n">
-        <v>-0.18</v>
+        <v>-0.93</v>
       </c>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
@@ -8684,17 +8684,17 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>0.00581943 BTC</t>
+          <t>0.00582273 BTC</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>85760.07000000001</v>
+        <v>85760.81</v>
       </c>
       <c r="F266" t="n">
         <v>500</v>
       </c>
       <c r="G266" t="n">
-        <v>-0.93</v>
+        <v>-0.64</v>
       </c>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
@@ -8715,17 +8715,17 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>0.00582273 BTC</t>
+          <t>0.00582479 BTC</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>85760.81</v>
+        <v>85373.22</v>
       </c>
       <c r="F267" t="n">
         <v>500</v>
       </c>
       <c r="G267" t="n">
-        <v>-0.64</v>
+        <v>-2.72</v>
       </c>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
@@ -8746,17 +8746,17 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>0.01155963 BTC</t>
+          <t>0.00584405 BTC</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>86301.87</v>
+        <v>85541.5</v>
       </c>
       <c r="F268" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G268" t="n">
-        <v>-2.38</v>
+        <v>-0.09</v>
       </c>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
@@ -8777,17 +8777,17 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>0.00585194 BTC</t>
+          <t>0.00586190 BTC</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>85305.71000000001</v>
+        <v>85400.27</v>
       </c>
       <c r="F269" t="n">
         <v>500</v>
       </c>
       <c r="G269" t="n">
-        <v>-0.8</v>
+        <v>0.61</v>
       </c>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
@@ -8808,17 +8808,17 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>0.00584405 BTC</t>
+          <t>0.00604549 BTC</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>85541.5</v>
+        <v>82627.60000000001</v>
       </c>
       <c r="F270" t="n">
         <v>500</v>
       </c>
       <c r="G270" t="n">
-        <v>-0.09</v>
+        <v>-0.48</v>
       </c>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
@@ -8839,17 +8839,17 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>0.00569396 BTC</t>
+          <t>0.01158673 BTC</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>87548.3</v>
+        <v>86244.75999999999</v>
       </c>
       <c r="F271" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G271" t="n">
-        <v>-1.5</v>
+        <v>-0.7</v>
       </c>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
@@ -8870,17 +8870,17 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>0.01155804 BTC</t>
+          <t>0.00572866 BTC</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>86509.5</v>
+        <v>86618.38</v>
       </c>
       <c r="F272" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G272" t="n">
-        <v>-0.12</v>
+        <v>-3.79</v>
       </c>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
@@ -8901,17 +8901,17 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>0.01152400 BTC</t>
+          <t>0.01155963 BTC</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>86667.16</v>
+        <v>86301.87</v>
       </c>
       <c r="F273" t="n">
         <v>1000</v>
       </c>
       <c r="G273" t="n">
-        <v>-1.25</v>
+        <v>-2.38</v>
       </c>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
@@ -8963,17 +8963,17 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>0.01178633 BTC</t>
+          <t>0.01159348 BTC</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>85274.95</v>
+        <v>86480.34</v>
       </c>
       <c r="F275" t="n">
         <v>1000</v>
       </c>
       <c r="G275" t="n">
-        <v>5.08</v>
+        <v>2.61</v>
       </c>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
@@ -8994,17 +8994,17 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>0.01171814 BTC</t>
+          <t>0.01178633 BTC</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>85229.89</v>
+        <v>85274.95</v>
       </c>
       <c r="F276" t="n">
         <v>1000</v>
       </c>
       <c r="G276" t="n">
-        <v>-1.26</v>
+        <v>5.08</v>
       </c>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
@@ -9025,17 +9025,17 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>0.01170772 BTC</t>
+          <t>0.01155804 BTC</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>85809.14</v>
+        <v>86509.5</v>
       </c>
       <c r="F277" t="n">
         <v>1000</v>
       </c>
       <c r="G277" t="n">
-        <v>4.63</v>
+        <v>-0.12</v>
       </c>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
@@ -9056,17 +9056,17 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>0.01166018 BTC</t>
+          <t>0.01171814 BTC</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>85642.36</v>
+        <v>85229.89</v>
       </c>
       <c r="F278" t="n">
         <v>1000</v>
       </c>
       <c r="G278" t="n">
-        <v>-1.4</v>
+        <v>-1.26</v>
       </c>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
@@ -9087,17 +9087,17 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>0.01166950 BTC</t>
+          <t>0.01170772 BTC</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>85566.05</v>
+        <v>85809.14</v>
       </c>
       <c r="F279" t="n">
         <v>1000</v>
       </c>
       <c r="G279" t="n">
-        <v>-1.49</v>
+        <v>4.63</v>
       </c>
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
@@ -9118,17 +9118,17 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>0.01167896 BTC</t>
+          <t>0.01166018 BTC</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>85462.13</v>
+        <v>85642.36</v>
       </c>
       <c r="F280" t="n">
         <v>1000</v>
       </c>
       <c r="G280" t="n">
-        <v>-1.89</v>
+        <v>-1.4</v>
       </c>
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>DOGE/USD</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9149,17 +9149,17 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>6,418.92795222 DOGE</t>
+          <t>0.01166950 BTC</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.1712</v>
+        <v>85566.05</v>
       </c>
       <c r="F281" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G281" t="n">
-        <v>-0.82</v>
+        <v>-1.49</v>
       </c>
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
@@ -9180,17 +9180,17 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>0.01170220 BTC</t>
+          <t>0.01167896 BTC</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>85372.92</v>
+        <v>85462.13</v>
       </c>
       <c r="F282" t="n">
         <v>1000</v>
       </c>
       <c r="G282" t="n">
-        <v>-0.95</v>
+        <v>-1.89</v>
       </c>
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
@@ -9211,17 +9211,17 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>0.01170520 BTC</t>
+          <t>0.01170220 BTC</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>85486.98</v>
+        <v>85372.92</v>
       </c>
       <c r="F283" t="n">
         <v>1000</v>
       </c>
       <c r="G283" t="n">
-        <v>0.64</v>
+        <v>-0.95</v>
       </c>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
@@ -9242,17 +9242,17 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>0.01170679 BTC</t>
+          <t>0.01170520 BTC</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>85537.05</v>
+        <v>85486.98</v>
       </c>
       <c r="F284" t="n">
         <v>1000</v>
       </c>
       <c r="G284" t="n">
-        <v>1.36</v>
+        <v>0.64</v>
       </c>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
@@ -9273,17 +9273,17 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>0.01159348 BTC</t>
+          <t>0.01170679 BTC</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>86480.34</v>
+        <v>85537.05</v>
       </c>
       <c r="F285" t="n">
         <v>1000</v>
       </c>
       <c r="G285" t="n">
-        <v>2.61</v>
+        <v>1.36</v>
       </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
@@ -9335,17 +9335,17 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>0.01167897 BTC</t>
+          <t>0.01167480 BTC</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>85618.41</v>
+        <v>85686.12</v>
       </c>
       <c r="F287" t="n">
         <v>1000</v>
       </c>
       <c r="G287" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USD</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -9366,17 +9366,17 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>0.01165387 BTC</t>
+          <t>6,418.92795222 DOGE</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>86258.39999999999</v>
+        <v>0.1712</v>
       </c>
       <c r="F288" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G288" t="n">
-        <v>5.24</v>
+        <v>-0.82</v>
       </c>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
@@ -9397,17 +9397,17 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>0.01159344 BTC</t>
+          <t>0.01165387 BTC</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>86985.94</v>
+        <v>86258.39999999999</v>
       </c>
       <c r="F289" t="n">
         <v>1000</v>
       </c>
       <c r="G289" t="n">
-        <v>8.470000000000001</v>
+        <v>5.24</v>
       </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
@@ -9428,17 +9428,17 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>0.01152355 BTC</t>
+          <t>0.01159344 BTC</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>86810.71000000001</v>
+        <v>86985.94</v>
       </c>
       <c r="F290" t="n">
         <v>1000</v>
       </c>
       <c r="G290" t="n">
-        <v>0.37</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
@@ -9459,17 +9459,17 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>0.01148311 BTC</t>
+          <t>0.01152400 BTC</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>87078.66</v>
+        <v>86667.16</v>
       </c>
       <c r="F291" t="n">
         <v>1000</v>
       </c>
       <c r="G291" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-1.25</v>
       </c>
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
@@ -9490,17 +9490,17 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>0.01148125 BTC</t>
+          <t>0.01152355 BTC</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>86982.53</v>
+        <v>86810.71000000001</v>
       </c>
       <c r="F292" t="n">
         <v>1000</v>
       </c>
       <c r="G292" t="n">
-        <v>-1.33</v>
+        <v>0.37</v>
       </c>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
@@ -9521,17 +9521,17 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>0.01149670 BTC</t>
+          <t>0.01148311 BTC</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>87054.37</v>
+        <v>87078.66</v>
       </c>
       <c r="F293" t="n">
         <v>1000</v>
       </c>
       <c r="G293" t="n">
-        <v>0.84</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
@@ -9552,17 +9552,17 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>0.01155241 BTC</t>
+          <t>0.01148125 BTC</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>86460.71000000001</v>
+        <v>86982.53</v>
       </c>
       <c r="F294" t="n">
         <v>1000</v>
       </c>
       <c r="G294" t="n">
-        <v>-1.17</v>
+        <v>-1.33</v>
       </c>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
@@ -9583,17 +9583,17 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>0.01155762 BTC</t>
+          <t>0.01149670 BTC</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>86512.75999999999</v>
+        <v>87054.37</v>
       </c>
       <c r="F295" t="n">
         <v>1000</v>
       </c>
       <c r="G295" t="n">
-        <v>-0.12</v>
+        <v>0.84</v>
       </c>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
@@ -9614,17 +9614,17 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>0.01156023 BTC</t>
+          <t>0.01155241 BTC</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>86398.25</v>
+        <v>86460.71000000001</v>
       </c>
       <c r="F296" t="n">
         <v>1000</v>
       </c>
       <c r="G296" t="n">
-        <v>-1.22</v>
+        <v>-1.17</v>
       </c>
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
@@ -9645,17 +9645,17 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>0.01167480 BTC</t>
+          <t>0.01155762 BTC</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>85686.12</v>
+        <v>86512.75999999999</v>
       </c>
       <c r="F297" t="n">
         <v>1000</v>
       </c>
       <c r="G297" t="n">
-        <v>0.37</v>
+        <v>-0.12</v>
       </c>
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
@@ -9676,20 +9676,4050 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>0.00586190 BTC</t>
+          <t>0.01167897 BTC</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>85400.27</v>
+        <v>85618.41</v>
       </c>
       <c r="F298" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G298" t="n">
-        <v>0.61</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>0.01156023 BTC</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>86398.25</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>0.00978289 BTC</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>81937.41</v>
+      </c>
+      <c r="F300" t="n">
+        <v>800</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>0.00611190 BTC</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>81740.19</v>
+      </c>
+      <c r="F301" t="n">
+        <v>500</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>0.00610529 BTC</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>81865.05</v>
+      </c>
+      <c r="F302" t="n">
+        <v>500</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>0.00610086 BTC</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>81964.96000000001</v>
+      </c>
+      <c r="F303" t="n">
+        <v>500</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>0.00608881 BTC</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>82066.3</v>
+      </c>
+      <c r="F304" t="n">
+        <v>500</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>0.00609723 BTC</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>82176.73</v>
+      </c>
+      <c r="F305" t="n">
+        <v>500</v>
+      </c>
+      <c r="G305" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>0.00608791 BTC</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>82117.69</v>
+      </c>
+      <c r="F306" t="n">
+        <v>500</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>0.00611890 BTC</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>81589.42999999999</v>
+      </c>
+      <c r="F307" t="n">
+        <v>500</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>0.00607748 BTC</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>82180</v>
+      </c>
+      <c r="F308" t="n">
+        <v>500</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>0.00612850 BTC</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>82124.94</v>
+      </c>
+      <c r="F309" t="n">
+        <v>500</v>
+      </c>
+      <c r="G309" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>0.00610777 BTC</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>81833.03999999999</v>
+      </c>
+      <c r="F310" t="n">
+        <v>500</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>0.00608714 BTC</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>82102.58</v>
+      </c>
+      <c r="F311" t="n">
+        <v>500</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>0.00610839 BTC</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>81817.31</v>
+      </c>
+      <c r="F312" t="n">
+        <v>500</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>0.00612147 BTC</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>81682.2</v>
+      </c>
+      <c r="F313" t="n">
+        <v>500</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>0.00977405 BTC</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>81813.46000000001</v>
+      </c>
+      <c r="F314" t="n">
+        <v>800</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>0.00977355 BTC</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>81822.06</v>
+      </c>
+      <c r="F315" t="n">
+        <v>800</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>0.00978034 BTC</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>81745.35000000001</v>
+      </c>
+      <c r="F316" t="n">
+        <v>800</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>0.00611638 BTC</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>81703.33</v>
+      </c>
+      <c r="F317" t="n">
+        <v>500</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>0.00795379 BTC</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>81657.82000000001</v>
+      </c>
+      <c r="F318" t="n">
+        <v>650</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>0.00612256 BTC</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>82034.41</v>
+      </c>
+      <c r="F319" t="n">
+        <v>500</v>
+      </c>
+      <c r="G319" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>0.00979755 BTC</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>81570.71000000001</v>
+      </c>
+      <c r="F320" t="n">
+        <v>800</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>0.00624996 BTC</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>81567.22</v>
+      </c>
+      <c r="F321" t="n">
+        <v>510</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>0.00980071 BTC</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>81604.23</v>
+      </c>
+      <c r="F322" t="n">
+        <v>800</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>0.00979609 BTC</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>81618.8</v>
+      </c>
+      <c r="F323" t="n">
+        <v>800</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>0.00783270 BTC</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>82139.99000000001</v>
+      </c>
+      <c r="F324" t="n">
+        <v>640</v>
+      </c>
+      <c r="G324" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>0.00792977 BTC</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>81938.25999999999</v>
+      </c>
+      <c r="F325" t="n">
+        <v>650</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>0.00614218 BTC</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>81331.86</v>
+      </c>
+      <c r="F326" t="n">
+        <v>500</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>0.01221683 BTC</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>81845.23</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>0.00614127 BTC</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>81306.42999999999</v>
+      </c>
+      <c r="F328" t="n">
+        <v>500</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>0.00610083 BTC</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>81854.85000000001</v>
+      </c>
+      <c r="F329" t="n">
+        <v>500</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>0.00611181 BTC</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>81729.55</v>
+      </c>
+      <c r="F330" t="n">
+        <v>500</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>0.00598642 BTC</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>83510.75999999999</v>
+      </c>
+      <c r="F331" t="n">
+        <v>500</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>0.00598975 BTC</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>83422</v>
+      </c>
+      <c r="F332" t="n">
+        <v>500</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>0.00599169 BTC</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>83435.31</v>
+      </c>
+      <c r="F333" t="n">
+        <v>500</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>0.00599362 BTC</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>83417.17999999999</v>
+      </c>
+      <c r="F334" t="n">
+        <v>500</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>0.00599409 BTC</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>83341.39</v>
+      </c>
+      <c r="F335" t="n">
+        <v>500</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>0.00599868 BTC</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>83279</v>
+      </c>
+      <c r="F336" t="n">
+        <v>500</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>0.00600240 BTC</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>83199.09</v>
+      </c>
+      <c r="F337" t="n">
+        <v>500</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>0.00600941 BTC</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>83144.57000000001</v>
+      </c>
+      <c r="F338" t="n">
+        <v>500</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>0.00608792 BTC</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>82344.78999999999</v>
+      </c>
+      <c r="F339" t="n">
+        <v>500</v>
+      </c>
+      <c r="G339" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>0.00607268 BTC</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>82187.14999999999</v>
+      </c>
+      <c r="F340" t="n">
+        <v>500</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>0.00606945 BTC</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>82474.17999999999</v>
+      </c>
+      <c r="F341" t="n">
+        <v>500</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>0.00606367 BTC</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>82364.82000000001</v>
+      </c>
+      <c r="F342" t="n">
+        <v>500</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>0.00606944 BTC</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>82289.85000000001</v>
+      </c>
+      <c r="F343" t="n">
+        <v>500</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>0.01199759 BTC</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>83300</v>
+      </c>
+      <c r="F344" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>0.00606858 BTC</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>82174.86</v>
+      </c>
+      <c r="F345" t="n">
+        <v>500</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>0.00607506 BTC</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>82238.25</v>
+      </c>
+      <c r="F346" t="n">
+        <v>500</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>0.00610667 BTC</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>81789.95</v>
+      </c>
+      <c r="F347" t="n">
+        <v>500</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>0.00609756 BTC</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>81915.21000000001</v>
+      </c>
+      <c r="F348" t="n">
+        <v>500</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>0.00609012 BTC</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>82026.17999999999</v>
+      </c>
+      <c r="F349" t="n">
+        <v>500</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>0.00608578 BTC</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>82052.10000000001</v>
+      </c>
+      <c r="F350" t="n">
+        <v>500</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>0.00610464 BTC</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>82133.73</v>
+      </c>
+      <c r="F351" t="n">
+        <v>500</v>
+      </c>
+      <c r="G351" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>0.00612145 BTC</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>81641.02</v>
+      </c>
+      <c r="F352" t="n">
+        <v>500</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>0.00610648 BTC</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>81728.42999999999</v>
+      </c>
+      <c r="F353" t="n">
+        <v>500</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>0.00608933 BTC</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>82025.19</v>
+      </c>
+      <c r="F354" t="n">
+        <v>500</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>0.00608865 BTC</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>82037.12</v>
+      </c>
+      <c r="F355" t="n">
+        <v>500</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>0.00608051 BTC</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>82158.19</v>
+      </c>
+      <c r="F356" t="n">
+        <v>500</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>0.00607386 BTC</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>82181.64</v>
+      </c>
+      <c r="F357" t="n">
+        <v>500</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>0.00608452 BTC</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>82123.47</v>
+      </c>
+      <c r="F358" t="n">
+        <v>500</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>0.00611308 BTC</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>81885.06</v>
+      </c>
+      <c r="F359" t="n">
+        <v>500</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>0.00594219 BTC</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>84034.38</v>
+      </c>
+      <c r="F360" t="n">
+        <v>500</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>0.00595002 BTC</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>83946.38</v>
+      </c>
+      <c r="F361" t="n">
+        <v>500</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>0.00595791 BTC</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
+        <v>83882.52</v>
+      </c>
+      <c r="F362" t="n">
+        <v>500</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>0.00596431 BTC</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
+        <v>84151.09</v>
+      </c>
+      <c r="F363" t="n">
+        <v>500</v>
+      </c>
+      <c r="G363" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>0.00594389 BTC</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
+        <v>84301.56</v>
+      </c>
+      <c r="F364" t="n">
+        <v>500</v>
+      </c>
+      <c r="G364" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>0.00593275 BTC</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
+        <v>84264.96000000001</v>
+      </c>
+      <c r="F365" t="n">
+        <v>500</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>0.00593126 BTC</t>
+        </is>
+      </c>
+      <c r="E366" t="n">
+        <v>84156</v>
+      </c>
+      <c r="F366" t="n">
+        <v>500</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>0.00593991 BTC</t>
+        </is>
+      </c>
+      <c r="E367" t="n">
+        <v>84104.57000000001</v>
+      </c>
+      <c r="F367" t="n">
+        <v>500</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>0.00596444 BTC</t>
+        </is>
+      </c>
+      <c r="E368" t="n">
+        <v>84087.37</v>
+      </c>
+      <c r="F368" t="n">
+        <v>500</v>
+      </c>
+      <c r="G368" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>0.00595069 BTC</t>
+        </is>
+      </c>
+      <c r="E369" t="n">
+        <v>83772.86</v>
+      </c>
+      <c r="F369" t="n">
+        <v>500</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>0.00596380 BTC</t>
+        </is>
+      </c>
+      <c r="E370" t="n">
+        <v>83770.28999999999</v>
+      </c>
+      <c r="F370" t="n">
+        <v>500</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>0.00594698 BTC</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
+        <v>84067</v>
+      </c>
+      <c r="F371" t="n">
+        <v>500</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>0.00594223 BTC</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
+        <v>84075.41</v>
+      </c>
+      <c r="F372" t="n">
+        <v>500</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>0.00594589 BTC</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>84181.69</v>
+      </c>
+      <c r="F373" t="n">
+        <v>500</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>0.00594920 BTC</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>84005.60000000001</v>
+      </c>
+      <c r="F374" t="n">
+        <v>500</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>0.00596332 BTC</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>83714.58</v>
+      </c>
+      <c r="F375" t="n">
+        <v>500</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>0.00594158 BTC</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>84078.14</v>
+      </c>
+      <c r="F376" t="n">
+        <v>500</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>0.00594210 BTC</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>84012</v>
+      </c>
+      <c r="F377" t="n">
+        <v>500</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>0.00594952 BTC</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>84010.3</v>
+      </c>
+      <c r="F378" t="n">
+        <v>500</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>0.00594177 BTC</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>84083.35000000001</v>
+      </c>
+      <c r="F379" t="n">
+        <v>500</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>0.00479274 BTC</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>84188.39</v>
+      </c>
+      <c r="F380" t="n">
+        <v>400</v>
+      </c>
+      <c r="G380" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>0.00361016 BTC</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>83004.53</v>
+      </c>
+      <c r="F381" t="n">
+        <v>300</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>0.00603839 BTC</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>82763.95</v>
+      </c>
+      <c r="F382" t="n">
+        <v>500</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>0.00603725 BTC</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>82618</v>
+      </c>
+      <c r="F383" t="n">
+        <v>500</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>0.00581021 BTC</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>83480</v>
+      </c>
+      <c r="F384" t="n">
+        <v>480</v>
+      </c>
+      <c r="G384" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>0.00600601 BTC</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>83165.81</v>
+      </c>
+      <c r="F385" t="n">
+        <v>500</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>0.00481870 BTC</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>82717.94</v>
+      </c>
+      <c r="F386" t="n">
+        <v>400</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>0.00580145 BTC</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>82589.61</v>
+      </c>
+      <c r="F387" t="n">
+        <v>480</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>0.00580655 BTC</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>82869.92999999999</v>
+      </c>
+      <c r="F388" t="n">
+        <v>480</v>
+      </c>
+      <c r="G388" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>0.00579803 BTC</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>82688.58</v>
+      </c>
+      <c r="F389" t="n">
+        <v>480</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>0.00575891 BTC</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>83178.42</v>
+      </c>
+      <c r="F390" t="n">
+        <v>480</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>0.00576276 BTC</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>83462.55</v>
+      </c>
+      <c r="F391" t="n">
+        <v>480</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>0.00575388 BTC</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>83345.2</v>
+      </c>
+      <c r="F392" t="n">
+        <v>480</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>0.00767764 BTC</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>83285.58</v>
+      </c>
+      <c r="F393" t="n">
+        <v>640</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>0.00601330 BTC</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>83089.47</v>
+      </c>
+      <c r="F394" t="n">
+        <v>500</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>0.00601794 BTC</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>83024.53999999999</v>
+      </c>
+      <c r="F395" t="n">
+        <v>500</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>0.00601758 BTC</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>82955.33</v>
+      </c>
+      <c r="F396" t="n">
+        <v>500</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>0.00601917 BTC</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>83380</v>
+      </c>
+      <c r="F397" t="n">
+        <v>500</v>
+      </c>
+      <c r="G397" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>0.00579060 BTC</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>83033.08</v>
+      </c>
+      <c r="F398" t="n">
+        <v>480</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>0.00894304 BTC</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>84078.14</v>
+      </c>
+      <c r="F399" t="n">
+        <v>750</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>0.00054964 BTC</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>83783.03</v>
+      </c>
+      <c r="F400" t="n">
+        <v>46</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>0.00596901 BTC</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>83723.85000000001</v>
+      </c>
+      <c r="F401" t="n">
+        <v>500</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>0.00577145 BTC</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>83231.39999999999</v>
+      </c>
+      <c r="F402" t="n">
+        <v>480</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>0.00602564 BTC</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>82910.05</v>
+      </c>
+      <c r="F403" t="n">
+        <v>500</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>0.00318131 BTC</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>78422.14999999999</v>
+      </c>
+      <c r="F404" t="n">
+        <v>250</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>0.00634289 BTC</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>79225.21000000001</v>
+      </c>
+      <c r="F405" t="n">
+        <v>500</v>
+      </c>
+      <c r="G405" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>0.01473362 BTC</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>78300</v>
+      </c>
+      <c r="F406" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G406" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>0.01000770 BTC</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>79886.25</v>
+      </c>
+      <c r="F407" t="n">
+        <v>800</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>0.01422264 BTC</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>79950</v>
+      </c>
+      <c r="F408" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G408" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>0.01402700 BTC</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>79787.7</v>
+      </c>
+      <c r="F409" t="n">
+        <v>1120</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>0.01402519 BTC</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>79804.42</v>
+      </c>
+      <c r="F410" t="n">
+        <v>1120</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>0.01000612 BTC</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>79884.89999999999</v>
+      </c>
+      <c r="F411" t="n">
+        <v>800</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>0.01200308 BTC</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>79931.91</v>
+      </c>
+      <c r="F412" t="n">
+        <v>960</v>
+      </c>
+      <c r="G412" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>0.01202074 BTC</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>79806.58</v>
+      </c>
+      <c r="F413" t="n">
+        <v>960</v>
+      </c>
+      <c r="G413" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>0.00996776 BTC</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>80268.12</v>
+      </c>
+      <c r="F414" t="n">
+        <v>800</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>BTCJ5</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>$960.00</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>80400</v>
+      </c>
+      <c r="F415" t="n">
+        <v>960</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>0.00998112 BTC</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>80247.31</v>
+      </c>
+      <c r="F416" t="n">
+        <v>800</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>0.00811028 BTC</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>80128</v>
+      </c>
+      <c r="F417" t="n">
+        <v>650</v>
+      </c>
+      <c r="G417" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>0.00799923 BTC</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>80047.62</v>
+      </c>
+      <c r="F418" t="n">
+        <v>640</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>0.00800632 BTC</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>79871.71000000001</v>
+      </c>
+      <c r="F419" t="n">
+        <v>640</v>
+      </c>
+      <c r="G419" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>0.00999190 BTC</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>80026.03</v>
+      </c>
+      <c r="F420" t="n">
+        <v>800</v>
+      </c>
+      <c r="G420" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>0.01652405 BTC</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>80570.96000000001</v>
+      </c>
+      <c r="F421" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>0.00989461 BTC</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>80787.88</v>
+      </c>
+      <c r="F422" t="n">
+        <v>800</v>
+      </c>
+      <c r="G422" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>0.00990920 BTC</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>81141.67</v>
+      </c>
+      <c r="F423" t="n">
+        <v>800</v>
+      </c>
+      <c r="G423" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>0.00786168 BTC</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>82182.32000000001</v>
+      </c>
+      <c r="F424" t="n">
+        <v>640</v>
+      </c>
+      <c r="G424" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>0.00780190 BTC</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>82008</v>
+      </c>
+      <c r="F425" t="n">
+        <v>640</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>0.00609599 BTC</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>82725.77</v>
+      </c>
+      <c r="F426" t="n">
+        <v>500</v>
+      </c>
+      <c r="G426" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>0.00531723 BTC</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>83200</v>
+      </c>
+      <c r="F427" t="n">
+        <v>440</v>
+      </c>
+      <c r="G427" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>0.00012097 BTC</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>83680.64</v>
+      </c>
+      <c r="F428" t="n">
+        <v>10</v>
+      </c>
+      <c r="G428" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,17 +593,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00415686 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>97500</v>
+        <v>134.6</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>132.35</v>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,17 +624,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00415686 BTC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>134.6</v>
+        <v>97500</v>
       </c>
       <c r="F6" t="n">
-        <v>132.35</v>
+        <v>400</v>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -903,17 +903,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>429.66400275 DOGE</t>
+          <t>233.45940141 DOGE</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2209</v>
+        <v>0.2143</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.07</v>
+        <v>0.03</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -934,17 +934,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>233.45940141 DOGE</t>
+          <t>429.66400275 DOGE</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2143</v>
+        <v>0.2209</v>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03</v>
+        <v>-5.07</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -955,7 +955,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -965,17 +965,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.00156239 BTC</t>
+          <t>780.63787340 DOGE</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>95950</v>
+        <v>0.2394</v>
       </c>
       <c r="F17" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.09</v>
+        <v>-16.67</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -986,7 +986,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>780.63787340 DOGE</t>
+          <t>0.00156239 BTC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2394</v>
+        <v>95950</v>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G18" t="n">
-        <v>-16.67</v>
+        <v>-0.09</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1027,17 +1027,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>478.35446066 DOGE</t>
+          <t>484.98957272 DOGE</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.209</v>
+        <v>0.2086</v>
       </c>
       <c r="F19" t="n">
         <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01</v>
+        <v>1.16</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1058,17 +1058,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>475.91852275 DOGE</t>
+          <t>478.35446066 DOGE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2099</v>
+        <v>0.209</v>
       </c>
       <c r="F20" t="n">
         <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.11</v>
+        <v>-0.01</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>475.91852275 DOGE</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>132.43</v>
+        <v>0.2099</v>
       </c>
       <c r="F21" t="n">
-        <v>128.58</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>3.85</v>
+        <v>-0.11</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1120,17 +1120,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>488.30509302 DOGE</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2041</v>
+        <v>132.43</v>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>128.58</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.33</v>
+        <v>3.85</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1151,17 +1151,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>484.98957272 DOGE</t>
+          <t>488.30509302 DOGE</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2086</v>
+        <v>0.2041</v>
       </c>
       <c r="F23" t="n">
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>1.16</v>
+        <v>-0.33</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1306,17 +1306,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>524.72011754 DOGE</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>119.85</v>
+        <v>0.198</v>
       </c>
       <c r="F28" t="n">
-        <v>122.42</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.57</v>
+        <v>3.91</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1337,17 +1337,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>524.72011754 DOGE</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.198</v>
+        <v>119.85</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>122.42</v>
       </c>
       <c r="G29" t="n">
-        <v>3.91</v>
+        <v>-2.57</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1372,13 +1372,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>249</v>
+        <v>121.46</v>
       </c>
       <c r="F30" t="n">
-        <v>252.17</v>
+        <v>121.46</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.17</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>121.46</v>
+        <v>249</v>
       </c>
       <c r="F31" t="n">
-        <v>121.46</v>
+        <v>252.17</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-3.17</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>289.5</v>
+        <v>295.94</v>
       </c>
       <c r="F55" t="n">
-        <v>292.4</v>
+        <v>291.39</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.9</v>
+        <v>4.55</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2178,13 +2178,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>273.8</v>
+        <v>289.5</v>
       </c>
       <c r="F56" t="n">
-        <v>276.75</v>
+        <v>292.4</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.95</v>
+        <v>-2.9</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2209,13 +2209,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>295.94</v>
+        <v>280.8</v>
       </c>
       <c r="F57" t="n">
-        <v>291.39</v>
+        <v>277.48</v>
       </c>
       <c r="G57" t="n">
-        <v>4.55</v>
+        <v>3.32</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2240,13 +2240,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>280.8</v>
+        <v>273.8</v>
       </c>
       <c r="F58" t="n">
-        <v>277.48</v>
+        <v>276.75</v>
       </c>
       <c r="G58" t="n">
-        <v>3.32</v>
+        <v>-2.95</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2267,17 +2267,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.00345504 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>91600</v>
+        <v>300.48</v>
       </c>
       <c r="F59" t="n">
-        <v>300</v>
+        <v>303.24</v>
       </c>
       <c r="G59" t="n">
-        <v>14.36</v>
+        <v>-2.76</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -2302,13 +2302,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>300.48</v>
+        <v>301.69</v>
       </c>
       <c r="F60" t="n">
-        <v>303.24</v>
+        <v>298.73</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.76</v>
+        <v>2.96</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2426,13 +2426,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>301.69</v>
+        <v>300.75</v>
       </c>
       <c r="F64" t="n">
-        <v>298.73</v>
+        <v>300.85</v>
       </c>
       <c r="G64" t="n">
-        <v>2.96</v>
+        <v>-0.1</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2577,17 +2577,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00345504 BTC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>298.29</v>
+        <v>91600</v>
       </c>
       <c r="F69" t="n">
-        <v>300.25</v>
+        <v>300</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.96</v>
+        <v>14.36</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>300.75</v>
+        <v>298.29</v>
       </c>
       <c r="F70" t="n">
-        <v>300.85</v>
+        <v>300.25</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1</v>
+        <v>-1.96</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -3507,17 +3507,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.00297475 BTC</t>
+          <t>0.00600361 BTC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>84487.62</v>
+        <v>83265</v>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G99" t="n">
-        <v>2.56</v>
+        <v>-0.11</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3724,17 +3724,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.00599115 BTC</t>
+          <t>0.00600252 BTC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>83418.53</v>
+        <v>83228.45</v>
       </c>
       <c r="F106" t="n">
         <v>500</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.23</v>
+        <v>-0.42</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -3755,17 +3755,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.00600361 BTC</t>
+          <t>0.00297475 BTC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>83265</v>
+        <v>84487.62</v>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.11</v>
+        <v>2.56</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
@@ -3786,17 +3786,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.00600252 BTC</t>
+          <t>0.00598802 BTC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>83228.45</v>
+        <v>83438.75</v>
       </c>
       <c r="F108" t="n">
         <v>500</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.42</v>
+        <v>-0.37</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
@@ -3817,17 +3817,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.00598802 BTC</t>
+          <t>0.00600784 BTC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>83438.75</v>
+        <v>83154.24000000001</v>
       </c>
       <c r="F109" t="n">
         <v>500</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.37</v>
+        <v>-0.42</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
@@ -4003,17 +4003,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.00600784 BTC</t>
+          <t>0.00599115 BTC</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>83154.24000000001</v>
+        <v>83418.53</v>
       </c>
       <c r="F115" t="n">
         <v>500</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.42</v>
+        <v>-0.23</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
@@ -4654,17 +4654,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0.00306105 BTC</t>
+          <t>0.00596537 BTC</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>81784.50999999999</v>
+        <v>83682.89999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G136" t="n">
-        <v>1.29</v>
+        <v>-0.8</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4716,17 +4716,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0.00596537 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>83682.89999999999</v>
+        <v>287.38</v>
       </c>
       <c r="F138" t="n">
-        <v>500</v>
+        <v>288.38</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4809,17 +4809,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00601307 BTC</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>287.38</v>
+        <v>83045.95</v>
       </c>
       <c r="F141" t="n">
-        <v>288.38</v>
+        <v>500</v>
       </c>
       <c r="G141" t="n">
-        <v>-1</v>
+        <v>-0.64</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -4840,17 +4840,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0.00601307 BTC</t>
+          <t>0.00361031 BTC</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>83045.95</v>
+        <v>82808.98</v>
       </c>
       <c r="F142" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.64</v>
+        <v>-1.03</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0.00361031 BTC</t>
+          <t>0.00602287 BTC</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>82808.98</v>
+        <v>83002.39</v>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G143" t="n">
-        <v>-1.03</v>
+        <v>-0.09</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -4902,17 +4902,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0.00602287 BTC</t>
+          <t>0.00615666 BTC</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>83002.39</v>
+        <v>81205.71000000001</v>
       </c>
       <c r="F144" t="n">
         <v>500</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.09</v>
+        <v>-0.04</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -4933,17 +4933,17 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0.00615666 BTC</t>
+          <t>0.00307541 BTC</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>81205.71000000001</v>
+        <v>81794.06</v>
       </c>
       <c r="F145" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.04</v>
+        <v>3.4</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -4964,17 +4964,17 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0.00307541 BTC</t>
+          <t>0.00306105 BTC</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>81794.06</v>
+        <v>81784.50999999999</v>
       </c>
       <c r="F146" t="n">
         <v>250</v>
       </c>
       <c r="G146" t="n">
-        <v>3.4</v>
+        <v>1.29</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -5181,17 +5181,17 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0.00301402 BTC</t>
+          <t>0.00309217 BTC</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>83995.99000000001</v>
+        <v>84590.81</v>
       </c>
       <c r="F153" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G153" t="n">
-        <v>3.79</v>
+        <v>3.28</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -5212,17 +5212,17 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0.00604796 BTC</t>
+          <t>0.00301402 BTC</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>82744.75999999999</v>
+        <v>83995.99000000001</v>
       </c>
       <c r="F154" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G154" t="n">
-        <v>0.44</v>
+        <v>3.79</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -5243,17 +5243,17 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.00604678 BTC</t>
+          <t>0.00604796 BTC</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>82629.73</v>
+        <v>82744.75999999999</v>
       </c>
       <c r="F155" t="n">
         <v>500</v>
       </c>
       <c r="G155" t="n">
-        <v>-0.36</v>
+        <v>0.44</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
@@ -5274,17 +5274,17 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0.00309217 BTC</t>
+          <t>0.00604678 BTC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>84590.81</v>
+        <v>82629.73</v>
       </c>
       <c r="F156" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="G156" t="n">
-        <v>3.28</v>
+        <v>-0.36</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
@@ -5305,17 +5305,17 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0.00604898 BTC</t>
+          <t>0.00603339 BTC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>82579.38</v>
+        <v>82807.66</v>
       </c>
       <c r="F157" t="n">
         <v>500</v>
       </c>
       <c r="G157" t="n">
-        <v>-0.48</v>
+        <v>-0.39</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
@@ -5336,17 +5336,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0.00772381 BTC</t>
+          <t>0.00604898 BTC</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>82887.96000000001</v>
+        <v>82579.38</v>
       </c>
       <c r="F158" t="n">
-        <v>640</v>
+        <v>500</v>
       </c>
       <c r="G158" t="n">
-        <v>0.21</v>
+        <v>-0.48</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
@@ -5367,17 +5367,17 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0.00603339 BTC</t>
+          <t>0.00772381 BTC</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>82807.66</v>
+        <v>82887.96000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="G159" t="n">
-        <v>-0.39</v>
+        <v>0.21</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -5584,17 +5584,17 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0.00680529 BTC</t>
+          <t>0.00284366 BTC</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>88267.2</v>
+        <v>88305.92</v>
       </c>
       <c r="F166" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="G166" t="n">
-        <v>-0.86</v>
+        <v>4.1</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
@@ -5708,17 +5708,17 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0.00284366 BTC</t>
+          <t>0.00680529 BTC</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>88305.92</v>
+        <v>88267.2</v>
       </c>
       <c r="F170" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="G170" t="n">
-        <v>4.1</v>
+        <v>-0.86</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5832,17 +5832,17 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0.00587727 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>86499.99000000001</v>
+        <v>323.32</v>
       </c>
       <c r="F174" t="n">
-        <v>500</v>
+        <v>325.72</v>
       </c>
       <c r="G174" t="n">
-        <v>5.53</v>
+        <v>-2.4</v>
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5863,17 +5863,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00587727 BTC</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>323.32</v>
+        <v>86499.99000000001</v>
       </c>
       <c r="F175" t="n">
-        <v>325.72</v>
+        <v>500</v>
       </c>
       <c r="G175" t="n">
-        <v>-2.4</v>
+        <v>5.53</v>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DOGE/USD</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6204,17 +6204,17 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>829.83292879 DOGE</t>
+          <t>0.01031803 BTC</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.1926</v>
+        <v>87226.89</v>
       </c>
       <c r="F186" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="G186" t="n">
-        <v>-0.17</v>
+        <v>0.01</v>
       </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USD</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6235,17 +6235,17 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0.00917285 BTC</t>
+          <t>829.83292879 DOGE</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>87127.25</v>
+        <v>0.1926</v>
       </c>
       <c r="F187" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="G187" t="n">
-        <v>-0.79</v>
+        <v>-0.17</v>
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
@@ -6266,17 +6266,17 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0.00917491 BTC</t>
+          <t>0.00917285 BTC</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>87075.42</v>
+        <v>87127.25</v>
       </c>
       <c r="F188" t="n">
         <v>800</v>
       </c>
       <c r="G188" t="n">
-        <v>-1.09</v>
+        <v>-0.79</v>
       </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
@@ -6359,17 +6359,17 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0.01031803 BTC</t>
+          <t>0.00917491 BTC</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>87226.89</v>
+        <v>87075.42</v>
       </c>
       <c r="F191" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G191" t="n">
-        <v>0.01</v>
+        <v>-1.09</v>
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
@@ -6576,17 +6576,17 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0.01453200 BTC</t>
+          <t>0.01576589 BTC</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>82664</v>
+        <v>82386.5</v>
       </c>
       <c r="F198" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G198" t="n">
-        <v>1.27</v>
+        <v>-1.1</v>
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
@@ -6607,17 +6607,17 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0.01576589 BTC</t>
+          <t>0.01576568 BTC</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>82386.5</v>
+        <v>82441.61</v>
       </c>
       <c r="F199" t="n">
         <v>1300</v>
       </c>
       <c r="G199" t="n">
-        <v>-1.1</v>
+        <v>-0.25</v>
       </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
@@ -6638,17 +6638,17 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>0.01576568 BTC</t>
+          <t>0.01572137 BTC</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>82441.61</v>
+        <v>82597.84</v>
       </c>
       <c r="F200" t="n">
         <v>1300</v>
       </c>
       <c r="G200" t="n">
-        <v>-0.25</v>
+        <v>-1.45</v>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -6669,17 +6669,17 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0.01572137 BTC</t>
+          <t>0.01453200 BTC</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>82597.84</v>
+        <v>82664</v>
       </c>
       <c r="F201" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G201" t="n">
-        <v>-1.45</v>
+        <v>1.27</v>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -6700,17 +6700,17 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0.01562217 BTC</t>
+          <t>0.01561391 BTC</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>83156</v>
+        <v>83202.84</v>
       </c>
       <c r="F202" t="n">
         <v>1300</v>
       </c>
       <c r="G202" t="n">
-        <v>-0.92</v>
+        <v>-0.88</v>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
@@ -6793,17 +6793,17 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>0.01570956 BTC</t>
+          <t>0.01562217 BTC</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>83145.06</v>
+        <v>83156</v>
       </c>
       <c r="F205" t="n">
         <v>1300</v>
       </c>
       <c r="G205" t="n">
-        <v>6.17</v>
+        <v>-0.92</v>
       </c>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
@@ -6824,17 +6824,17 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0.01439712 BTC</t>
+          <t>0.01570956 BTC</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>83317.73</v>
+        <v>83145.06</v>
       </c>
       <c r="F206" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G206" t="n">
-        <v>-0.46</v>
+        <v>6.17</v>
       </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
@@ -6855,17 +6855,17 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.01559875 BTC</t>
+          <t>0.01439712 BTC</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>83348.37</v>
+        <v>83317.73</v>
       </c>
       <c r="F207" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G207" t="n">
-        <v>0.13</v>
+        <v>-0.46</v>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
@@ -6886,17 +6886,17 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0.02167198 BTC</t>
+          <t>0.01559875 BTC</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>83373.64</v>
+        <v>83348.37</v>
       </c>
       <c r="F208" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="G208" t="n">
-        <v>6.87</v>
+        <v>0.13</v>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
@@ -6917,17 +6917,17 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>0.01561391 BTC</t>
+          <t>0.02167198 BTC</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>83202.84</v>
+        <v>83373.64</v>
       </c>
       <c r="F209" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="G209" t="n">
-        <v>-0.88</v>
+        <v>6.87</v>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -6948,17 +6948,17 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.01574576 BTC</t>
+          <t>0.01530492 BTC</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>83122.8484</v>
+        <v>84845.41</v>
       </c>
       <c r="F210" t="n">
         <v>1300</v>
       </c>
       <c r="G210" t="n">
-        <v>8.83</v>
+        <v>-1.45</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -6979,17 +6979,17 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0.01565901 BTC</t>
+          <t>0.01531120 BTC</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>82951.8</v>
+        <v>84778.21000000001</v>
       </c>
       <c r="F211" t="n">
         <v>1300</v>
       </c>
       <c r="G211" t="n">
-        <v>-1.06</v>
+        <v>-1.94</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -7010,17 +7010,17 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0.01566660 BTC</t>
+          <t>0.01532366 BTC</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>83137.84</v>
+        <v>85287.21000000001</v>
       </c>
       <c r="F212" t="n">
         <v>1300</v>
       </c>
       <c r="G212" t="n">
-        <v>2.49</v>
+        <v>6.91</v>
       </c>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
@@ -7041,17 +7041,17 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0.01563843 BTC</t>
+          <t>0.01523107 BTC</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>83056</v>
+        <v>85208.53</v>
       </c>
       <c r="F213" t="n">
         <v>1300</v>
       </c>
       <c r="G213" t="n">
-        <v>-1.13</v>
+        <v>-2.18</v>
       </c>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
@@ -7072,17 +7072,17 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0.01564569 BTC</t>
+          <t>0.01405324 BTC</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>83237.52</v>
+        <v>85265.36</v>
       </c>
       <c r="F214" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G214" t="n">
-        <v>2.31</v>
+        <v>-1.75</v>
       </c>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
@@ -7103,17 +7103,17 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0.01563295 BTC</t>
+          <t>0.01527597 BTC</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>83117.49000000001</v>
+        <v>85083.22</v>
       </c>
       <c r="F215" t="n">
         <v>1300</v>
       </c>
       <c r="G215" t="n">
-        <v>-0.63</v>
+        <v>-0.27</v>
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
@@ -7134,17 +7134,17 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0.01564990 BTC</t>
+          <t>0.01528139 BTC</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>83035.95</v>
+        <v>85034.85000000001</v>
       </c>
       <c r="F216" t="n">
         <v>1300</v>
       </c>
       <c r="G216" t="n">
-        <v>-0.5</v>
+        <v>-0.55</v>
       </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
@@ -7165,17 +7165,17 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>0.01528324 BTC</t>
+          <t>0.01554726 BTC</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>84991.22</v>
+        <v>84943.80100000001</v>
       </c>
       <c r="F217" t="n">
         <v>1300</v>
       </c>
       <c r="G217" t="n">
-        <v>-1.06</v>
+        <v>20.64</v>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
@@ -7196,17 +7196,17 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0.01530246 BTC</t>
+          <t>0.01528324 BTC</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>85047.34</v>
+        <v>84991.22</v>
       </c>
       <c r="F218" t="n">
         <v>1300</v>
       </c>
       <c r="G218" t="n">
-        <v>1.43</v>
+        <v>-1.06</v>
       </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
@@ -7227,17 +7227,17 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>0.01528690 BTC</t>
+          <t>0.01530246 BTC</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>84919.55</v>
+        <v>85047.34</v>
       </c>
       <c r="F219" t="n">
         <v>1300</v>
       </c>
       <c r="G219" t="n">
-        <v>-1.84</v>
+        <v>1.43</v>
       </c>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
@@ -7258,17 +7258,17 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0.01529663 BTC</t>
+          <t>0.01528690 BTC</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>85131.60000000001</v>
+        <v>84919.55</v>
       </c>
       <c r="F220" t="n">
         <v>1300</v>
       </c>
       <c r="G220" t="n">
-        <v>2.23</v>
+        <v>-1.84</v>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
@@ -7289,17 +7289,17 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0.01527363 BTC</t>
+          <t>0.01529663 BTC</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>85154.47</v>
+        <v>85131.60000000001</v>
       </c>
       <c r="F221" t="n">
         <v>1300</v>
       </c>
       <c r="G221" t="n">
-        <v>0.62</v>
+        <v>2.23</v>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -7320,17 +7320,17 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>0.01409120 BTC</t>
+          <t>0.01525242 BTC</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>85087.59</v>
+        <v>85137.91</v>
       </c>
       <c r="F222" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G222" t="n">
-        <v>-1.01</v>
+        <v>-1.44</v>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
@@ -7351,17 +7351,17 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0.01527597 BTC</t>
+          <t>0.01555407 BTC</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>85083.22</v>
+        <v>83560.41</v>
       </c>
       <c r="F223" t="n">
         <v>1300</v>
       </c>
       <c r="G223" t="n">
-        <v>-0.27</v>
+        <v>-0.3</v>
       </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
@@ -7382,17 +7382,17 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>0.01532621 BTC</t>
+          <t>0.01437815 BTC</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>84759.37</v>
+        <v>83458.2164</v>
       </c>
       <c r="F224" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G224" t="n">
-        <v>-0.96</v>
+        <v>-0.03</v>
       </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
@@ -7413,17 +7413,17 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0.01534120 BTC</t>
+          <t>0.01556218 BTC</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>84960.5</v>
+        <v>83589.00999999999</v>
       </c>
       <c r="F225" t="n">
         <v>1300</v>
       </c>
       <c r="G225" t="n">
-        <v>3.4</v>
+        <v>0.83</v>
       </c>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
@@ -7444,17 +7444,17 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>0.01175862 BTC</t>
+          <t>0.01556970 BTC</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>85029.27</v>
+        <v>83443.34</v>
       </c>
       <c r="F226" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G226" t="n">
-        <v>-0.17</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
@@ -7475,17 +7475,17 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>0.01175915 BTC</t>
+          <t>0.01567529 BTC</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>84983.19</v>
+        <v>82992.31</v>
       </c>
       <c r="F227" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G227" t="n">
-        <v>-0.67</v>
+        <v>0.93</v>
       </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
@@ -7506,17 +7506,17 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>0.01176914 BTC</t>
+          <t>0.01567484 BTC</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>84906.64</v>
+        <v>82922.96000000001</v>
       </c>
       <c r="F228" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G228" t="n">
-        <v>-0.72</v>
+        <v>-0.2</v>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
@@ -7537,17 +7537,17 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0.01176083 BTC</t>
+          <t>0.01566760 BTC</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>85008</v>
+        <v>82898.91</v>
       </c>
       <c r="F229" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G229" t="n">
-        <v>-0.24</v>
+        <v>-1.17</v>
       </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
@@ -7568,17 +7568,17 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>0.01563778 BTC</t>
+          <t>0.01565851 BTC</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>83107.14</v>
+        <v>82972.85000000001</v>
       </c>
       <c r="F230" t="n">
         <v>1300</v>
       </c>
       <c r="G230" t="n">
-        <v>-0.39</v>
+        <v>-0.77</v>
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
@@ -7599,17 +7599,17 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>0.01532997 BTC</t>
+          <t>0.01564990 BTC</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>84719.92999999999</v>
+        <v>83035.95</v>
       </c>
       <c r="F231" t="n">
         <v>1300</v>
       </c>
       <c r="G231" t="n">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
@@ -7630,17 +7630,17 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0.01528139 BTC</t>
+          <t>0.01563778 BTC</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>85034.85000000001</v>
+        <v>83107.14</v>
       </c>
       <c r="F232" t="n">
         <v>1300</v>
       </c>
       <c r="G232" t="n">
-        <v>-0.55</v>
+        <v>-0.39</v>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
@@ -7661,17 +7661,17 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>0.01528771 BTC</t>
+          <t>0.01564569 BTC</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>85044.12</v>
+        <v>83237.52</v>
       </c>
       <c r="F233" t="n">
         <v>1300</v>
       </c>
       <c r="G233" t="n">
-        <v>0.13</v>
+        <v>2.31</v>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
@@ -7692,17 +7692,17 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>0.01405324 BTC</t>
+          <t>0.01563843 BTC</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>85265.36</v>
+        <v>83056</v>
       </c>
       <c r="F234" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G234" t="n">
-        <v>-1.75</v>
+        <v>-1.13</v>
       </c>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
@@ -7723,17 +7723,17 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>0.01525242 BTC</t>
+          <t>0.01566660 BTC</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>85137.91</v>
+        <v>83137.84</v>
       </c>
       <c r="F235" t="n">
         <v>1300</v>
       </c>
       <c r="G235" t="n">
-        <v>-1.44</v>
+        <v>2.49</v>
       </c>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
@@ -7754,17 +7754,17 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.01565851 BTC</t>
+          <t>0.01565901 BTC</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>82972.85000000001</v>
+        <v>82951.8</v>
       </c>
       <c r="F236" t="n">
         <v>1300</v>
       </c>
       <c r="G236" t="n">
-        <v>-0.77</v>
+        <v>-1.06</v>
       </c>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
@@ -7785,17 +7785,17 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>0.01566760 BTC</t>
+          <t>0.01574576 BTC</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>82898.91</v>
+        <v>83122.8484</v>
       </c>
       <c r="F237" t="n">
         <v>1300</v>
       </c>
       <c r="G237" t="n">
-        <v>-1.17</v>
+        <v>8.83</v>
       </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
@@ -7816,17 +7816,17 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>0.01567529 BTC</t>
+          <t>0.01527363 BTC</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>82992.31</v>
+        <v>85154.47</v>
       </c>
       <c r="F238" t="n">
         <v>1300</v>
       </c>
       <c r="G238" t="n">
-        <v>0.93</v>
+        <v>0.62</v>
       </c>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
@@ -7847,17 +7847,17 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>0.01437815 BTC</t>
+          <t>0.01554689 BTC</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>83458.2164</v>
+        <v>83520.28999999999</v>
       </c>
       <c r="F239" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G239" t="n">
-        <v>-0.03</v>
+        <v>-1.52</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -7878,17 +7878,17 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>0.01556970 BTC</t>
+          <t>0.01563295 BTC</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>83443.34</v>
+        <v>83117.49000000001</v>
       </c>
       <c r="F240" t="n">
         <v>1300</v>
       </c>
       <c r="G240" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.63</v>
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
@@ -7909,17 +7909,17 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0.01556218 BTC</t>
+          <t>0.01409120 BTC</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>83589.00999999999</v>
+        <v>85087.59</v>
       </c>
       <c r="F241" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G241" t="n">
-        <v>0.83</v>
+        <v>-1.01</v>
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
@@ -7940,17 +7940,17 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>0.01567484 BTC</t>
+          <t>0.01532997 BTC</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>82922.96000000001</v>
+        <v>84719.92999999999</v>
       </c>
       <c r="F242" t="n">
         <v>1300</v>
       </c>
       <c r="G242" t="n">
-        <v>-0.2</v>
+        <v>-1.25</v>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
@@ -7971,17 +7971,17 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>0.01555407 BTC</t>
+          <t>0.01534120 BTC</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>83560.41</v>
+        <v>84960.5</v>
       </c>
       <c r="F243" t="n">
         <v>1300</v>
       </c>
       <c r="G243" t="n">
-        <v>-0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
@@ -8002,17 +8002,17 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>0.01554726 BTC</t>
+          <t>0.01528771 BTC</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>84943.80100000001</v>
+        <v>85044.12</v>
       </c>
       <c r="F244" t="n">
         <v>1300</v>
       </c>
       <c r="G244" t="n">
-        <v>20.64</v>
+        <v>0.13</v>
       </c>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
@@ -8033,17 +8033,17 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>0.01530492 BTC</t>
+          <t>0.01175862 BTC</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>84845.41</v>
+        <v>85029.27</v>
       </c>
       <c r="F245" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G245" t="n">
-        <v>-1.45</v>
+        <v>-0.17</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
@@ -8064,17 +8064,17 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>0.01531120 BTC</t>
+          <t>0.01175915 BTC</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>84778.21000000001</v>
+        <v>84983.19</v>
       </c>
       <c r="F246" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G246" t="n">
-        <v>-1.94</v>
+        <v>-0.67</v>
       </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
@@ -8095,17 +8095,17 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>0.01532366 BTC</t>
+          <t>0.01176914 BTC</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>85287.21000000001</v>
+        <v>84906.64</v>
       </c>
       <c r="F247" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G247" t="n">
-        <v>6.91</v>
+        <v>-0.72</v>
       </c>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
@@ -8126,17 +8126,17 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>0.01554689 BTC</t>
+          <t>0.01176083 BTC</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>83520.28999999999</v>
+        <v>85008</v>
       </c>
       <c r="F248" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G248" t="n">
-        <v>-1.52</v>
+        <v>-0.24</v>
       </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
@@ -8157,17 +8157,17 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>0.01523107 BTC</t>
+          <t>0.01532621 BTC</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>85208.53</v>
+        <v>84759.37</v>
       </c>
       <c r="F249" t="n">
         <v>1300</v>
       </c>
       <c r="G249" t="n">
-        <v>-2.18</v>
+        <v>-0.96</v>
       </c>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
@@ -8188,17 +8188,17 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>0.00566534 BTC</t>
+          <t>0.01159017 BTC</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>87929</v>
+        <v>87583.24000000001</v>
       </c>
       <c r="F250" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G250" t="n">
-        <v>-1.85</v>
+        <v>15.1</v>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
@@ -8219,17 +8219,17 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>0.01159017 BTC</t>
+          <t>0.01158808 BTC</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>87583.24000000001</v>
+        <v>86110.48</v>
       </c>
       <c r="F251" t="n">
         <v>1000</v>
       </c>
       <c r="G251" t="n">
-        <v>15.1</v>
+        <v>-2.14</v>
       </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
@@ -8250,17 +8250,17 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>0.01158808 BTC</t>
+          <t>0.01153005 BTC</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>86110.48</v>
+        <v>86711.06</v>
       </c>
       <c r="F252" t="n">
         <v>1000</v>
       </c>
       <c r="G252" t="n">
-        <v>-2.14</v>
+        <v>-0.22</v>
       </c>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
@@ -8281,17 +8281,17 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>0.01153005 BTC</t>
+          <t>0.00115314 BTC</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>86711.06</v>
+        <v>86653.61</v>
       </c>
       <c r="F253" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G253" t="n">
-        <v>-0.22</v>
+        <v>-0.08</v>
       </c>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
@@ -8312,17 +8312,17 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>0.01159651 BTC</t>
+          <t>0.01158766 BTC</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>86224.13</v>
+        <v>86193.42</v>
       </c>
       <c r="F254" t="n">
         <v>1000</v>
       </c>
       <c r="G254" t="n">
-        <v>-0.1</v>
+        <v>-1.22</v>
       </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
@@ -8343,17 +8343,17 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>0.01158139 BTC</t>
+          <t>0.01159651 BTC</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>86788.21000000001</v>
+        <v>86224.13</v>
       </c>
       <c r="F255" t="n">
         <v>1000</v>
       </c>
       <c r="G255" t="n">
-        <v>5.13</v>
+        <v>-0.1</v>
       </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
@@ -8436,17 +8436,17 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>0.01158766 BTC</t>
+          <t>0.01158673 BTC</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>86193.42</v>
+        <v>86244.75999999999</v>
       </c>
       <c r="F258" t="n">
         <v>1000</v>
       </c>
       <c r="G258" t="n">
-        <v>-1.22</v>
+        <v>-0.7</v>
       </c>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
@@ -8467,17 +8467,17 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>0.00115314 BTC</t>
+          <t>0.01158139 BTC</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>86653.61</v>
+        <v>86788.21000000001</v>
       </c>
       <c r="F259" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G259" t="n">
-        <v>-0.08</v>
+        <v>5.13</v>
       </c>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
@@ -8529,17 +8529,17 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>0.00585194 BTC</t>
+          <t>0.00581503 BTC</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>85305.71000000001</v>
+        <v>85952.7</v>
       </c>
       <c r="F261" t="n">
         <v>500</v>
       </c>
       <c r="G261" t="n">
-        <v>-0.8</v>
+        <v>-0.18</v>
       </c>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
@@ -8622,17 +8622,17 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>0.00581503 BTC</t>
+          <t>0.01155963 BTC</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>85952.7</v>
+        <v>86301.87</v>
       </c>
       <c r="F264" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G264" t="n">
-        <v>-0.18</v>
+        <v>-2.38</v>
       </c>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
@@ -8746,17 +8746,17 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>0.00584405 BTC</t>
+          <t>0.00585194 BTC</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>85541.5</v>
+        <v>85305.71000000001</v>
       </c>
       <c r="F268" t="n">
         <v>500</v>
       </c>
       <c r="G268" t="n">
-        <v>-0.09</v>
+        <v>-0.8</v>
       </c>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
@@ -8777,17 +8777,17 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>0.00586190 BTC</t>
+          <t>0.00584405 BTC</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>85400.27</v>
+        <v>85541.5</v>
       </c>
       <c r="F269" t="n">
         <v>500</v>
       </c>
       <c r="G269" t="n">
-        <v>0.61</v>
+        <v>-0.09</v>
       </c>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
@@ -8808,17 +8808,17 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>0.00604549 BTC</t>
+          <t>0.00586190 BTC</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>82627.60000000001</v>
+        <v>85400.27</v>
       </c>
       <c r="F270" t="n">
         <v>500</v>
       </c>
       <c r="G270" t="n">
-        <v>-0.48</v>
+        <v>0.61</v>
       </c>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
@@ -8839,17 +8839,17 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>0.01158673 BTC</t>
+          <t>0.00604549 BTC</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>86244.75999999999</v>
+        <v>82627.60000000001</v>
       </c>
       <c r="F271" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G271" t="n">
-        <v>-0.7</v>
+        <v>-0.48</v>
       </c>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
@@ -8901,17 +8901,17 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>0.01155963 BTC</t>
+          <t>0.01155804 BTC</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>86301.87</v>
+        <v>86509.5</v>
       </c>
       <c r="F273" t="n">
         <v>1000</v>
       </c>
       <c r="G273" t="n">
-        <v>-2.38</v>
+        <v>-0.12</v>
       </c>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
@@ -8932,17 +8932,17 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>0.01156576 BTC</t>
+          <t>0.00566534 BTC</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>86375.75999999999</v>
+        <v>87929</v>
       </c>
       <c r="F274" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G274" t="n">
-        <v>-1</v>
+        <v>-1.85</v>
       </c>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
@@ -8963,17 +8963,17 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>0.01159348 BTC</t>
+          <t>0.01156576 BTC</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>86480.34</v>
+        <v>86375.75999999999</v>
       </c>
       <c r="F275" t="n">
         <v>1000</v>
       </c>
       <c r="G275" t="n">
-        <v>2.61</v>
+        <v>-1</v>
       </c>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
@@ -8994,17 +8994,17 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>0.01178633 BTC</t>
+          <t>0.01159348 BTC</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>85274.95</v>
+        <v>86480.34</v>
       </c>
       <c r="F276" t="n">
         <v>1000</v>
       </c>
       <c r="G276" t="n">
-        <v>5.08</v>
+        <v>2.61</v>
       </c>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
@@ -9025,17 +9025,17 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>0.01155804 BTC</t>
+          <t>0.01178633 BTC</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>86509.5</v>
+        <v>85274.95</v>
       </c>
       <c r="F277" t="n">
         <v>1000</v>
       </c>
       <c r="G277" t="n">
-        <v>-0.12</v>
+        <v>5.08</v>
       </c>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
@@ -9893,17 +9893,17 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>0.00609723 BTC</t>
+          <t>0.00612850 BTC</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>82176.73</v>
+        <v>82124.94</v>
       </c>
       <c r="F305" t="n">
         <v>500</v>
       </c>
       <c r="G305" t="n">
-        <v>1.05</v>
+        <v>3.3</v>
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
@@ -9955,17 +9955,17 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>0.00611890 BTC</t>
+          <t>0.00607748 BTC</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>81589.42999999999</v>
+        <v>82180</v>
       </c>
       <c r="F307" t="n">
         <v>500</v>
       </c>
       <c r="G307" t="n">
-        <v>-0.76</v>
+        <v>-0.55</v>
       </c>
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
@@ -9986,17 +9986,17 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>0.00607748 BTC</t>
+          <t>0.00609723 BTC</t>
         </is>
       </c>
       <c r="E308" t="n">
-        <v>82180</v>
+        <v>82176.73</v>
       </c>
       <c r="F308" t="n">
         <v>500</v>
       </c>
       <c r="G308" t="n">
-        <v>-0.55</v>
+        <v>1.05</v>
       </c>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
@@ -10017,17 +10017,17 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>0.00612850 BTC</t>
+          <t>0.00610777 BTC</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>82124.94</v>
+        <v>81833.03999999999</v>
       </c>
       <c r="F309" t="n">
         <v>500</v>
       </c>
       <c r="G309" t="n">
-        <v>3.3</v>
+        <v>-0.18</v>
       </c>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
@@ -10048,17 +10048,17 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>0.00610777 BTC</t>
+          <t>0.00611890 BTC</t>
         </is>
       </c>
       <c r="E310" t="n">
-        <v>81833.03999999999</v>
+        <v>81589.42999999999</v>
       </c>
       <c r="F310" t="n">
         <v>500</v>
       </c>
       <c r="G310" t="n">
-        <v>-0.18</v>
+        <v>-0.76</v>
       </c>
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
@@ -10141,17 +10141,17 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>0.00612147 BTC</t>
+          <t>0.00783270 BTC</t>
         </is>
       </c>
       <c r="E313" t="n">
-        <v>81682.2</v>
+        <v>82139.99000000001</v>
       </c>
       <c r="F313" t="n">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="G313" t="n">
-        <v>0.01</v>
+        <v>3.38</v>
       </c>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
@@ -10482,17 +10482,17 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>0.00783270 BTC</t>
+          <t>0.00612147 BTC</t>
         </is>
       </c>
       <c r="E324" t="n">
-        <v>82139.99000000001</v>
+        <v>81682.2</v>
       </c>
       <c r="F324" t="n">
-        <v>640</v>
+        <v>500</v>
       </c>
       <c r="G324" t="n">
-        <v>3.38</v>
+        <v>0.01</v>
       </c>
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
@@ -10637,17 +10637,17 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>0.00610083 BTC</t>
+          <t>0.00606945 BTC</t>
         </is>
       </c>
       <c r="E329" t="n">
-        <v>81854.85000000001</v>
+        <v>82474.17999999999</v>
       </c>
       <c r="F329" t="n">
         <v>500</v>
       </c>
       <c r="G329" t="n">
-        <v>-0.62</v>
+        <v>0.57</v>
       </c>
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
@@ -10823,17 +10823,17 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>0.00599409 BTC</t>
+          <t>0.01199759 BTC</t>
         </is>
       </c>
       <c r="E335" t="n">
-        <v>83341.39</v>
+        <v>83300</v>
       </c>
       <c r="F335" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G335" t="n">
-        <v>-0.44</v>
+        <v>-0.6</v>
       </c>
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
@@ -10854,17 +10854,17 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>0.00599868 BTC</t>
+          <t>0.00612145 BTC</t>
         </is>
       </c>
       <c r="E336" t="n">
-        <v>83279</v>
+        <v>81641.02</v>
       </c>
       <c r="F336" t="n">
         <v>500</v>
       </c>
       <c r="G336" t="n">
-        <v>-0.44</v>
+        <v>-0.24</v>
       </c>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
@@ -10885,17 +10885,17 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>0.00600240 BTC</t>
+          <t>0.00599868 BTC</t>
         </is>
       </c>
       <c r="E337" t="n">
-        <v>83199.09</v>
+        <v>83279</v>
       </c>
       <c r="F337" t="n">
         <v>500</v>
       </c>
       <c r="G337" t="n">
-        <v>-0.61</v>
+        <v>-0.44</v>
       </c>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
@@ -10916,17 +10916,17 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>0.00600941 BTC</t>
+          <t>0.00600240 BTC</t>
         </is>
       </c>
       <c r="E338" t="n">
-        <v>83144.57000000001</v>
+        <v>83199.09</v>
       </c>
       <c r="F338" t="n">
         <v>500</v>
       </c>
       <c r="G338" t="n">
-        <v>-0.35</v>
+        <v>-0.61</v>
       </c>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
@@ -10947,17 +10947,17 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>0.00608792 BTC</t>
+          <t>0.00600941 BTC</t>
         </is>
       </c>
       <c r="E339" t="n">
-        <v>82344.78999999999</v>
+        <v>83144.57000000001</v>
       </c>
       <c r="F339" t="n">
         <v>500</v>
       </c>
       <c r="G339" t="n">
-        <v>1.31</v>
+        <v>-0.35</v>
       </c>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
@@ -10978,17 +10978,17 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>0.00607268 BTC</t>
+          <t>0.00608792 BTC</t>
         </is>
       </c>
       <c r="E340" t="n">
-        <v>82187.14999999999</v>
+        <v>82344.78999999999</v>
       </c>
       <c r="F340" t="n">
         <v>500</v>
       </c>
       <c r="G340" t="n">
-        <v>-0.9</v>
+        <v>1.31</v>
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
@@ -11009,17 +11009,17 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>0.00606945 BTC</t>
+          <t>0.00607268 BTC</t>
         </is>
       </c>
       <c r="E341" t="n">
-        <v>82474.17999999999</v>
+        <v>82187.14999999999</v>
       </c>
       <c r="F341" t="n">
         <v>500</v>
       </c>
       <c r="G341" t="n">
-        <v>0.57</v>
+        <v>-0.9</v>
       </c>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
@@ -11102,17 +11102,17 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>0.01199759 BTC</t>
+          <t>0.00607506 BTC</t>
         </is>
       </c>
       <c r="E344" t="n">
-        <v>83300</v>
+        <v>82238.25</v>
       </c>
       <c r="F344" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G344" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
@@ -11133,17 +11133,17 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>0.00606858 BTC</t>
+          <t>0.00599409 BTC</t>
         </is>
       </c>
       <c r="E345" t="n">
-        <v>82174.86</v>
+        <v>83341.39</v>
       </c>
       <c r="F345" t="n">
         <v>500</v>
       </c>
       <c r="G345" t="n">
-        <v>-1.32</v>
+        <v>-0.44</v>
       </c>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
@@ -11164,17 +11164,17 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>0.00607506 BTC</t>
+          <t>0.00608452 BTC</t>
         </is>
       </c>
       <c r="E346" t="n">
-        <v>82238.25</v>
+        <v>82123.47</v>
       </c>
       <c r="F346" t="n">
         <v>500</v>
       </c>
       <c r="G346" t="n">
-        <v>-0.4</v>
+        <v>-0.32</v>
       </c>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
@@ -11195,17 +11195,17 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>0.00610667 BTC</t>
+          <t>0.00606858 BTC</t>
         </is>
       </c>
       <c r="E347" t="n">
-        <v>81789.95</v>
+        <v>82174.86</v>
       </c>
       <c r="F347" t="n">
         <v>500</v>
       </c>
       <c r="G347" t="n">
-        <v>-0.54</v>
+        <v>-1.32</v>
       </c>
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
@@ -11226,17 +11226,17 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>0.00609756 BTC</t>
+          <t>0.00610667 BTC</t>
         </is>
       </c>
       <c r="E348" t="n">
-        <v>81915.21000000001</v>
+        <v>81789.95</v>
       </c>
       <c r="F348" t="n">
         <v>500</v>
       </c>
       <c r="G348" t="n">
-        <v>-0.52</v>
+        <v>-0.54</v>
       </c>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
@@ -11257,17 +11257,17 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>0.00609012 BTC</t>
+          <t>0.00609756 BTC</t>
         </is>
       </c>
       <c r="E349" t="n">
-        <v>82026.17999999999</v>
+        <v>81915.21000000001</v>
       </c>
       <c r="F349" t="n">
         <v>500</v>
       </c>
       <c r="G349" t="n">
-        <v>-0.45</v>
+        <v>-0.52</v>
       </c>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
@@ -11288,17 +11288,17 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>0.00608578 BTC</t>
+          <t>0.00609012 BTC</t>
         </is>
       </c>
       <c r="E350" t="n">
-        <v>82052.10000000001</v>
+        <v>82026.17999999999</v>
       </c>
       <c r="F350" t="n">
         <v>500</v>
       </c>
       <c r="G350" t="n">
-        <v>-0.65</v>
+        <v>-0.45</v>
       </c>
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
@@ -11350,17 +11350,17 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>0.00612145 BTC</t>
+          <t>0.00610083 BTC</t>
         </is>
       </c>
       <c r="E352" t="n">
-        <v>81641.02</v>
+        <v>81854.85000000001</v>
       </c>
       <c r="F352" t="n">
         <v>500</v>
       </c>
       <c r="G352" t="n">
-        <v>-0.24</v>
+        <v>-0.62</v>
       </c>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
@@ -11381,17 +11381,17 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>0.00610648 BTC</t>
+          <t>0.00608578 BTC</t>
         </is>
       </c>
       <c r="E353" t="n">
-        <v>81728.42999999999</v>
+        <v>82052.10000000001</v>
       </c>
       <c r="F353" t="n">
         <v>500</v>
       </c>
       <c r="G353" t="n">
-        <v>-0.93</v>
+        <v>-0.65</v>
       </c>
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr"/>
@@ -11412,17 +11412,17 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>0.00608933 BTC</t>
+          <t>0.00610648 BTC</t>
         </is>
       </c>
       <c r="E354" t="n">
-        <v>82025.19</v>
+        <v>81728.42999999999</v>
       </c>
       <c r="F354" t="n">
         <v>500</v>
       </c>
       <c r="G354" t="n">
-        <v>-0.52</v>
+        <v>-0.93</v>
       </c>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
@@ -11443,17 +11443,17 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>0.00608865 BTC</t>
+          <t>0.00608933 BTC</t>
         </is>
       </c>
       <c r="E355" t="n">
-        <v>82037.12</v>
+        <v>82025.19</v>
       </c>
       <c r="F355" t="n">
         <v>500</v>
       </c>
       <c r="G355" t="n">
-        <v>-0.5</v>
+        <v>-0.52</v>
       </c>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
@@ -11474,17 +11474,17 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>0.00608051 BTC</t>
+          <t>0.00608865 BTC</t>
         </is>
       </c>
       <c r="E356" t="n">
-        <v>82158.19</v>
+        <v>82037.12</v>
       </c>
       <c r="F356" t="n">
         <v>500</v>
       </c>
       <c r="G356" t="n">
-        <v>-0.44</v>
+        <v>-0.5</v>
       </c>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr"/>
@@ -11505,17 +11505,17 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>0.00607386 BTC</t>
+          <t>0.00608051 BTC</t>
         </is>
       </c>
       <c r="E357" t="n">
-        <v>82181.64</v>
+        <v>82158.19</v>
       </c>
       <c r="F357" t="n">
         <v>500</v>
       </c>
       <c r="G357" t="n">
-        <v>-0.84</v>
+        <v>-0.44</v>
       </c>
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr"/>
@@ -11536,17 +11536,17 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>0.00608452 BTC</t>
+          <t>0.00607386 BTC</t>
         </is>
       </c>
       <c r="E358" t="n">
-        <v>82123.47</v>
+        <v>82181.64</v>
       </c>
       <c r="F358" t="n">
         <v>500</v>
       </c>
       <c r="G358" t="n">
-        <v>-0.32</v>
+        <v>-0.84</v>
       </c>
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr"/>
@@ -11598,17 +11598,17 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>0.00594219 BTC</t>
+          <t>0.00593991 BTC</t>
         </is>
       </c>
       <c r="E360" t="n">
-        <v>84034.38</v>
+        <v>84104.57000000001</v>
       </c>
       <c r="F360" t="n">
         <v>500</v>
       </c>
       <c r="G360" t="n">
-        <v>-0.65</v>
+        <v>-0.43</v>
       </c>
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr"/>
@@ -11629,17 +11629,17 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>0.00595002 BTC</t>
+          <t>0.00595791 BTC</t>
         </is>
       </c>
       <c r="E361" t="n">
-        <v>83946.38</v>
+        <v>83882.52</v>
       </c>
       <c r="F361" t="n">
         <v>500</v>
       </c>
       <c r="G361" t="n">
-        <v>-0.52</v>
+        <v>-0.24</v>
       </c>
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr"/>
@@ -11660,17 +11660,17 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>0.00595791 BTC</t>
+          <t>0.00596431 BTC</t>
         </is>
       </c>
       <c r="E362" t="n">
-        <v>83882.52</v>
+        <v>84151.09</v>
       </c>
       <c r="F362" t="n">
         <v>500</v>
       </c>
       <c r="G362" t="n">
-        <v>-0.24</v>
+        <v>1.9</v>
       </c>
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr"/>
@@ -11691,17 +11691,17 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>0.00596431 BTC</t>
+          <t>0.00595002 BTC</t>
         </is>
       </c>
       <c r="E363" t="n">
-        <v>84151.09</v>
+        <v>83946.38</v>
       </c>
       <c r="F363" t="n">
         <v>500</v>
       </c>
       <c r="G363" t="n">
-        <v>1.9</v>
+        <v>-0.52</v>
       </c>
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr"/>
@@ -11815,17 +11815,17 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>0.00593991 BTC</t>
+          <t>0.00594210 BTC</t>
         </is>
       </c>
       <c r="E367" t="n">
-        <v>84104.57000000001</v>
+        <v>84012</v>
       </c>
       <c r="F367" t="n">
         <v>500</v>
       </c>
       <c r="G367" t="n">
-        <v>-0.43</v>
+        <v>-0.79</v>
       </c>
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr"/>
@@ -11846,17 +11846,17 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>0.00596444 BTC</t>
+          <t>0.00594952 BTC</t>
         </is>
       </c>
       <c r="E368" t="n">
-        <v>84087.37</v>
+        <v>84010.3</v>
       </c>
       <c r="F368" t="n">
         <v>500</v>
       </c>
       <c r="G368" t="n">
-        <v>1.53</v>
+        <v>-0.18</v>
       </c>
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr"/>
@@ -11877,17 +11877,17 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>0.00595069 BTC</t>
+          <t>0.00596380 BTC</t>
         </is>
       </c>
       <c r="E369" t="n">
-        <v>83772.86</v>
+        <v>83770.28999999999</v>
       </c>
       <c r="F369" t="n">
         <v>500</v>
       </c>
       <c r="G369" t="n">
-        <v>-1.49</v>
+        <v>-0.41</v>
       </c>
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr"/>
@@ -11908,17 +11908,17 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>0.00596380 BTC</t>
+          <t>0.00596444 BTC</t>
         </is>
       </c>
       <c r="E370" t="n">
-        <v>83770.28999999999</v>
+        <v>84087.37</v>
       </c>
       <c r="F370" t="n">
         <v>500</v>
       </c>
       <c r="G370" t="n">
-        <v>-0.41</v>
+        <v>1.53</v>
       </c>
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr"/>
@@ -12094,17 +12094,17 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>0.00594158 BTC</t>
+          <t>0.00594219 BTC</t>
         </is>
       </c>
       <c r="E376" t="n">
-        <v>84078.14</v>
+        <v>84034.38</v>
       </c>
       <c r="F376" t="n">
         <v>500</v>
       </c>
       <c r="G376" t="n">
-        <v>-0.44</v>
+        <v>-0.65</v>
       </c>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr"/>
@@ -12125,17 +12125,17 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>0.00594210 BTC</t>
+          <t>0.00595069 BTC</t>
         </is>
       </c>
       <c r="E377" t="n">
-        <v>84012</v>
+        <v>83772.86</v>
       </c>
       <c r="F377" t="n">
         <v>500</v>
       </c>
       <c r="G377" t="n">
-        <v>-0.79</v>
+        <v>-1.49</v>
       </c>
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr"/>
@@ -12156,17 +12156,17 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>0.00594952 BTC</t>
+          <t>0.00594158 BTC</t>
         </is>
       </c>
       <c r="E378" t="n">
-        <v>84010.3</v>
+        <v>84078.14</v>
       </c>
       <c r="F378" t="n">
         <v>500</v>
       </c>
       <c r="G378" t="n">
-        <v>-0.18</v>
+        <v>-0.44</v>
       </c>
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr"/>
@@ -12187,17 +12187,17 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>0.00594177 BTC</t>
+          <t>0.00603725 BTC</t>
         </is>
       </c>
       <c r="E379" t="n">
-        <v>84083.35000000001</v>
+        <v>82618</v>
       </c>
       <c r="F379" t="n">
         <v>500</v>
       </c>
       <c r="G379" t="n">
-        <v>-0.4</v>
+        <v>-1.21</v>
       </c>
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr"/>
@@ -12218,17 +12218,17 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>0.00479274 BTC</t>
+          <t>0.00894304 BTC</t>
         </is>
       </c>
       <c r="E380" t="n">
-        <v>84188.39</v>
+        <v>84078.14</v>
       </c>
       <c r="F380" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="G380" t="n">
-        <v>3.49</v>
+        <v>-0.26</v>
       </c>
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr"/>
@@ -12311,17 +12311,17 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>0.00603725 BTC</t>
+          <t>0.00581021 BTC</t>
         </is>
       </c>
       <c r="E383" t="n">
-        <v>82618</v>
+        <v>83480</v>
       </c>
       <c r="F383" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="G383" t="n">
-        <v>-1.21</v>
+        <v>5.04</v>
       </c>
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr"/>
@@ -12342,17 +12342,17 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>0.00581021 BTC</t>
+          <t>0.00600601 BTC</t>
         </is>
       </c>
       <c r="E384" t="n">
-        <v>83480</v>
+        <v>83165.81</v>
       </c>
       <c r="F384" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="G384" t="n">
-        <v>5.04</v>
+        <v>-0.5</v>
       </c>
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr"/>
@@ -12373,17 +12373,17 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>0.00600601 BTC</t>
+          <t>0.00481870 BTC</t>
         </is>
       </c>
       <c r="E385" t="n">
-        <v>83165.81</v>
+        <v>82717.94</v>
       </c>
       <c r="F385" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G385" t="n">
-        <v>-0.5</v>
+        <v>-1.41</v>
       </c>
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr"/>
@@ -12404,17 +12404,17 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>0.00481870 BTC</t>
+          <t>0.00579803 BTC</t>
         </is>
       </c>
       <c r="E386" t="n">
-        <v>82717.94</v>
+        <v>82688.58</v>
       </c>
       <c r="F386" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="G386" t="n">
-        <v>-1.41</v>
+        <v>-0.57</v>
       </c>
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
@@ -12466,17 +12466,17 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>0.00580655 BTC</t>
+          <t>0.00579060 BTC</t>
         </is>
       </c>
       <c r="E388" t="n">
-        <v>82869.92999999999</v>
+        <v>83033.08</v>
       </c>
       <c r="F388" t="n">
         <v>480</v>
       </c>
       <c r="G388" t="n">
-        <v>1.19</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr"/>
@@ -12497,17 +12497,17 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>0.00579803 BTC</t>
+          <t>0.00580655 BTC</t>
         </is>
       </c>
       <c r="E389" t="n">
-        <v>82688.58</v>
+        <v>82869.92999999999</v>
       </c>
       <c r="F389" t="n">
         <v>480</v>
       </c>
       <c r="G389" t="n">
-        <v>-0.57</v>
+        <v>1.19</v>
       </c>
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
@@ -12528,17 +12528,17 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>0.00575891 BTC</t>
+          <t>0.00576276 BTC</t>
         </is>
       </c>
       <c r="E390" t="n">
-        <v>83178.42</v>
+        <v>83462.55</v>
       </c>
       <c r="F390" t="n">
         <v>480</v>
       </c>
       <c r="G390" t="n">
-        <v>-0.98</v>
+        <v>0.97</v>
       </c>
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
@@ -12559,17 +12559,17 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>0.00576276 BTC</t>
+          <t>0.00575388 BTC</t>
         </is>
       </c>
       <c r="E391" t="n">
-        <v>83462.55</v>
+        <v>83345.2</v>
       </c>
       <c r="F391" t="n">
         <v>480</v>
       </c>
       <c r="G391" t="n">
-        <v>0.97</v>
+        <v>-0.44</v>
       </c>
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
@@ -12590,17 +12590,17 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>0.00575388 BTC</t>
+          <t>0.00767764 BTC</t>
         </is>
       </c>
       <c r="E392" t="n">
-        <v>83345.2</v>
+        <v>83285.58</v>
       </c>
       <c r="F392" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="G392" t="n">
-        <v>-0.44</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr"/>
@@ -12621,17 +12621,17 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>0.00767764 BTC</t>
+          <t>0.00601330 BTC</t>
         </is>
       </c>
       <c r="E393" t="n">
-        <v>83285.58</v>
+        <v>83089.47</v>
       </c>
       <c r="F393" t="n">
-        <v>640</v>
+        <v>500</v>
       </c>
       <c r="G393" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.36</v>
       </c>
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr"/>
@@ -12652,11 +12652,11 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>0.00601330 BTC</t>
+          <t>0.00601794 BTC</t>
         </is>
       </c>
       <c r="E394" t="n">
-        <v>83089.47</v>
+        <v>83024.53999999999</v>
       </c>
       <c r="F394" t="n">
         <v>500</v>
@@ -12683,17 +12683,17 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>0.00601794 BTC</t>
+          <t>0.00601758 BTC</t>
         </is>
       </c>
       <c r="E395" t="n">
-        <v>83024.53999999999</v>
+        <v>82955.33</v>
       </c>
       <c r="F395" t="n">
         <v>500</v>
       </c>
       <c r="G395" t="n">
-        <v>-0.36</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr"/>
@@ -12714,17 +12714,17 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>0.00601758 BTC</t>
+          <t>0.00601917 BTC</t>
         </is>
       </c>
       <c r="E396" t="n">
-        <v>82955.33</v>
+        <v>83380</v>
       </c>
       <c r="F396" t="n">
         <v>500</v>
       </c>
       <c r="G396" t="n">
-        <v>-0.8100000000000001</v>
+        <v>1.88</v>
       </c>
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr"/>
@@ -12745,17 +12745,17 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>0.00601917 BTC</t>
+          <t>0.00479274 BTC</t>
         </is>
       </c>
       <c r="E397" t="n">
-        <v>83380</v>
+        <v>84188.39</v>
       </c>
       <c r="F397" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G397" t="n">
-        <v>1.88</v>
+        <v>3.49</v>
       </c>
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr"/>
@@ -12776,17 +12776,17 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>0.00579060 BTC</t>
+          <t>0.00575891 BTC</t>
         </is>
       </c>
       <c r="E398" t="n">
-        <v>83033.08</v>
+        <v>83178.42</v>
       </c>
       <c r="F398" t="n">
         <v>480</v>
       </c>
       <c r="G398" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.98</v>
       </c>
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr"/>
@@ -12807,17 +12807,17 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>0.00894304 BTC</t>
+          <t>0.00594177 BTC</t>
         </is>
       </c>
       <c r="E399" t="n">
-        <v>84078.14</v>
+        <v>84083.35000000001</v>
       </c>
       <c r="F399" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G399" t="n">
-        <v>-0.26</v>
+        <v>-0.4</v>
       </c>
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr"/>
@@ -12838,17 +12838,17 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>0.00054964 BTC</t>
+          <t>0.00602564 BTC</t>
         </is>
       </c>
       <c r="E400" t="n">
-        <v>83783.03</v>
+        <v>82910.05</v>
       </c>
       <c r="F400" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="G400" t="n">
-        <v>0.79</v>
+        <v>-0.41</v>
       </c>
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr"/>
@@ -12869,17 +12869,17 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>0.00596901 BTC</t>
+          <t>0.00054964 BTC</t>
         </is>
       </c>
       <c r="E401" t="n">
-        <v>83723.85000000001</v>
+        <v>83783.03</v>
       </c>
       <c r="F401" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="G401" t="n">
-        <v>-0.25</v>
+        <v>0.79</v>
       </c>
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr"/>
@@ -12900,17 +12900,17 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>0.00577145 BTC</t>
+          <t>0.00596901 BTC</t>
         </is>
       </c>
       <c r="E402" t="n">
-        <v>83231.39999999999</v>
+        <v>83723.85000000001</v>
       </c>
       <c r="F402" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="G402" t="n">
-        <v>0.37</v>
+        <v>-0.25</v>
       </c>
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr"/>
@@ -12931,17 +12931,17 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>0.00602564 BTC</t>
+          <t>0.00577145 BTC</t>
         </is>
       </c>
       <c r="E403" t="n">
-        <v>82910.05</v>
+        <v>83231.39999999999</v>
       </c>
       <c r="F403" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="G403" t="n">
-        <v>-0.41</v>
+        <v>0.37</v>
       </c>
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr"/>
@@ -12993,17 +12993,17 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>0.00634289 BTC</t>
+          <t>0.01473362 BTC</t>
         </is>
       </c>
       <c r="E405" t="n">
-        <v>79225.21000000001</v>
+        <v>78300</v>
       </c>
       <c r="F405" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G405" t="n">
-        <v>2.52</v>
+        <v>9.99</v>
       </c>
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr"/>
@@ -13024,17 +13024,17 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>0.01473362 BTC</t>
+          <t>0.00634289 BTC</t>
         </is>
       </c>
       <c r="E406" t="n">
-        <v>78300</v>
+        <v>79225.21000000001</v>
       </c>
       <c r="F406" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="G406" t="n">
-        <v>9.99</v>
+        <v>2.52</v>
       </c>
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr"/>
@@ -13055,17 +13055,17 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>0.01000770 BTC</t>
+          <t>0.01422264 BTC</t>
         </is>
       </c>
       <c r="E407" t="n">
-        <v>79886.25</v>
+        <v>79950</v>
       </c>
       <c r="F407" t="n">
-        <v>800</v>
+        <v>1130</v>
       </c>
       <c r="G407" t="n">
-        <v>-0.52</v>
+        <v>1.06</v>
       </c>
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr"/>
@@ -13086,17 +13086,17 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>0.01422264 BTC</t>
+          <t>0.01202074 BTC</t>
         </is>
       </c>
       <c r="E408" t="n">
-        <v>79950</v>
+        <v>79806.58</v>
       </c>
       <c r="F408" t="n">
-        <v>1130</v>
+        <v>960</v>
       </c>
       <c r="G408" t="n">
-        <v>1.06</v>
+        <v>-0.67</v>
       </c>
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr"/>
@@ -13117,17 +13117,17 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>0.01402700 BTC</t>
+          <t>0.01402519 BTC</t>
         </is>
       </c>
       <c r="E409" t="n">
-        <v>79787.7</v>
+        <v>79804.42</v>
       </c>
       <c r="F409" t="n">
         <v>1120</v>
       </c>
       <c r="G409" t="n">
-        <v>-0.82</v>
+        <v>-0.73</v>
       </c>
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr"/>
@@ -13148,17 +13148,17 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>0.01402519 BTC</t>
+          <t>0.01000612 BTC</t>
         </is>
       </c>
       <c r="E410" t="n">
-        <v>79804.42</v>
+        <v>79884.89999999999</v>
       </c>
       <c r="F410" t="n">
-        <v>1120</v>
+        <v>800</v>
       </c>
       <c r="G410" t="n">
-        <v>-0.73</v>
+        <v>-0.66</v>
       </c>
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr"/>
@@ -13179,17 +13179,17 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>0.01000612 BTC</t>
+          <t>0.01200308 BTC</t>
         </is>
       </c>
       <c r="E411" t="n">
-        <v>79884.89999999999</v>
+        <v>79931.91</v>
       </c>
       <c r="F411" t="n">
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="G411" t="n">
-        <v>-0.66</v>
+        <v>-0.57</v>
       </c>
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr"/>
@@ -13210,17 +13210,17 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>0.01200308 BTC</t>
+          <t>0.00999190 BTC</t>
         </is>
       </c>
       <c r="E412" t="n">
-        <v>79931.91</v>
+        <v>80026.03</v>
       </c>
       <c r="F412" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="G412" t="n">
-        <v>-0.57</v>
+        <v>-0.39</v>
       </c>
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr"/>
@@ -13241,17 +13241,17 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>0.01202074 BTC</t>
+          <t>0.01402700 BTC</t>
         </is>
       </c>
       <c r="E413" t="n">
-        <v>79806.58</v>
+        <v>79787.7</v>
       </c>
       <c r="F413" t="n">
-        <v>960</v>
+        <v>1120</v>
       </c>
       <c r="G413" t="n">
-        <v>-0.67</v>
+        <v>-0.82</v>
       </c>
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr"/>
@@ -13262,7 +13262,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>BTCJ5</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -13272,17 +13272,17 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>0.00996776 BTC</t>
+          <t>$960.00</t>
         </is>
       </c>
       <c r="E414" t="n">
-        <v>80268.12</v>
+        <v>80400</v>
       </c>
       <c r="F414" t="n">
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="G414" t="n">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr"/>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>BTCJ5</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -13303,17 +13303,17 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>$960.00</t>
+          <t>0.00998112 BTC</t>
         </is>
       </c>
       <c r="E415" t="n">
-        <v>80400</v>
+        <v>80247.31</v>
       </c>
       <c r="F415" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="G415" t="n">
-        <v>0.24</v>
+        <v>0.96</v>
       </c>
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr"/>
@@ -13334,17 +13334,17 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>0.00998112 BTC</t>
+          <t>0.00811028 BTC</t>
         </is>
       </c>
       <c r="E416" t="n">
-        <v>80247.31</v>
+        <v>80128</v>
       </c>
       <c r="F416" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="G416" t="n">
-        <v>0.96</v>
+        <v>-0.62</v>
       </c>
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr"/>
@@ -13365,17 +13365,17 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>0.00811028 BTC</t>
+          <t>0.00799923 BTC</t>
         </is>
       </c>
       <c r="E417" t="n">
-        <v>80128</v>
+        <v>80047.62</v>
       </c>
       <c r="F417" t="n">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G417" t="n">
-        <v>-0.62</v>
+        <v>0.32</v>
       </c>
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr"/>
@@ -13396,17 +13396,17 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>0.00799923 BTC</t>
+          <t>0.00800632 BTC</t>
         </is>
       </c>
       <c r="E418" t="n">
-        <v>80047.62</v>
+        <v>79871.71000000001</v>
       </c>
       <c r="F418" t="n">
         <v>640</v>
       </c>
       <c r="G418" t="n">
-        <v>0.32</v>
+        <v>-0.52</v>
       </c>
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr"/>
@@ -13427,14 +13427,14 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>0.00800632 BTC</t>
+          <t>0.01000770 BTC</t>
         </is>
       </c>
       <c r="E419" t="n">
-        <v>79871.71000000001</v>
+        <v>79886.25</v>
       </c>
       <c r="F419" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="G419" t="n">
         <v>-0.52</v>
@@ -13458,17 +13458,17 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>0.00999190 BTC</t>
+          <t>0.00996776 BTC</t>
         </is>
       </c>
       <c r="E420" t="n">
-        <v>80026.03</v>
+        <v>80268.12</v>
       </c>
       <c r="F420" t="n">
         <v>800</v>
       </c>
       <c r="G420" t="n">
-        <v>-0.39</v>
+        <v>0.09</v>
       </c>
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr"/>
@@ -13489,17 +13489,17 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>0.01652405 BTC</t>
+          <t>0.00531723 BTC</t>
         </is>
       </c>
       <c r="E421" t="n">
-        <v>80570.96000000001</v>
+        <v>83200</v>
       </c>
       <c r="F421" t="n">
-        <v>1300</v>
+        <v>440</v>
       </c>
       <c r="G421" t="n">
-        <v>-8.039999999999999</v>
+        <v>2.39</v>
       </c>
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr"/>
@@ -13520,17 +13520,17 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>0.00989461 BTC</t>
+          <t>0.00609599 BTC</t>
         </is>
       </c>
       <c r="E422" t="n">
-        <v>80787.88</v>
+        <v>82725.77</v>
       </c>
       <c r="F422" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G422" t="n">
-        <v>-0.64</v>
+        <v>4.3</v>
       </c>
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr"/>
@@ -13551,17 +13551,17 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>0.00990920 BTC</t>
+          <t>0.00780190 BTC</t>
         </is>
       </c>
       <c r="E423" t="n">
-        <v>81141.67</v>
+        <v>82008</v>
       </c>
       <c r="F423" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="G423" t="n">
-        <v>4.05</v>
+        <v>-0.18</v>
       </c>
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr"/>
@@ -13582,17 +13582,17 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>0.00786168 BTC</t>
+          <t>0.00990920 BTC</t>
         </is>
       </c>
       <c r="E424" t="n">
-        <v>82182.32000000001</v>
+        <v>81141.67</v>
       </c>
       <c r="F424" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="G424" t="n">
-        <v>6.09</v>
+        <v>4.05</v>
       </c>
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr"/>
@@ -13613,17 +13613,17 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>0.00780190 BTC</t>
+          <t>0.00989461 BTC</t>
         </is>
       </c>
       <c r="E425" t="n">
-        <v>82008</v>
+        <v>80787.88</v>
       </c>
       <c r="F425" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="G425" t="n">
-        <v>-0.18</v>
+        <v>-0.64</v>
       </c>
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr"/>
@@ -13644,17 +13644,17 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>0.00609599 BTC</t>
+          <t>0.01652405 BTC</t>
         </is>
       </c>
       <c r="E426" t="n">
-        <v>82725.77</v>
+        <v>80570.96000000001</v>
       </c>
       <c r="F426" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="G426" t="n">
-        <v>4.3</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr"/>
@@ -13675,17 +13675,17 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>0.00531723 BTC</t>
+          <t>0.00786168 BTC</t>
         </is>
       </c>
       <c r="E427" t="n">
-        <v>83200</v>
+        <v>82182.32000000001</v>
       </c>
       <c r="F427" t="n">
-        <v>440</v>
+        <v>640</v>
       </c>
       <c r="G427" t="n">
-        <v>2.39</v>
+        <v>6.09</v>
       </c>
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr"/>
@@ -13720,6 +13720,1618 @@
       </c>
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>45759</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>0.00565362 BTC</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>85188.78</v>
+      </c>
+      <c r="F429" t="n">
+        <v>480</v>
+      </c>
+      <c r="G429" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>45759</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>0.00767892 BTC</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>85104</v>
+      </c>
+      <c r="F430" t="n">
+        <v>650</v>
+      </c>
+      <c r="G430" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>45759</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>0.00590430 BTC</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>84549.05</v>
+      </c>
+      <c r="F431" t="n">
+        <v>500</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>45759</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>0.00588928 BTC</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>84812.82000000001</v>
+      </c>
+      <c r="F432" t="n">
+        <v>500</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>45759</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>0.00587875 BTC</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>85045.84</v>
+      </c>
+      <c r="F433" t="n">
+        <v>500</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>45759</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>0.00361472 BTC</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>83492.92999999999</v>
+      </c>
+      <c r="F434" t="n">
+        <v>300</v>
+      </c>
+      <c r="G434" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>45759</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>0.00589423 BTC</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>84763.64999999999</v>
+      </c>
+      <c r="F435" t="n">
+        <v>500</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45760</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>0.00600399 BTC</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>83609.53999999999</v>
+      </c>
+      <c r="F436" t="n">
+        <v>500</v>
+      </c>
+      <c r="G436" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>45760</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>0.00011977 BTC</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>83423.83</v>
+      </c>
+      <c r="F437" t="n">
+        <v>10</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>0.00474440 BTC</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>84934.28999999999</v>
+      </c>
+      <c r="F438" t="n">
+        <v>400</v>
+      </c>
+      <c r="G438" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>0.00473879 BTC</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>84301.05</v>
+      </c>
+      <c r="F439" t="n">
+        <v>400</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>0.00568249 BTC</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>84338.55</v>
+      </c>
+      <c r="F440" t="n">
+        <v>480</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>0.00413497 BTC</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>84471.64</v>
+      </c>
+      <c r="F441" t="n">
+        <v>350</v>
+      </c>
+      <c r="G441" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>0.00476519 BTC</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>84083.37</v>
+      </c>
+      <c r="F442" t="n">
+        <v>400</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>0.00416236 BTC</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>83990.10000000001</v>
+      </c>
+      <c r="F443" t="n">
+        <v>350</v>
+      </c>
+      <c r="G443" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>0.00567456 BTC</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>84387.78999999999</v>
+      </c>
+      <c r="F444" t="n">
+        <v>480</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>0.00413624 BTC</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
+        <v>84604.82000000001</v>
+      </c>
+      <c r="F445" t="n">
+        <v>350</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="H445" t="inlineStr"/>
+      <c r="I445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>0.00829519 BTC</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
+        <v>85547.91</v>
+      </c>
+      <c r="F446" t="n">
+        <v>700</v>
+      </c>
+      <c r="G446" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>0.00473688 BTC</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
+        <v>84277.77</v>
+      </c>
+      <c r="F447" t="n">
+        <v>400</v>
+      </c>
+      <c r="G447" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>0.00472412 BTC</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
+        <v>84452.49000000001</v>
+      </c>
+      <c r="F448" t="n">
+        <v>400</v>
+      </c>
+      <c r="G448" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="H448" t="inlineStr"/>
+      <c r="I448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>0.00353870 BTC</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
+        <v>84989.64</v>
+      </c>
+      <c r="F449" t="n">
+        <v>300</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H449" t="inlineStr"/>
+      <c r="I449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>0.00591943 BTC</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>84782.52</v>
+      </c>
+      <c r="F450" t="n">
+        <v>500</v>
+      </c>
+      <c r="G450" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H450" t="inlineStr"/>
+      <c r="I450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>0.00473310 BTC</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>84418.27</v>
+      </c>
+      <c r="F451" t="n">
+        <v>400</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="H451" t="inlineStr"/>
+      <c r="I451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>0.00472900 BTC</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>84473.08</v>
+      </c>
+      <c r="F452" t="n">
+        <v>400</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="H452" t="inlineStr"/>
+      <c r="I452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>0.00471992 BTC</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
+        <v>84573.89999999999</v>
+      </c>
+      <c r="F453" t="n">
+        <v>400</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="H453" t="inlineStr"/>
+      <c r="I453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>0.00353897 BTC</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
+        <v>84591.41</v>
+      </c>
+      <c r="F454" t="n">
+        <v>300</v>
+      </c>
+      <c r="G454" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>0.00375709 BTC</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
+        <v>85159.47</v>
+      </c>
+      <c r="F455" t="n">
+        <v>320</v>
+      </c>
+      <c r="G455" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="H455" t="inlineStr"/>
+      <c r="I455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>0.00709589 BTC</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
+        <v>84353.32000000001</v>
+      </c>
+      <c r="F456" t="n">
+        <v>600</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="H456" t="inlineStr"/>
+      <c r="I456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>0.00412862 BTC</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
+        <v>84680</v>
+      </c>
+      <c r="F457" t="n">
+        <v>350</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="H457" t="inlineStr"/>
+      <c r="I457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>0.00416736 BTC</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
+        <v>83976.92999999999</v>
+      </c>
+      <c r="F458" t="n">
+        <v>350</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="H458" t="inlineStr"/>
+      <c r="I458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>0.00416808 BTC</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>83893.32000000001</v>
+      </c>
+      <c r="F459" t="n">
+        <v>350</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>0.00415652 BTC</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
+        <v>84104.31</v>
+      </c>
+      <c r="F460" t="n">
+        <v>350</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>0.00414149 BTC</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
+        <v>84400</v>
+      </c>
+      <c r="F461" t="n">
+        <v>350</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>0.00353507 BTC</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>84755.75999999999</v>
+      </c>
+      <c r="F462" t="n">
+        <v>300</v>
+      </c>
+      <c r="G462" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>0.00348432 BTC</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
+        <v>86018.86</v>
+      </c>
+      <c r="F463" t="n">
+        <v>300</v>
+      </c>
+      <c r="G463" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>0.00353426 BTC</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
+        <v>84716.61</v>
+      </c>
+      <c r="F464" t="n">
+        <v>300</v>
+      </c>
+      <c r="G464" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>0.00351734 BTC</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
+        <v>84965.31</v>
+      </c>
+      <c r="F465" t="n">
+        <v>300</v>
+      </c>
+      <c r="G465" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="H465" t="inlineStr"/>
+      <c r="I465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>0.00350198 BTC</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>85483.74000000001</v>
+      </c>
+      <c r="F466" t="n">
+        <v>300</v>
+      </c>
+      <c r="G466" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="H466" t="inlineStr"/>
+      <c r="I466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>0.00348469 BTC</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
+        <v>85864.45</v>
+      </c>
+      <c r="F467" t="n">
+        <v>300</v>
+      </c>
+      <c r="G467" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>0.00348842 BTC</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
+        <v>86282.75</v>
+      </c>
+      <c r="F468" t="n">
+        <v>300</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>0.00348604 BTC</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
+        <v>85960.98</v>
+      </c>
+      <c r="F469" t="n">
+        <v>300</v>
+      </c>
+      <c r="G469" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="H469" t="inlineStr"/>
+      <c r="I469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>0.00377140 BTC</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
+        <v>84842.03</v>
+      </c>
+      <c r="F470" t="n">
+        <v>320</v>
+      </c>
+      <c r="G470" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="H470" t="inlineStr"/>
+      <c r="I470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>0.00377140 BTC</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
+        <v>85195.91</v>
+      </c>
+      <c r="F471" t="n">
+        <v>320</v>
+      </c>
+      <c r="G471" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H471" t="inlineStr"/>
+      <c r="I471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>0.00416262 BTC</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>84320</v>
+      </c>
+      <c r="F472" t="n">
+        <v>350</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H472" t="inlineStr"/>
+      <c r="I472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>0.00355248 BTC</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
+        <v>84584</v>
+      </c>
+      <c r="F473" t="n">
+        <v>300</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H473" t="inlineStr"/>
+      <c r="I473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>0.00355124 BTC</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>84291.17999999999</v>
+      </c>
+      <c r="F474" t="n">
+        <v>300</v>
+      </c>
+      <c r="G474" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>0.00391632 BTC</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
+        <v>84173.28999999999</v>
+      </c>
+      <c r="F475" t="n">
+        <v>330</v>
+      </c>
+      <c r="G475" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="H475" t="inlineStr"/>
+      <c r="I475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>0.00379719 BTC</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
+        <v>84479.98540000001</v>
+      </c>
+      <c r="F476" t="n">
+        <v>320</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H476" t="inlineStr"/>
+      <c r="I476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>DOGE/USD</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Bought</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>955.41401274 DOGE</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
+        <v>0.1582</v>
+      </c>
+      <c r="F477" t="n">
+        <v>150</v>
+      </c>
+      <c r="G477" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="H477" t="inlineStr"/>
+      <c r="I477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>DOGE/USD</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Bought</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>948.28628145 DOGE</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
+        <v>0.1589</v>
+      </c>
+      <c r="F478" t="n">
+        <v>150</v>
+      </c>
+      <c r="G478" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="H478" t="inlineStr"/>
+      <c r="I478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>DOGE/USD</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Bought</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>818.12064821 DOGE</t>
+        </is>
+      </c>
+      <c r="E479" t="n">
+        <v>0.1596</v>
+      </c>
+      <c r="F479" t="n">
+        <v>130</v>
+      </c>
+      <c r="G479" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="H479" t="inlineStr"/>
+      <c r="I479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>DOGE/USD</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Bought</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>755.19194462 DOGE</t>
+        </is>
+      </c>
+      <c r="E480" t="n">
+        <v>0.1567</v>
+      </c>
+      <c r="F480" t="n">
+        <v>120</v>
+      </c>
+      <c r="G480" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H480" t="inlineStr"/>
+      <c r="I480" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I681"/>
+  <dimension ref="A1:I685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,17 +593,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00415686 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>97500</v>
+        <v>134.6</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>132.35</v>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,17 +624,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00415686 BTC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>134.6</v>
+        <v>97500</v>
       </c>
       <c r="F6" t="n">
-        <v>132.35</v>
+        <v>400</v>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>780.63787340 DOGE</t>
+          <t>0.00156239 BTC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2394</v>
+        <v>95950</v>
       </c>
       <c r="F16" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G16" t="n">
-        <v>-16.67</v>
+        <v>-0.09</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -955,7 +955,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -965,17 +965,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.00156239 BTC</t>
+          <t>780.63787340 DOGE</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>95950</v>
+        <v>0.2394</v>
       </c>
       <c r="F17" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.09</v>
+        <v>-16.67</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1182,17 +1182,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>485.06014746 DOGE</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2084</v>
+        <v>126.56</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>127.89</v>
       </c>
       <c r="G24" t="n">
-        <v>1.1</v>
+        <v>-1.33</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1213,17 +1213,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>485.06014746 DOGE</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>126.56</v>
+        <v>0.2084</v>
       </c>
       <c r="F25" t="n">
-        <v>127.89</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.33</v>
+        <v>1.1</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MARA</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1244,17 +1244,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4 shares</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>13.66</v>
+        <v>258.08</v>
       </c>
       <c r="F26" t="n">
-        <v>55.56</v>
+        <v>258.69</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.92</v>
+        <v>-0.61</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>MARA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1275,17 +1275,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>4 shares</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>258.08</v>
+        <v>13.66</v>
       </c>
       <c r="F27" t="n">
-        <v>258.69</v>
+        <v>55.56</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.61</v>
+        <v>-0.92</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SOL/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1523,17 +1523,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.00616275 SOL</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>155.88</v>
+        <v>113.44</v>
       </c>
       <c r="F35" t="n">
-        <v>160</v>
+        <v>119.56</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.16</v>
+        <v>-6.12</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>SOL/USDT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1554,17 +1554,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>1.00616275 SOL</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>266.75</v>
+        <v>155.88</v>
       </c>
       <c r="F36" t="n">
-        <v>265.2</v>
+        <v>160</v>
       </c>
       <c r="G36" t="n">
-        <v>1.55</v>
+        <v>-3.16</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -1589,13 +1589,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>263.56</v>
+        <v>266.75</v>
       </c>
       <c r="F37" t="n">
-        <v>264.4</v>
+        <v>265.2</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.84</v>
+        <v>1.55</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1616,17 +1616,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>451.65078361 DOGE</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2189</v>
+        <v>263.56</v>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>264.4</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.12</v>
+        <v>-0.84</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SOL/USDT</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1678,17 +1678,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.97282179 SOL</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>162.02</v>
+        <v>120.83</v>
       </c>
       <c r="F40" t="n">
-        <v>160</v>
+        <v>122.14</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.38</v>
+        <v>-1.31</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>SOL/USDT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1709,17 +1709,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.97282179 SOL</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>113.44</v>
+        <v>162.02</v>
       </c>
       <c r="F41" t="n">
-        <v>119.56</v>
+        <v>160</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.12</v>
+        <v>-2.38</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SOL/USDT</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1740,17 +1740,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.99870755 SOL</t>
+          <t>926.48165169 DOGE</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>169.71</v>
+        <v>0.2258</v>
       </c>
       <c r="F42" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.51</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>SOL/USDT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1771,17 +1771,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.99870755 SOL</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>120.83</v>
+        <v>169.71</v>
       </c>
       <c r="F43" t="n">
-        <v>122.14</v>
+        <v>170</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.31</v>
+        <v>-0.51</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -1802,17 +1802,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>926.48165169 DOGE</t>
+          <t>451.65078361 DOGE</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.2258</v>
+        <v>0.2189</v>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>9.199999999999999</v>
+        <v>-1.12</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -1930,13 +1930,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>251.6</v>
+        <v>249.2</v>
       </c>
       <c r="F48" t="n">
-        <v>252.84</v>
+        <v>242.44</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.24</v>
+        <v>6.76</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -1992,13 +1992,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>245.19</v>
+        <v>251.6</v>
       </c>
       <c r="F50" t="n">
-        <v>249.4</v>
+        <v>252.84</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.21</v>
+        <v>-1.24</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>249.2</v>
+        <v>245.19</v>
       </c>
       <c r="F51" t="n">
-        <v>242.44</v>
+        <v>249.4</v>
       </c>
       <c r="G51" t="n">
-        <v>6.76</v>
+        <v>-4.21</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2054,13 +2054,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>280.8</v>
+        <v>273.8</v>
       </c>
       <c r="F52" t="n">
-        <v>277.48</v>
+        <v>276.75</v>
       </c>
       <c r="G52" t="n">
-        <v>3.32</v>
+        <v>-2.95</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2085,13 +2085,13 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>289.5</v>
+        <v>280.8</v>
       </c>
       <c r="F53" t="n">
-        <v>292.4</v>
+        <v>277.48</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.9</v>
+        <v>3.32</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2116,13 +2116,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>295.94</v>
+        <v>289.5</v>
       </c>
       <c r="F54" t="n">
-        <v>291.39</v>
+        <v>292.4</v>
       </c>
       <c r="G54" t="n">
-        <v>4.55</v>
+        <v>-2.9</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>294.6</v>
+        <v>295.94</v>
       </c>
       <c r="F55" t="n">
-        <v>297.52</v>
+        <v>291.39</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.92</v>
+        <v>4.55</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2178,13 +2178,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>294</v>
+        <v>294.6</v>
       </c>
       <c r="F56" t="n">
-        <v>296.98</v>
+        <v>297.52</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.98</v>
+        <v>-2.92</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2209,13 +2209,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F57" t="n">
-        <v>296.69</v>
+        <v>296.98</v>
       </c>
       <c r="G57" t="n">
-        <v>5.31</v>
+        <v>-2.98</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2240,13 +2240,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>273.8</v>
+        <v>302</v>
       </c>
       <c r="F58" t="n">
-        <v>276.75</v>
+        <v>296.69</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.95</v>
+        <v>5.31</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2302,13 +2302,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>301.05</v>
+        <v>301.69</v>
       </c>
       <c r="F60" t="n">
-        <v>299.58</v>
+        <v>298.73</v>
       </c>
       <c r="G60" t="n">
-        <v>1.47</v>
+        <v>2.96</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2333,13 +2333,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>297.79</v>
+        <v>301.05</v>
       </c>
       <c r="F61" t="n">
-        <v>298.64</v>
+        <v>299.58</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.85</v>
+        <v>1.47</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2364,13 +2364,13 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>296.64</v>
+        <v>297.79</v>
       </c>
       <c r="F62" t="n">
-        <v>298.88</v>
+        <v>298.64</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.24</v>
+        <v>-0.85</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -2395,13 +2395,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>301.69</v>
+        <v>296.64</v>
       </c>
       <c r="F63" t="n">
-        <v>298.73</v>
+        <v>298.88</v>
       </c>
       <c r="G63" t="n">
-        <v>2.96</v>
+        <v>-2.24</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2426,13 +2426,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>311.5</v>
+        <v>300.75</v>
       </c>
       <c r="F64" t="n">
-        <v>298.9</v>
+        <v>300.85</v>
       </c>
       <c r="G64" t="n">
-        <v>12.6</v>
+        <v>-0.1</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>298.29</v>
+        <v>311.5</v>
       </c>
       <c r="F65" t="n">
-        <v>300.25</v>
+        <v>298.9</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.96</v>
+        <v>12.6</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2484,17 +2484,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.00345504 BTC</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>91600</v>
+        <v>292.52</v>
       </c>
       <c r="F66" t="n">
-        <v>300</v>
+        <v>297.86</v>
       </c>
       <c r="G66" t="n">
-        <v>14.36</v>
+        <v>-5.34</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.00163177 BTC</t>
+          <t>357.77499455 DOGE</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>91943.45</v>
+        <v>0.2137</v>
       </c>
       <c r="F67" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03</v>
+        <v>5.51</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2546,17 +2546,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>0.00163177 BTC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>300.75</v>
+        <v>91943.45</v>
       </c>
       <c r="F68" t="n">
-        <v>300.85</v>
+        <v>150</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1</v>
+        <v>0.03</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2577,17 +2577,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>357.77499455 DOGE</t>
+          <t>0.00345504 BTC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.2137</v>
+        <v>91600</v>
       </c>
       <c r="F69" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="G69" t="n">
-        <v>5.51</v>
+        <v>14.36</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>292.52</v>
+        <v>298.29</v>
       </c>
       <c r="F70" t="n">
-        <v>297.86</v>
+        <v>300.25</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.34</v>
+        <v>-1.96</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -2674,13 +2674,13 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>297.75</v>
+        <v>293</v>
       </c>
       <c r="F72" t="n">
-        <v>296.27</v>
+        <v>293.9</v>
       </c>
       <c r="G72" t="n">
-        <v>1.48</v>
+        <v>-0.9</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>293</v>
+        <v>297.75</v>
       </c>
       <c r="F73" t="n">
-        <v>293.9</v>
+        <v>296.27</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.9</v>
+        <v>1.48</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2856,17 +2856,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1 share</t>
+          <t>120.75544607 DOGE</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>266.4</v>
+        <v>0.166</v>
       </c>
       <c r="F78" t="n">
-        <v>303.25</v>
+        <v>25</v>
       </c>
       <c r="G78" t="n">
-        <v>-36.85</v>
+        <v>-7.93</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2887,17 +2887,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>120.75544607 DOGE</t>
+          <t>1 share</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.166</v>
+        <v>266.4</v>
       </c>
       <c r="F79" t="n">
-        <v>25</v>
+        <v>303.25</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.93</v>
+        <v>-36.85</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>265</v>
+        <v>235.61</v>
       </c>
       <c r="F87" t="n">
-        <v>261.93</v>
+        <v>240.08</v>
       </c>
       <c r="G87" t="n">
-        <v>3.07</v>
+        <v>-4.47</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3170,13 +3170,13 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>235.61</v>
+        <v>265</v>
       </c>
       <c r="F88" t="n">
-        <v>240.08</v>
+        <v>261.93</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.47</v>
+        <v>3.07</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
@@ -4189,17 +4189,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0.00601191 BTC</t>
+          <t>0.00598435 BTC</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>83166.41</v>
+        <v>83539.45</v>
       </c>
       <c r="F121" t="n">
         <v>500</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.01</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
@@ -4220,17 +4220,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0.00598435 BTC</t>
+          <t>0.00601191 BTC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>83539.45</v>
+        <v>83166.41</v>
       </c>
       <c r="F122" t="n">
         <v>500</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
@@ -4406,17 +4406,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.00487116 BTC</t>
+          <t>0.00609590 BTC</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>82004.86</v>
+        <v>81964.3</v>
       </c>
       <c r="F128" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.54</v>
+        <v>-0.35</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
@@ -4437,17 +4437,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0.00609590 BTC</t>
+          <t>0.00487116 BTC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>81964.3</v>
+        <v>82004.86</v>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.35</v>
+        <v>-0.54</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
@@ -4747,17 +4747,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0.00596537 BTC</t>
+          <t>0.00601109 BTC</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>83682.89999999999</v>
+        <v>83133.07000000001</v>
       </c>
       <c r="F139" t="n">
         <v>500</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.8</v>
+        <v>0.82</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
@@ -4778,17 +4778,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.00601109 BTC</t>
+          <t>0.00588456 BTC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>83133.07000000001</v>
+        <v>83122.3</v>
       </c>
       <c r="F140" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G140" t="n">
-        <v>0.82</v>
+        <v>-0.86</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
@@ -4809,17 +4809,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0.00602287 BTC</t>
+          <t>0.00601307 BTC</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>83002.39</v>
+        <v>83045.95</v>
       </c>
       <c r="F141" t="n">
         <v>500</v>
       </c>
       <c r="G141" t="n">
-        <v>-0.09</v>
+        <v>-0.64</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -4840,17 +4840,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0.00601307 BTC</t>
+          <t>0.00596537 BTC</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>83045.95</v>
+        <v>83682.89999999999</v>
       </c>
       <c r="F142" t="n">
         <v>500</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.64</v>
+        <v>-0.8</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -4871,17 +4871,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0.00588456 BTC</t>
+          <t>0.00602287 BTC</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>83122.3</v>
+        <v>83002.39</v>
       </c>
       <c r="F143" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.86</v>
+        <v>-0.09</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -5615,17 +5615,17 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0.00452833 BTC</t>
+          <t>0.00284366 BTC</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>88324.13</v>
+        <v>88305.92</v>
       </c>
       <c r="F167" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G167" t="n">
-        <v>-0.04</v>
+        <v>4.1</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
@@ -5677,17 +5677,17 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0.00282986 BTC</t>
+          <t>0.00452833 BTC</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>88365.02</v>
+        <v>88324.13</v>
       </c>
       <c r="F169" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="G169" t="n">
-        <v>1.15</v>
+        <v>-0.04</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
@@ -5801,17 +5801,17 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0.00284366 BTC</t>
+          <t>0.00282986 BTC</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>88305.92</v>
+        <v>88365.02</v>
       </c>
       <c r="F173" t="n">
         <v>250</v>
       </c>
       <c r="G173" t="n">
-        <v>4.1</v>
+        <v>1.15</v>
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
@@ -6142,17 +6142,17 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0.00913291 BTC</t>
+          <t>0.01031803 BTC</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>87593.10000000001</v>
+        <v>87226.89</v>
       </c>
       <c r="F184" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G184" t="n">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
@@ -6173,17 +6173,17 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0.00801470 BTC</t>
+          <t>0.00913291 BTC</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>88106.78</v>
+        <v>87593.10000000001</v>
       </c>
       <c r="F185" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G185" t="n">
-        <v>6.15</v>
+        <v>-0.02</v>
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DOGE/USD</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6204,17 +6204,17 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>829.83292879 DOGE</t>
+          <t>0.00801470 BTC</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.1926</v>
+        <v>88106.78</v>
       </c>
       <c r="F186" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="G186" t="n">
-        <v>-0.17</v>
+        <v>6.15</v>
       </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USD</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6235,17 +6235,17 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0.01031803 BTC</t>
+          <t>829.83292879 DOGE</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>87226.89</v>
+        <v>0.1926</v>
       </c>
       <c r="F187" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="G187" t="n">
-        <v>0.01</v>
+        <v>-0.17</v>
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
@@ -6266,17 +6266,17 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0.00917491 BTC</t>
+          <t>0.00917285 BTC</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>87075.42</v>
+        <v>87127.25</v>
       </c>
       <c r="F188" t="n">
         <v>800</v>
       </c>
       <c r="G188" t="n">
-        <v>-1.09</v>
+        <v>-0.79</v>
       </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
@@ -6297,17 +6297,17 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0.00917285 BTC</t>
+          <t>0.00917491 BTC</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>87127.25</v>
+        <v>87075.42</v>
       </c>
       <c r="F189" t="n">
         <v>800</v>
       </c>
       <c r="G189" t="n">
-        <v>-0.79</v>
+        <v>-1.09</v>
       </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
@@ -6483,17 +6483,17 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0.01453463 BTC</t>
+          <t>0.01453200 BTC</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>82523.71000000001</v>
+        <v>82664</v>
       </c>
       <c r="F195" t="n">
         <v>1200</v>
       </c>
       <c r="G195" t="n">
-        <v>-0.55</v>
+        <v>1.27</v>
       </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
@@ -6514,17 +6514,17 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0.01573888 BTC</t>
+          <t>0.01574912 BTC</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>82544.11</v>
+        <v>82600</v>
       </c>
       <c r="F196" t="n">
         <v>1300</v>
       </c>
       <c r="G196" t="n">
-        <v>-0.85</v>
+        <v>0.88</v>
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
@@ -6545,17 +6545,17 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0.01574912 BTC</t>
+          <t>0.01562217 BTC</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>82600</v>
+        <v>83156</v>
       </c>
       <c r="F197" t="n">
         <v>1300</v>
       </c>
       <c r="G197" t="n">
-        <v>0.88</v>
+        <v>-0.92</v>
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
@@ -6576,17 +6576,17 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0.01453200 BTC</t>
+          <t>0.01453463 BTC</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>82664</v>
+        <v>82523.71000000001</v>
       </c>
       <c r="F198" t="n">
         <v>1200</v>
       </c>
       <c r="G198" t="n">
-        <v>1.27</v>
+        <v>-0.55</v>
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
@@ -6638,17 +6638,17 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>0.01576568 BTC</t>
+          <t>0.01573888 BTC</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>82441.61</v>
+        <v>82544.11</v>
       </c>
       <c r="F200" t="n">
         <v>1300</v>
       </c>
       <c r="G200" t="n">
-        <v>-0.25</v>
+        <v>-0.85</v>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -6669,17 +6669,17 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0.01572137 BTC</t>
+          <t>0.01576568 BTC</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>82597.84</v>
+        <v>82441.61</v>
       </c>
       <c r="F201" t="n">
         <v>1300</v>
       </c>
       <c r="G201" t="n">
-        <v>-1.45</v>
+        <v>-0.25</v>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -6700,17 +6700,17 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0.01562217 BTC</t>
+          <t>0.01439712 BTC</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>83156</v>
+        <v>83317.73</v>
       </c>
       <c r="F202" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G202" t="n">
-        <v>-0.92</v>
+        <v>-0.46</v>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
@@ -6855,17 +6855,17 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.01439712 BTC</t>
+          <t>0.01559875 BTC</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>83317.73</v>
+        <v>83348.37</v>
       </c>
       <c r="F207" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G207" t="n">
-        <v>-0.46</v>
+        <v>0.13</v>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
@@ -6886,17 +6886,17 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0.01559875 BTC</t>
+          <t>0.02167198 BTC</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>83348.37</v>
+        <v>83373.64</v>
       </c>
       <c r="F208" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="G208" t="n">
-        <v>0.13</v>
+        <v>6.87</v>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
@@ -6917,17 +6917,17 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>0.02167198 BTC</t>
+          <t>0.01572137 BTC</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>83373.64</v>
+        <v>82597.84</v>
       </c>
       <c r="F209" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="G209" t="n">
-        <v>6.87</v>
+        <v>-1.45</v>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -6979,17 +6979,17 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0.01528139 BTC</t>
+          <t>0.01527363 BTC</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>85034.85000000001</v>
+        <v>85154.47</v>
       </c>
       <c r="F211" t="n">
         <v>1300</v>
       </c>
       <c r="G211" t="n">
-        <v>-0.55</v>
+        <v>0.62</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -7010,17 +7010,17 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0.01527597 BTC</t>
+          <t>0.01528139 BTC</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>85083.22</v>
+        <v>85034.85000000001</v>
       </c>
       <c r="F212" t="n">
         <v>1300</v>
       </c>
       <c r="G212" t="n">
-        <v>-0.27</v>
+        <v>-0.55</v>
       </c>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
@@ -7041,17 +7041,17 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0.01528324 BTC</t>
+          <t>0.01527597 BTC</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>84991.22</v>
+        <v>85083.22</v>
       </c>
       <c r="F213" t="n">
         <v>1300</v>
       </c>
       <c r="G213" t="n">
-        <v>-1.06</v>
+        <v>-0.27</v>
       </c>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
@@ -7072,17 +7072,17 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0.01530246 BTC</t>
+          <t>0.01528324 BTC</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>85047.34</v>
+        <v>84991.22</v>
       </c>
       <c r="F214" t="n">
         <v>1300</v>
       </c>
       <c r="G214" t="n">
-        <v>1.43</v>
+        <v>-1.06</v>
       </c>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
@@ -7103,17 +7103,17 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0.01528690 BTC</t>
+          <t>0.01530246 BTC</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>84919.55</v>
+        <v>85047.34</v>
       </c>
       <c r="F215" t="n">
         <v>1300</v>
       </c>
       <c r="G215" t="n">
-        <v>-1.84</v>
+        <v>1.43</v>
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
@@ -7134,17 +7134,17 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0.01529663 BTC</t>
+          <t>0.01528690 BTC</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>85131.60000000001</v>
+        <v>84919.55</v>
       </c>
       <c r="F216" t="n">
         <v>1300</v>
       </c>
       <c r="G216" t="n">
-        <v>2.23</v>
+        <v>-1.84</v>
       </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
@@ -7165,17 +7165,17 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>0.01527363 BTC</t>
+          <t>0.01529663 BTC</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>85154.47</v>
+        <v>85131.60000000001</v>
       </c>
       <c r="F217" t="n">
         <v>1300</v>
       </c>
       <c r="G217" t="n">
-        <v>0.62</v>
+        <v>2.23</v>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
@@ -7196,17 +7196,17 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0.01534120 BTC</t>
+          <t>0.01409120 BTC</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>84960.5</v>
+        <v>85087.59</v>
       </c>
       <c r="F218" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G218" t="n">
-        <v>3.4</v>
+        <v>-1.01</v>
       </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
@@ -7227,17 +7227,17 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>0.01532621 BTC</t>
+          <t>0.01554689 BTC</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>84759.37</v>
+        <v>83520.28999999999</v>
       </c>
       <c r="F219" t="n">
         <v>1300</v>
       </c>
       <c r="G219" t="n">
-        <v>-0.96</v>
+        <v>-1.52</v>
       </c>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
@@ -7289,17 +7289,17 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0.01405324 BTC</t>
+          <t>0.01534120 BTC</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>85265.36</v>
+        <v>84960.5</v>
       </c>
       <c r="F221" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G221" t="n">
-        <v>-1.75</v>
+        <v>3.4</v>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -7475,17 +7475,17 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>0.01409120 BTC</t>
+          <t>0.01405324 BTC</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>85087.59</v>
+        <v>85265.36</v>
       </c>
       <c r="F227" t="n">
         <v>1200</v>
       </c>
       <c r="G227" t="n">
-        <v>-1.01</v>
+        <v>-1.75</v>
       </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
@@ -7506,17 +7506,17 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>0.01523107 BTC</t>
+          <t>0.01532621 BTC</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>85208.53</v>
+        <v>84759.37</v>
       </c>
       <c r="F228" t="n">
         <v>1300</v>
       </c>
       <c r="G228" t="n">
-        <v>-2.18</v>
+        <v>-0.96</v>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
@@ -7537,17 +7537,17 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>0.01556218 BTC</t>
+          <t>0.01523107 BTC</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>83589.00999999999</v>
+        <v>85208.53</v>
       </c>
       <c r="F229" t="n">
         <v>1300</v>
       </c>
       <c r="G229" t="n">
-        <v>0.83</v>
+        <v>-2.18</v>
       </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
@@ -7568,17 +7568,17 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>0.01531120 BTC</t>
+          <t>0.01565851 BTC</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>84778.21000000001</v>
+        <v>82972.85000000001</v>
       </c>
       <c r="F230" t="n">
         <v>1300</v>
       </c>
       <c r="G230" t="n">
-        <v>-1.94</v>
+        <v>-0.77</v>
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
@@ -7599,17 +7599,17 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>0.01574576 BTC</t>
+          <t>0.01531120 BTC</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>83122.8484</v>
+        <v>84778.21000000001</v>
       </c>
       <c r="F231" t="n">
         <v>1300</v>
       </c>
       <c r="G231" t="n">
-        <v>8.83</v>
+        <v>-1.94</v>
       </c>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
@@ -7630,17 +7630,17 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>0.01532366 BTC</t>
+          <t>0.01574576 BTC</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>85287.21000000001</v>
+        <v>83122.8484</v>
       </c>
       <c r="F232" t="n">
         <v>1300</v>
       </c>
       <c r="G232" t="n">
-        <v>6.91</v>
+        <v>8.83</v>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
@@ -7754,17 +7754,17 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.01563295 BTC</t>
+          <t>0.01564569 BTC</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>83117.49000000001</v>
+        <v>83237.52</v>
       </c>
       <c r="F236" t="n">
         <v>1300</v>
       </c>
       <c r="G236" t="n">
-        <v>-0.63</v>
+        <v>2.31</v>
       </c>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
@@ -7785,17 +7785,17 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>0.01563778 BTC</t>
+          <t>0.01532366 BTC</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>83107.14</v>
+        <v>85287.21000000001</v>
       </c>
       <c r="F237" t="n">
         <v>1300</v>
       </c>
       <c r="G237" t="n">
-        <v>-0.39</v>
+        <v>6.91</v>
       </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
@@ -7816,17 +7816,17 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>0.01564990 BTC</t>
+          <t>0.01563778 BTC</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>83035.95</v>
+        <v>83107.14</v>
       </c>
       <c r="F238" t="n">
         <v>1300</v>
       </c>
       <c r="G238" t="n">
-        <v>-0.5</v>
+        <v>-0.39</v>
       </c>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
@@ -7847,17 +7847,17 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>0.01565851 BTC</t>
+          <t>0.01564990 BTC</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>82972.85000000001</v>
+        <v>83035.95</v>
       </c>
       <c r="F239" t="n">
         <v>1300</v>
       </c>
       <c r="G239" t="n">
-        <v>-0.77</v>
+        <v>-0.5</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -7878,17 +7878,17 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>0.01564569 BTC</t>
+          <t>0.01566760 BTC</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>83237.52</v>
+        <v>82898.91</v>
       </c>
       <c r="F240" t="n">
         <v>1300</v>
       </c>
       <c r="G240" t="n">
-        <v>2.31</v>
+        <v>-1.17</v>
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
@@ -7909,17 +7909,17 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0.01567484 BTC</t>
+          <t>0.01563295 BTC</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>82922.96000000001</v>
+        <v>83117.49000000001</v>
       </c>
       <c r="F241" t="n">
         <v>1300</v>
       </c>
       <c r="G241" t="n">
-        <v>-0.2</v>
+        <v>-0.63</v>
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
@@ -8033,17 +8033,17 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>0.01530492 BTC</t>
+          <t>0.01556218 BTC</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>84845.41</v>
+        <v>83589.00999999999</v>
       </c>
       <c r="F245" t="n">
         <v>1300</v>
       </c>
       <c r="G245" t="n">
-        <v>-1.45</v>
+        <v>0.83</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
@@ -8064,17 +8064,17 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>0.01554689 BTC</t>
+          <t>0.01530492 BTC</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>83520.28999999999</v>
+        <v>84845.41</v>
       </c>
       <c r="F246" t="n">
         <v>1300</v>
       </c>
       <c r="G246" t="n">
-        <v>-1.52</v>
+        <v>-1.45</v>
       </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
@@ -8126,17 +8126,17 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>0.01566760 BTC</t>
+          <t>0.01554726 BTC</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>82898.91</v>
+        <v>84943.80100000001</v>
       </c>
       <c r="F248" t="n">
         <v>1300</v>
       </c>
       <c r="G248" t="n">
-        <v>-1.17</v>
+        <v>20.64</v>
       </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
@@ -8157,17 +8157,17 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>0.01554726 BTC</t>
+          <t>0.01567484 BTC</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>84943.80100000001</v>
+        <v>82922.96000000001</v>
       </c>
       <c r="F249" t="n">
         <v>1300</v>
       </c>
       <c r="G249" t="n">
-        <v>20.64</v>
+        <v>-0.2</v>
       </c>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
@@ -8188,17 +8188,17 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>0.00566534 BTC</t>
+          <t>0.00569396 BTC</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>87929</v>
+        <v>87548.3</v>
       </c>
       <c r="F250" t="n">
         <v>500</v>
       </c>
       <c r="G250" t="n">
-        <v>-1.85</v>
+        <v>-1.5</v>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
@@ -8219,17 +8219,17 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>0.01159017 BTC</t>
+          <t>0.00566534 BTC</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>87583.24000000001</v>
+        <v>87929</v>
       </c>
       <c r="F251" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G251" t="n">
-        <v>15.1</v>
+        <v>-1.85</v>
       </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
@@ -8250,17 +8250,17 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>0.01158808 BTC</t>
+          <t>0.01159017 BTC</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>86110.48</v>
+        <v>87583.24000000001</v>
       </c>
       <c r="F252" t="n">
         <v>1000</v>
       </c>
       <c r="G252" t="n">
-        <v>-2.14</v>
+        <v>15.1</v>
       </c>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
@@ -8281,17 +8281,17 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>0.01153005 BTC</t>
+          <t>0.01158808 BTC</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>86711.06</v>
+        <v>86110.48</v>
       </c>
       <c r="F253" t="n">
         <v>1000</v>
       </c>
       <c r="G253" t="n">
-        <v>-0.22</v>
+        <v>-2.14</v>
       </c>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
@@ -8312,17 +8312,17 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>0.01159651 BTC</t>
+          <t>0.01158139 BTC</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>86224.13</v>
+        <v>86788.21000000001</v>
       </c>
       <c r="F254" t="n">
         <v>1000</v>
       </c>
       <c r="G254" t="n">
-        <v>-0.1</v>
+        <v>5.13</v>
       </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
@@ -8343,17 +8343,17 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>0.01158139 BTC</t>
+          <t>0.00115314 BTC</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>86788.21000000001</v>
+        <v>86653.61</v>
       </c>
       <c r="F255" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G255" t="n">
-        <v>5.13</v>
+        <v>-0.08</v>
       </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
@@ -8374,17 +8374,17 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>0.01158555 BTC</t>
+          <t>0.01159651 BTC</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>86209.92</v>
+        <v>86224.13</v>
       </c>
       <c r="F256" t="n">
         <v>1000</v>
       </c>
       <c r="G256" t="n">
-        <v>-1.21</v>
+        <v>-0.1</v>
       </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
@@ -8405,17 +8405,17 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>0.01158766 BTC</t>
+          <t>0.01158555 BTC</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>86193.42</v>
+        <v>86209.92</v>
       </c>
       <c r="F257" t="n">
         <v>1000</v>
       </c>
       <c r="G257" t="n">
-        <v>-1.22</v>
+        <v>-1.21</v>
       </c>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
@@ -8436,17 +8436,17 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>0.00569396 BTC</t>
+          <t>0.01158766 BTC</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>87548.3</v>
+        <v>86193.42</v>
       </c>
       <c r="F258" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G258" t="n">
-        <v>-1.5</v>
+        <v>-1.22</v>
       </c>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
@@ -8467,17 +8467,17 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>0.00115314 BTC</t>
+          <t>0.01153005 BTC</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>86653.61</v>
+        <v>86711.06</v>
       </c>
       <c r="F259" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G259" t="n">
-        <v>-0.08</v>
+        <v>-0.22</v>
       </c>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
@@ -8529,17 +8529,17 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>0.00584405 BTC</t>
+          <t>0.01170679 BTC</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>85541.5</v>
+        <v>85537.05</v>
       </c>
       <c r="F261" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G261" t="n">
-        <v>-0.09</v>
+        <v>1.36</v>
       </c>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
@@ -8777,17 +8777,17 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>0.00586190 BTC</t>
+          <t>0.00584405 BTC</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>85400.27</v>
+        <v>85541.5</v>
       </c>
       <c r="F269" t="n">
         <v>500</v>
       </c>
       <c r="G269" t="n">
-        <v>0.61</v>
+        <v>-0.09</v>
       </c>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
@@ -8808,17 +8808,17 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>0.00604549 BTC</t>
+          <t>0.00586190 BTC</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>82627.60000000001</v>
+        <v>85400.27</v>
       </c>
       <c r="F270" t="n">
         <v>500</v>
       </c>
       <c r="G270" t="n">
-        <v>-0.48</v>
+        <v>0.61</v>
       </c>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
@@ -8839,17 +8839,17 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>0.01158673 BTC</t>
+          <t>0.00604549 BTC</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>86244.75999999999</v>
+        <v>82627.60000000001</v>
       </c>
       <c r="F271" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G271" t="n">
-        <v>-0.7</v>
+        <v>-0.48</v>
       </c>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
@@ -8870,17 +8870,17 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>0.00572866 BTC</t>
+          <t>0.01158673 BTC</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>86618.38</v>
+        <v>86244.75999999999</v>
       </c>
       <c r="F272" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G272" t="n">
-        <v>-3.79</v>
+        <v>-0.7</v>
       </c>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
@@ -8901,17 +8901,17 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>0.01155963 BTC</t>
+          <t>0.00572866 BTC</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>86301.87</v>
+        <v>86618.38</v>
       </c>
       <c r="F273" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G273" t="n">
-        <v>-2.38</v>
+        <v>-3.79</v>
       </c>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
@@ -8932,17 +8932,17 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>0.01170520 BTC</t>
+          <t>0.01155963 BTC</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>85486.98</v>
+        <v>86301.87</v>
       </c>
       <c r="F274" t="n">
         <v>1000</v>
       </c>
       <c r="G274" t="n">
-        <v>0.64</v>
+        <v>-2.38</v>
       </c>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
@@ -8963,17 +8963,17 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>0.01159348 BTC</t>
+          <t>0.01170220 BTC</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>86480.34</v>
+        <v>85372.92</v>
       </c>
       <c r="F275" t="n">
         <v>1000</v>
       </c>
       <c r="G275" t="n">
-        <v>2.61</v>
+        <v>-0.95</v>
       </c>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
@@ -8994,17 +8994,17 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>0.01155804 BTC</t>
+          <t>0.01159348 BTC</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>86509.5</v>
+        <v>86480.34</v>
       </c>
       <c r="F276" t="n">
         <v>1000</v>
       </c>
       <c r="G276" t="n">
-        <v>-0.12</v>
+        <v>2.61</v>
       </c>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
@@ -9025,17 +9025,17 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>0.01178633 BTC</t>
+          <t>0.01155804 BTC</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>85274.95</v>
+        <v>86509.5</v>
       </c>
       <c r="F277" t="n">
         <v>1000</v>
       </c>
       <c r="G277" t="n">
-        <v>5.08</v>
+        <v>-0.12</v>
       </c>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USD</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9211,17 +9211,17 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>0.01170220 BTC</t>
+          <t>6,418.92795222 DOGE</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>85372.92</v>
+        <v>0.1712</v>
       </c>
       <c r="F283" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G283" t="n">
-        <v>-0.95</v>
+        <v>-0.82</v>
       </c>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
@@ -9242,17 +9242,17 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>0.01170679 BTC</t>
+          <t>0.01170520 BTC</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>85537.05</v>
+        <v>85486.98</v>
       </c>
       <c r="F284" t="n">
         <v>1000</v>
       </c>
       <c r="G284" t="n">
-        <v>1.36</v>
+        <v>0.64</v>
       </c>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>DOGE/USD</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -9335,17 +9335,17 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>6,418.92795222 DOGE</t>
+          <t>0.01167897 BTC</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.1712</v>
+        <v>85618.41</v>
       </c>
       <c r="F287" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G287" t="n">
-        <v>-0.82</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -9366,17 +9366,17 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>0.01165387 BTC</t>
+          <t>0.01178633 BTC</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>86258.39999999999</v>
+        <v>85274.95</v>
       </c>
       <c r="F288" t="n">
         <v>1000</v>
       </c>
       <c r="G288" t="n">
-        <v>5.24</v>
+        <v>5.08</v>
       </c>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
@@ -9397,17 +9397,17 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>0.01167897 BTC</t>
+          <t>0.01159344 BTC</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>85618.41</v>
+        <v>86985.94</v>
       </c>
       <c r="F289" t="n">
         <v>1000</v>
       </c>
       <c r="G289" t="n">
-        <v>-0.07000000000000001</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
@@ -9428,17 +9428,17 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>0.01156023 BTC</t>
+          <t>0.01165387 BTC</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>86398.25</v>
+        <v>86258.39999999999</v>
       </c>
       <c r="F290" t="n">
         <v>1000</v>
       </c>
       <c r="G290" t="n">
-        <v>-1.22</v>
+        <v>5.24</v>
       </c>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
@@ -9459,17 +9459,17 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>0.01155241 BTC</t>
+          <t>0.01156023 BTC</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>86460.71000000001</v>
+        <v>86398.25</v>
       </c>
       <c r="F291" t="n">
         <v>1000</v>
       </c>
       <c r="G291" t="n">
-        <v>-1.17</v>
+        <v>-1.22</v>
       </c>
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
@@ -9490,17 +9490,17 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>0.01149670 BTC</t>
+          <t>0.01155762 BTC</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>87054.37</v>
+        <v>86512.75999999999</v>
       </c>
       <c r="F292" t="n">
         <v>1000</v>
       </c>
       <c r="G292" t="n">
-        <v>0.84</v>
+        <v>-0.12</v>
       </c>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
@@ -9521,17 +9521,17 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>0.01148125 BTC</t>
+          <t>0.01155241 BTC</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>86982.53</v>
+        <v>86460.71000000001</v>
       </c>
       <c r="F293" t="n">
         <v>1000</v>
       </c>
       <c r="G293" t="n">
-        <v>-1.33</v>
+        <v>-1.17</v>
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
@@ -9552,17 +9552,17 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>0.01155762 BTC</t>
+          <t>0.01156576 BTC</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>86512.75999999999</v>
+        <v>86375.75999999999</v>
       </c>
       <c r="F294" t="n">
         <v>1000</v>
       </c>
       <c r="G294" t="n">
-        <v>-0.12</v>
+        <v>-1</v>
       </c>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
@@ -9583,17 +9583,17 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>0.01152355 BTC</t>
+          <t>0.01148125 BTC</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>86810.71000000001</v>
+        <v>86982.53</v>
       </c>
       <c r="F295" t="n">
         <v>1000</v>
       </c>
       <c r="G295" t="n">
-        <v>0.37</v>
+        <v>-1.33</v>
       </c>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
@@ -9614,17 +9614,17 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>0.01152400 BTC</t>
+          <t>0.01148311 BTC</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>86667.16</v>
+        <v>87078.66</v>
       </c>
       <c r="F296" t="n">
         <v>1000</v>
       </c>
       <c r="G296" t="n">
-        <v>-1.25</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
@@ -9645,17 +9645,17 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>0.01159344 BTC</t>
+          <t>0.01152355 BTC</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>86985.94</v>
+        <v>86810.71000000001</v>
       </c>
       <c r="F297" t="n">
         <v>1000</v>
       </c>
       <c r="G297" t="n">
-        <v>8.470000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
@@ -9676,17 +9676,17 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>0.01148311 BTC</t>
+          <t>0.01152400 BTC</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>87078.66</v>
+        <v>86667.16</v>
       </c>
       <c r="F298" t="n">
         <v>1000</v>
       </c>
       <c r="G298" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-1.25</v>
       </c>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
@@ -9707,17 +9707,17 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>0.01156576 BTC</t>
+          <t>0.01149670 BTC</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>86375.75999999999</v>
+        <v>87054.37</v>
       </c>
       <c r="F299" t="n">
         <v>1000</v>
       </c>
       <c r="G299" t="n">
-        <v>-1</v>
+        <v>0.84</v>
       </c>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
@@ -9738,17 +9738,17 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>0.00610083 BTC</t>
+          <t>0.00614218 BTC</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>81854.85000000001</v>
+        <v>81331.86</v>
       </c>
       <c r="F300" t="n">
         <v>500</v>
       </c>
       <c r="G300" t="n">
-        <v>-0.62</v>
+        <v>-0.45</v>
       </c>
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
@@ -9769,17 +9769,17 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>0.00612145 BTC</t>
+          <t>0.00608578 BTC</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>81641.02</v>
+        <v>82052.10000000001</v>
       </c>
       <c r="F301" t="n">
         <v>500</v>
       </c>
       <c r="G301" t="n">
-        <v>-0.24</v>
+        <v>-0.65</v>
       </c>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
@@ -9800,17 +9800,17 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>0.00610464 BTC</t>
+          <t>0.00609012 BTC</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>82133.73</v>
+        <v>82026.17999999999</v>
       </c>
       <c r="F302" t="n">
         <v>500</v>
       </c>
       <c r="G302" t="n">
-        <v>1.4</v>
+        <v>-0.45</v>
       </c>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
@@ -9831,17 +9831,17 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>0.00608578 BTC</t>
+          <t>0.00609756 BTC</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>82052.10000000001</v>
+        <v>81915.21000000001</v>
       </c>
       <c r="F303" t="n">
         <v>500</v>
       </c>
       <c r="G303" t="n">
-        <v>-0.65</v>
+        <v>-0.52</v>
       </c>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
@@ -9862,17 +9862,17 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>0.00609012 BTC</t>
+          <t>0.00610667 BTC</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>82026.17999999999</v>
+        <v>81789.95</v>
       </c>
       <c r="F304" t="n">
         <v>500</v>
       </c>
       <c r="G304" t="n">
-        <v>-0.45</v>
+        <v>-0.54</v>
       </c>
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
@@ -9893,17 +9893,17 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>0.00609756 BTC</t>
+          <t>0.00611181 BTC</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>81915.21000000001</v>
+        <v>81729.55</v>
       </c>
       <c r="F305" t="n">
         <v>500</v>
       </c>
       <c r="G305" t="n">
-        <v>-0.52</v>
+        <v>-0.48</v>
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
@@ -9924,17 +9924,17 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>0.00610667 BTC</t>
+          <t>0.00612145 BTC</t>
         </is>
       </c>
       <c r="E306" t="n">
-        <v>81789.95</v>
+        <v>81641.02</v>
       </c>
       <c r="F306" t="n">
         <v>500</v>
       </c>
       <c r="G306" t="n">
-        <v>-0.54</v>
+        <v>-0.24</v>
       </c>
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
@@ -9955,17 +9955,17 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>0.00611181 BTC</t>
+          <t>0.00614127 BTC</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>81729.55</v>
+        <v>81306.42999999999</v>
       </c>
       <c r="F307" t="n">
         <v>500</v>
       </c>
       <c r="G307" t="n">
-        <v>-0.48</v>
+        <v>-0.68</v>
       </c>
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
@@ -9986,17 +9986,17 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>0.00609723 BTC</t>
+          <t>0.00610464 BTC</t>
         </is>
       </c>
       <c r="E308" t="n">
-        <v>82176.73</v>
+        <v>82133.73</v>
       </c>
       <c r="F308" t="n">
         <v>500</v>
       </c>
       <c r="G308" t="n">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
@@ -10017,17 +10017,17 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>0.00614218 BTC</t>
+          <t>0.00608791 BTC</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>81331.86</v>
+        <v>82117.69</v>
       </c>
       <c r="F309" t="n">
         <v>500</v>
       </c>
       <c r="G309" t="n">
-        <v>-0.45</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
@@ -10048,17 +10048,17 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>0.00611890 BTC</t>
+          <t>0.00612850 BTC</t>
         </is>
       </c>
       <c r="E310" t="n">
-        <v>81589.42999999999</v>
+        <v>82124.94</v>
       </c>
       <c r="F310" t="n">
         <v>500</v>
       </c>
       <c r="G310" t="n">
-        <v>-0.76</v>
+        <v>3.3</v>
       </c>
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
@@ -10079,17 +10079,17 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>0.00612850 BTC</t>
+          <t>0.00609723 BTC</t>
         </is>
       </c>
       <c r="E311" t="n">
-        <v>82124.94</v>
+        <v>82176.73</v>
       </c>
       <c r="F311" t="n">
         <v>500</v>
       </c>
       <c r="G311" t="n">
-        <v>3.3</v>
+        <v>1.05</v>
       </c>
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
@@ -10110,17 +10110,17 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>0.00611308 BTC</t>
+          <t>0.00607748 BTC</t>
         </is>
       </c>
       <c r="E312" t="n">
-        <v>81885.06</v>
+        <v>82180</v>
       </c>
       <c r="F312" t="n">
         <v>500</v>
       </c>
       <c r="G312" t="n">
-        <v>0.57</v>
+        <v>-0.55</v>
       </c>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
@@ -10141,17 +10141,17 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>0.00607748 BTC</t>
+          <t>0.00608714 BTC</t>
         </is>
       </c>
       <c r="E313" t="n">
-        <v>82180</v>
+        <v>82102.58</v>
       </c>
       <c r="F313" t="n">
         <v>500</v>
       </c>
       <c r="G313" t="n">
-        <v>-0.55</v>
+        <v>-0.23</v>
       </c>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
@@ -10172,17 +10172,17 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>0.00608791 BTC</t>
+          <t>0.00608881 BTC</t>
         </is>
       </c>
       <c r="E314" t="n">
-        <v>82117.69</v>
+        <v>82066.3</v>
       </c>
       <c r="F314" t="n">
         <v>500</v>
       </c>
       <c r="G314" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.31</v>
       </c>
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
@@ -10203,17 +10203,17 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>0.00608714 BTC</t>
+          <t>0.00610086 BTC</t>
         </is>
       </c>
       <c r="E315" t="n">
-        <v>82102.58</v>
+        <v>81964.96000000001</v>
       </c>
       <c r="F315" t="n">
         <v>500</v>
       </c>
       <c r="G315" t="n">
-        <v>-0.23</v>
+        <v>0.06</v>
       </c>
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
@@ -10234,17 +10234,17 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>0.00608881 BTC</t>
+          <t>0.00610529 BTC</t>
         </is>
       </c>
       <c r="E316" t="n">
-        <v>82066.3</v>
+        <v>81865.05</v>
       </c>
       <c r="F316" t="n">
         <v>500</v>
       </c>
       <c r="G316" t="n">
-        <v>-0.31</v>
+        <v>-0.19</v>
       </c>
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
@@ -10265,17 +10265,17 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>0.00610086 BTC</t>
+          <t>0.00611190 BTC</t>
         </is>
       </c>
       <c r="E317" t="n">
-        <v>81964.96000000001</v>
+        <v>81740.19</v>
       </c>
       <c r="F317" t="n">
         <v>500</v>
       </c>
       <c r="G317" t="n">
-        <v>0.06</v>
+        <v>-0.41</v>
       </c>
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
@@ -10296,17 +10296,17 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>0.00614127 BTC</t>
+          <t>0.00610083 BTC</t>
         </is>
       </c>
       <c r="E318" t="n">
-        <v>81306.42999999999</v>
+        <v>81854.85000000001</v>
       </c>
       <c r="F318" t="n">
         <v>500</v>
       </c>
       <c r="G318" t="n">
-        <v>-0.68</v>
+        <v>-0.62</v>
       </c>
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
@@ -10327,17 +10327,17 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>0.00610648 BTC</t>
+          <t>0.00611890 BTC</t>
         </is>
       </c>
       <c r="E319" t="n">
-        <v>81728.42999999999</v>
+        <v>81589.42999999999</v>
       </c>
       <c r="F319" t="n">
         <v>500</v>
       </c>
       <c r="G319" t="n">
-        <v>-0.93</v>
+        <v>-0.76</v>
       </c>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
@@ -10358,17 +10358,17 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>0.00606858 BTC</t>
+          <t>0.00611308 BTC</t>
         </is>
       </c>
       <c r="E320" t="n">
-        <v>82174.86</v>
+        <v>81885.06</v>
       </c>
       <c r="F320" t="n">
         <v>500</v>
       </c>
       <c r="G320" t="n">
-        <v>-1.32</v>
+        <v>0.57</v>
       </c>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
@@ -10389,17 +10389,17 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>0.00608865 BTC</t>
+          <t>0.00607268 BTC</t>
         </is>
       </c>
       <c r="E321" t="n">
-        <v>82037.12</v>
+        <v>82187.14999999999</v>
       </c>
       <c r="F321" t="n">
         <v>500</v>
       </c>
       <c r="G321" t="n">
-        <v>-0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
@@ -10420,17 +10420,17 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>0.00610529 BTC</t>
+          <t>0.00608933 BTC</t>
         </is>
       </c>
       <c r="E322" t="n">
-        <v>81865.05</v>
+        <v>82025.19</v>
       </c>
       <c r="F322" t="n">
         <v>500</v>
       </c>
       <c r="G322" t="n">
-        <v>-0.19</v>
+        <v>-0.52</v>
       </c>
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
@@ -10668,17 +10668,17 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>0.00608933 BTC</t>
+          <t>0.00600240 BTC</t>
         </is>
       </c>
       <c r="E330" t="n">
-        <v>82025.19</v>
+        <v>83199.09</v>
       </c>
       <c r="F330" t="n">
         <v>500</v>
       </c>
       <c r="G330" t="n">
-        <v>-0.52</v>
+        <v>-0.61</v>
       </c>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
@@ -10699,17 +10699,17 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>0.00600240 BTC</t>
+          <t>0.00600941 BTC</t>
         </is>
       </c>
       <c r="E331" t="n">
-        <v>83199.09</v>
+        <v>83144.57000000001</v>
       </c>
       <c r="F331" t="n">
         <v>500</v>
       </c>
       <c r="G331" t="n">
-        <v>-0.61</v>
+        <v>-0.35</v>
       </c>
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
@@ -10730,17 +10730,17 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>0.00607268 BTC</t>
+          <t>0.00608792 BTC</t>
         </is>
       </c>
       <c r="E332" t="n">
-        <v>82187.14999999999</v>
+        <v>82344.78999999999</v>
       </c>
       <c r="F332" t="n">
         <v>500</v>
       </c>
       <c r="G332" t="n">
-        <v>-0.9</v>
+        <v>1.31</v>
       </c>
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
@@ -10885,17 +10885,17 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>0.00608452 BTC</t>
+          <t>0.00606858 BTC</t>
         </is>
       </c>
       <c r="E337" t="n">
-        <v>82123.47</v>
+        <v>82174.86</v>
       </c>
       <c r="F337" t="n">
         <v>500</v>
       </c>
       <c r="G337" t="n">
-        <v>-0.32</v>
+        <v>-1.32</v>
       </c>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
@@ -10916,17 +10916,17 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>0.00607386 BTC</t>
+          <t>0.00608452 BTC</t>
         </is>
       </c>
       <c r="E338" t="n">
-        <v>82181.64</v>
+        <v>82123.47</v>
       </c>
       <c r="F338" t="n">
         <v>500</v>
       </c>
       <c r="G338" t="n">
-        <v>-0.84</v>
+        <v>-0.32</v>
       </c>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
@@ -10947,17 +10947,17 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>0.00608051 BTC</t>
+          <t>0.00607386 BTC</t>
         </is>
       </c>
       <c r="E339" t="n">
-        <v>82158.19</v>
+        <v>82181.64</v>
       </c>
       <c r="F339" t="n">
         <v>500</v>
       </c>
       <c r="G339" t="n">
-        <v>-0.44</v>
+        <v>-0.84</v>
       </c>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
@@ -10978,17 +10978,17 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>0.00600941 BTC</t>
+          <t>0.00608051 BTC</t>
         </is>
       </c>
       <c r="E340" t="n">
-        <v>83144.57000000001</v>
+        <v>82158.19</v>
       </c>
       <c r="F340" t="n">
         <v>500</v>
       </c>
       <c r="G340" t="n">
-        <v>-0.35</v>
+        <v>-0.44</v>
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
@@ -11009,17 +11009,17 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>0.00608792 BTC</t>
+          <t>0.00608865 BTC</t>
         </is>
       </c>
       <c r="E341" t="n">
-        <v>82344.78999999999</v>
+        <v>82037.12</v>
       </c>
       <c r="F341" t="n">
         <v>500</v>
       </c>
       <c r="G341" t="n">
-        <v>1.31</v>
+        <v>-0.5</v>
       </c>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
@@ -11040,17 +11040,17 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>0.00611190 BTC</t>
+          <t>0.00610648 BTC</t>
         </is>
       </c>
       <c r="E342" t="n">
-        <v>81740.19</v>
+        <v>81728.42999999999</v>
       </c>
       <c r="F342" t="n">
         <v>500</v>
       </c>
       <c r="G342" t="n">
-        <v>-0.41</v>
+        <v>-0.93</v>
       </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
@@ -11071,17 +11071,17 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>0.00610777 BTC</t>
+          <t>0.00978289 BTC</t>
         </is>
       </c>
       <c r="E343" t="n">
-        <v>81833.03999999999</v>
+        <v>81937.41</v>
       </c>
       <c r="F343" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G343" t="n">
-        <v>-0.18</v>
+        <v>1.59</v>
       </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
@@ -11102,17 +11102,17 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>0.00978289 BTC</t>
+          <t>0.00610777 BTC</t>
         </is>
       </c>
       <c r="E344" t="n">
-        <v>81937.41</v>
+        <v>81833.03999999999</v>
       </c>
       <c r="F344" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G344" t="n">
-        <v>1.59</v>
+        <v>-0.18</v>
       </c>
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
@@ -11133,17 +11133,17 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>0.00792977 BTC</t>
+          <t>0.01221683 BTC</t>
         </is>
       </c>
       <c r="E345" t="n">
-        <v>81938.25999999999</v>
+        <v>81845.23</v>
       </c>
       <c r="F345" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="G345" t="n">
-        <v>-0.25</v>
+        <v>-0.11</v>
       </c>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
@@ -11164,17 +11164,17 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>0.00783270 BTC</t>
+          <t>0.00610839 BTC</t>
         </is>
       </c>
       <c r="E346" t="n">
-        <v>82139.99000000001</v>
+        <v>81817.31</v>
       </c>
       <c r="F346" t="n">
-        <v>640</v>
+        <v>500</v>
       </c>
       <c r="G346" t="n">
-        <v>3.38</v>
+        <v>-0.23</v>
       </c>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
@@ -11195,17 +11195,17 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>0.00612147 BTC</t>
+          <t>0.00792977 BTC</t>
         </is>
       </c>
       <c r="E347" t="n">
-        <v>81682.2</v>
+        <v>81938.25999999999</v>
       </c>
       <c r="F347" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="G347" t="n">
-        <v>0.01</v>
+        <v>-0.25</v>
       </c>
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
@@ -11226,17 +11226,17 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>0.00980071 BTC</t>
+          <t>0.00783270 BTC</t>
         </is>
       </c>
       <c r="E348" t="n">
-        <v>81604.23</v>
+        <v>82139.99000000001</v>
       </c>
       <c r="F348" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="G348" t="n">
-        <v>-0.22</v>
+        <v>3.38</v>
       </c>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
@@ -11257,17 +11257,17 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>0.00624996 BTC</t>
+          <t>0.00979609 BTC</t>
         </is>
       </c>
       <c r="E349" t="n">
-        <v>81567.22</v>
+        <v>81618.8</v>
       </c>
       <c r="F349" t="n">
-        <v>510</v>
+        <v>800</v>
       </c>
       <c r="G349" t="n">
-        <v>-0.21</v>
+        <v>-0.45</v>
       </c>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
@@ -11288,17 +11288,17 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>0.00979755 BTC</t>
+          <t>0.00980071 BTC</t>
         </is>
       </c>
       <c r="E350" t="n">
-        <v>81570.71000000001</v>
+        <v>81604.23</v>
       </c>
       <c r="F350" t="n">
         <v>800</v>
       </c>
       <c r="G350" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.22</v>
       </c>
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
@@ -11319,17 +11319,17 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>0.00979609 BTC</t>
+          <t>0.00624996 BTC</t>
         </is>
       </c>
       <c r="E351" t="n">
-        <v>81618.8</v>
+        <v>81567.22</v>
       </c>
       <c r="F351" t="n">
-        <v>800</v>
+        <v>510</v>
       </c>
       <c r="G351" t="n">
-        <v>-0.45</v>
+        <v>-0.21</v>
       </c>
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr"/>
@@ -11350,17 +11350,17 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>0.00795379 BTC</t>
+          <t>0.00612147 BTC</t>
         </is>
       </c>
       <c r="E352" t="n">
-        <v>81657.82000000001</v>
+        <v>81682.2</v>
       </c>
       <c r="F352" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="G352" t="n">
-        <v>-0.51</v>
+        <v>0.01</v>
       </c>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
@@ -11381,17 +11381,17 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>0.00611638 BTC</t>
+          <t>0.00612256 BTC</t>
         </is>
       </c>
       <c r="E353" t="n">
-        <v>81703.33</v>
+        <v>82034.41</v>
       </c>
       <c r="F353" t="n">
         <v>500</v>
       </c>
       <c r="G353" t="n">
-        <v>-0.27</v>
+        <v>2.26</v>
       </c>
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr"/>
@@ -11412,17 +11412,17 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>0.00978034 BTC</t>
+          <t>0.00795379 BTC</t>
         </is>
       </c>
       <c r="E354" t="n">
-        <v>81745.35000000001</v>
+        <v>81657.82000000001</v>
       </c>
       <c r="F354" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="G354" t="n">
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
@@ -11443,17 +11443,17 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>0.00977355 BTC</t>
+          <t>0.00611638 BTC</t>
         </is>
       </c>
       <c r="E355" t="n">
-        <v>81822.06</v>
+        <v>81703.33</v>
       </c>
       <c r="F355" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G355" t="n">
-        <v>-0.31</v>
+        <v>-0.27</v>
       </c>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
@@ -11474,17 +11474,17 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>0.00977405 BTC</t>
+          <t>0.00978034 BTC</t>
         </is>
       </c>
       <c r="E356" t="n">
-        <v>81813.46000000001</v>
+        <v>81745.35000000001</v>
       </c>
       <c r="F356" t="n">
         <v>800</v>
       </c>
       <c r="G356" t="n">
-        <v>-0.35</v>
+        <v>-0.5</v>
       </c>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr"/>
@@ -11505,17 +11505,17 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>0.01221683 BTC</t>
+          <t>0.00977355 BTC</t>
         </is>
       </c>
       <c r="E357" t="n">
-        <v>81845.23</v>
+        <v>81822.06</v>
       </c>
       <c r="F357" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G357" t="n">
-        <v>-0.11</v>
+        <v>-0.31</v>
       </c>
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr"/>
@@ -11536,17 +11536,17 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>0.00610839 BTC</t>
+          <t>0.00977405 BTC</t>
         </is>
       </c>
       <c r="E358" t="n">
-        <v>81817.31</v>
+        <v>81813.46000000001</v>
       </c>
       <c r="F358" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G358" t="n">
-        <v>-0.23</v>
+        <v>-0.35</v>
       </c>
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr"/>
@@ -11567,17 +11567,17 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>0.00612256 BTC</t>
+          <t>0.00979755 BTC</t>
         </is>
       </c>
       <c r="E359" t="n">
-        <v>82034.41</v>
+        <v>81570.71000000001</v>
       </c>
       <c r="F359" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G359" t="n">
-        <v>2.26</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr"/>
@@ -11598,17 +11598,17 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>0.00593991 BTC</t>
+          <t>0.00593126 BTC</t>
         </is>
       </c>
       <c r="E360" t="n">
-        <v>84104.57000000001</v>
+        <v>84156</v>
       </c>
       <c r="F360" t="n">
         <v>500</v>
       </c>
       <c r="G360" t="n">
-        <v>-0.43</v>
+        <v>-0.85</v>
       </c>
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr"/>
@@ -11846,17 +11846,17 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>0.00596332 BTC</t>
+          <t>0.00594920 BTC</t>
         </is>
       </c>
       <c r="E368" t="n">
-        <v>83714.58</v>
+        <v>84005.60000000001</v>
       </c>
       <c r="F368" t="n">
         <v>500</v>
       </c>
       <c r="G368" t="n">
-        <v>-0.78</v>
+        <v>-0.23</v>
       </c>
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr"/>
@@ -12063,17 +12063,17 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>0.00594920 BTC</t>
+          <t>0.00594158 BTC</t>
         </is>
       </c>
       <c r="E375" t="n">
-        <v>84005.60000000001</v>
+        <v>84078.14</v>
       </c>
       <c r="F375" t="n">
         <v>500</v>
       </c>
       <c r="G375" t="n">
-        <v>-0.23</v>
+        <v>-0.44</v>
       </c>
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr"/>
@@ -12094,17 +12094,17 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>0.00594158 BTC</t>
+          <t>0.00596332 BTC</t>
         </is>
       </c>
       <c r="E376" t="n">
-        <v>84078.14</v>
+        <v>83714.58</v>
       </c>
       <c r="F376" t="n">
         <v>500</v>
       </c>
       <c r="G376" t="n">
-        <v>-0.44</v>
+        <v>-0.78</v>
       </c>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr"/>
@@ -12187,17 +12187,17 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>0.00593126 BTC</t>
+          <t>0.00593991 BTC</t>
         </is>
       </c>
       <c r="E379" t="n">
-        <v>84156</v>
+        <v>84104.57000000001</v>
       </c>
       <c r="F379" t="n">
         <v>500</v>
       </c>
       <c r="G379" t="n">
-        <v>-0.85</v>
+        <v>-0.43</v>
       </c>
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr"/>
@@ -12528,17 +12528,17 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>0.00576276 BTC</t>
+          <t>0.00361016 BTC</t>
         </is>
       </c>
       <c r="E390" t="n">
-        <v>83462.55</v>
+        <v>83004.53</v>
       </c>
       <c r="F390" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="G390" t="n">
-        <v>0.97</v>
+        <v>-0.34</v>
       </c>
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
@@ -12559,17 +12559,17 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>0.00361016 BTC</t>
+          <t>0.00576276 BTC</t>
         </is>
       </c>
       <c r="E391" t="n">
-        <v>83004.53</v>
+        <v>83462.55</v>
       </c>
       <c r="F391" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="G391" t="n">
-        <v>-0.34</v>
+        <v>0.97</v>
       </c>
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
@@ -13892,17 +13892,17 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>0.00587875 BTC</t>
+          <t>0.00589423 BTC</t>
         </is>
       </c>
       <c r="E434" t="n">
-        <v>85045.84</v>
+        <v>84763.64999999999</v>
       </c>
       <c r="F434" t="n">
         <v>500</v>
       </c>
       <c r="G434" t="n">
-        <v>-0.04</v>
+        <v>-0.38</v>
       </c>
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr"/>
@@ -13923,17 +13923,17 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>0.00589423 BTC</t>
+          <t>0.00587875 BTC</t>
         </is>
       </c>
       <c r="E435" t="n">
-        <v>84763.64999999999</v>
+        <v>85045.84</v>
       </c>
       <c r="F435" t="n">
         <v>500</v>
       </c>
       <c r="G435" t="n">
-        <v>-0.38</v>
+        <v>-0.04</v>
       </c>
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr"/>
@@ -14047,17 +14047,17 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>0.00568249 BTC</t>
+          <t>0.00473879 BTC</t>
         </is>
       </c>
       <c r="E439" t="n">
-        <v>84338.55</v>
+        <v>84301.05</v>
       </c>
       <c r="F439" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="G439" t="n">
-        <v>-0.75</v>
+        <v>-0.51</v>
       </c>
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr"/>
@@ -14078,17 +14078,17 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>0.00413497 BTC</t>
+          <t>0.00568249 BTC</t>
         </is>
       </c>
       <c r="E440" t="n">
-        <v>84471.64</v>
+        <v>84338.55</v>
       </c>
       <c r="F440" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="G440" t="n">
-        <v>-0.71</v>
+        <v>-0.75</v>
       </c>
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr"/>
@@ -14109,17 +14109,17 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>0.00476519 BTC</t>
+          <t>0.00416236 BTC</t>
         </is>
       </c>
       <c r="E441" t="n">
-        <v>84083.37</v>
+        <v>83990.10000000001</v>
       </c>
       <c r="F441" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G441" t="n">
-        <v>0.67</v>
+        <v>-0.4</v>
       </c>
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr"/>
@@ -14140,17 +14140,17 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>0.00416236 BTC</t>
+          <t>0.00567456 BTC</t>
         </is>
       </c>
       <c r="E442" t="n">
-        <v>83990.10000000001</v>
+        <v>84387.78999999999</v>
       </c>
       <c r="F442" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="G442" t="n">
-        <v>-0.4</v>
+        <v>-1.14</v>
       </c>
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr"/>
@@ -14171,17 +14171,17 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>0.00567456 BTC</t>
+          <t>0.00413624 BTC</t>
         </is>
       </c>
       <c r="E443" t="n">
-        <v>84387.78999999999</v>
+        <v>84604.82000000001</v>
       </c>
       <c r="F443" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="G443" t="n">
-        <v>-1.14</v>
+        <v>-0.05</v>
       </c>
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr"/>
@@ -14202,17 +14202,17 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>0.00413624 BTC</t>
+          <t>0.00829519 BTC</t>
         </is>
       </c>
       <c r="E444" t="n">
-        <v>84604.82000000001</v>
+        <v>85547.91</v>
       </c>
       <c r="F444" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="G444" t="n">
-        <v>-0.05</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr"/>
@@ -14233,17 +14233,17 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>0.00829519 BTC</t>
+          <t>0.00709589 BTC</t>
         </is>
       </c>
       <c r="E445" t="n">
-        <v>85547.91</v>
+        <v>84353.32000000001</v>
       </c>
       <c r="F445" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G445" t="n">
-        <v>9.640000000000001</v>
+        <v>-1.44</v>
       </c>
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr"/>
@@ -14264,17 +14264,17 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>0.00473879 BTC</t>
+          <t>0.00413497 BTC</t>
         </is>
       </c>
       <c r="E446" t="n">
-        <v>84301.05</v>
+        <v>84471.64</v>
       </c>
       <c r="F446" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G446" t="n">
-        <v>-0.51</v>
+        <v>-0.71</v>
       </c>
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr"/>
@@ -14295,17 +14295,17 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>0.00473688 BTC</t>
+          <t>0.00472412 BTC</t>
         </is>
       </c>
       <c r="E447" t="n">
-        <v>84277.77</v>
+        <v>84452.49000000001</v>
       </c>
       <c r="F447" t="n">
         <v>400</v>
       </c>
       <c r="G447" t="n">
-        <v>-0.79</v>
+        <v>-1.04</v>
       </c>
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr"/>
@@ -14326,17 +14326,17 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>0.00472412 BTC</t>
+          <t>0.00473688 BTC</t>
         </is>
       </c>
       <c r="E448" t="n">
-        <v>84452.49000000001</v>
+        <v>84277.77</v>
       </c>
       <c r="F448" t="n">
         <v>400</v>
       </c>
       <c r="G448" t="n">
-        <v>-1.04</v>
+        <v>-0.79</v>
       </c>
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr"/>
@@ -14357,17 +14357,17 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>0.00353870 BTC</t>
+          <t>0.00375709 BTC</t>
         </is>
       </c>
       <c r="E449" t="n">
-        <v>84989.64</v>
+        <v>85159.47</v>
       </c>
       <c r="F449" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="G449" t="n">
-        <v>0.75</v>
+        <v>-0.05</v>
       </c>
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr"/>
@@ -14388,17 +14388,17 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>0.00591943 BTC</t>
+          <t>0.00353897 BTC</t>
         </is>
       </c>
       <c r="E450" t="n">
-        <v>84782.52</v>
+        <v>84591.41</v>
       </c>
       <c r="F450" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G450" t="n">
-        <v>1.86</v>
+        <v>-0.63</v>
       </c>
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr"/>
@@ -14419,17 +14419,17 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>0.00473310 BTC</t>
+          <t>0.00471992 BTC</t>
         </is>
       </c>
       <c r="E451" t="n">
-        <v>84418.27</v>
+        <v>84573.89999999999</v>
       </c>
       <c r="F451" t="n">
         <v>400</v>
       </c>
       <c r="G451" t="n">
-        <v>-0.44</v>
+        <v>-1.1</v>
       </c>
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr"/>
@@ -14450,17 +14450,17 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>0.00472900 BTC</t>
+          <t>0.00476519 BTC</t>
         </is>
       </c>
       <c r="E452" t="n">
-        <v>84473.08</v>
+        <v>84083.37</v>
       </c>
       <c r="F452" t="n">
         <v>400</v>
       </c>
       <c r="G452" t="n">
-        <v>-0.53</v>
+        <v>0.67</v>
       </c>
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr"/>
@@ -14481,17 +14481,17 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>0.00471992 BTC</t>
+          <t>0.00473310 BTC</t>
         </is>
       </c>
       <c r="E453" t="n">
-        <v>84573.89999999999</v>
+        <v>84418.27</v>
       </c>
       <c r="F453" t="n">
         <v>400</v>
       </c>
       <c r="G453" t="n">
-        <v>-1.1</v>
+        <v>-0.44</v>
       </c>
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr"/>
@@ -14512,17 +14512,17 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>0.00375709 BTC</t>
+          <t>0.00591943 BTC</t>
         </is>
       </c>
       <c r="E454" t="n">
-        <v>85159.47</v>
+        <v>84782.52</v>
       </c>
       <c r="F454" t="n">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="G454" t="n">
-        <v>-0.05</v>
+        <v>1.86</v>
       </c>
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr"/>
@@ -14543,17 +14543,17 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>0.00353897 BTC</t>
+          <t>0.00353870 BTC</t>
         </is>
       </c>
       <c r="E455" t="n">
-        <v>84591.41</v>
+        <v>84989.64</v>
       </c>
       <c r="F455" t="n">
         <v>300</v>
       </c>
       <c r="G455" t="n">
-        <v>-0.63</v>
+        <v>0.75</v>
       </c>
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr"/>
@@ -14574,17 +14574,17 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>0.00709589 BTC</t>
+          <t>0.00472900 BTC</t>
         </is>
       </c>
       <c r="E456" t="n">
-        <v>84353.32000000001</v>
+        <v>84473.08</v>
       </c>
       <c r="F456" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G456" t="n">
-        <v>-1.44</v>
+        <v>-0.53</v>
       </c>
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr"/>
@@ -14915,17 +14915,17 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>0.00348842 BTC</t>
+          <t>0.00348604 BTC</t>
         </is>
       </c>
       <c r="E467" t="n">
-        <v>86282.75</v>
+        <v>85960.98</v>
       </c>
       <c r="F467" t="n">
         <v>300</v>
       </c>
       <c r="G467" t="n">
-        <v>0.99</v>
+        <v>-0.34</v>
       </c>
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr"/>
@@ -14946,17 +14946,17 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>0.00348604 BTC</t>
+          <t>0.00348432 BTC</t>
         </is>
       </c>
       <c r="E468" t="n">
-        <v>85960.98</v>
+        <v>86018.86</v>
       </c>
       <c r="F468" t="n">
         <v>300</v>
       </c>
       <c r="G468" t="n">
-        <v>-0.34</v>
+        <v>-0.28</v>
       </c>
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr"/>
@@ -14977,17 +14977,17 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>0.00348432 BTC</t>
+          <t>0.00377140 BTC</t>
         </is>
       </c>
       <c r="E469" t="n">
-        <v>86018.86</v>
+        <v>84842.03</v>
       </c>
       <c r="F469" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="G469" t="n">
-        <v>-0.28</v>
+        <v>-0.03</v>
       </c>
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr"/>
@@ -15008,17 +15008,17 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>0.00377140 BTC</t>
+          <t>0.00348842 BTC</t>
         </is>
       </c>
       <c r="E470" t="n">
-        <v>84842.03</v>
+        <v>86282.75</v>
       </c>
       <c r="F470" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="G470" t="n">
-        <v>-0.03</v>
+        <v>0.99</v>
       </c>
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr"/>
@@ -15039,17 +15039,17 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>0.00416262 BTC</t>
+          <t>0.00377140 BTC</t>
         </is>
       </c>
       <c r="E471" t="n">
-        <v>84320</v>
+        <v>85195.91</v>
       </c>
       <c r="F471" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G471" t="n">
-        <v>0.99</v>
+        <v>1.31</v>
       </c>
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr"/>
@@ -15070,17 +15070,17 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>0.00355248 BTC</t>
+          <t>0.00416262 BTC</t>
         </is>
       </c>
       <c r="E472" t="n">
-        <v>84584</v>
+        <v>84320</v>
       </c>
       <c r="F472" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="G472" t="n">
-        <v>0.48</v>
+        <v>0.99</v>
       </c>
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr"/>
@@ -15101,17 +15101,17 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>0.00377140 BTC</t>
+          <t>0.00355248 BTC</t>
         </is>
       </c>
       <c r="E473" t="n">
-        <v>85195.91</v>
+        <v>84584</v>
       </c>
       <c r="F473" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="G473" t="n">
-        <v>1.31</v>
+        <v>0.48</v>
       </c>
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr"/>
@@ -15122,27 +15122,27 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>DOGE/USD</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Bought</t>
+          <t>Sold</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>818.12064821 DOGE</t>
+          <t>0.00355124 BTC</t>
         </is>
       </c>
       <c r="E474" t="n">
-        <v>0.1596</v>
+        <v>84291.17999999999</v>
       </c>
       <c r="F474" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="G474" t="n">
-        <v>-0.55</v>
+        <v>-0.66</v>
       </c>
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr"/>
@@ -15153,27 +15153,27 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>DOGE/USD</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Bought</t>
+          <t>Sold</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>755.19194462 DOGE</t>
+          <t>0.00391632 BTC</t>
         </is>
       </c>
       <c r="E475" t="n">
-        <v>0.1567</v>
+        <v>84173.28999999999</v>
       </c>
       <c r="F475" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="G475" t="n">
-        <v>1.67</v>
+        <v>-0.35</v>
       </c>
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr"/>
@@ -15184,27 +15184,27 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>DOGE/USD</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Bought</t>
+          <t>Sold</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>948.28628145 DOGE</t>
+          <t>0.00379719 BTC</t>
         </is>
       </c>
       <c r="E476" t="n">
-        <v>0.1589</v>
+        <v>84479.98540000001</v>
       </c>
       <c r="F476" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="G476" t="n">
-        <v>-0.65</v>
+        <v>0.79</v>
       </c>
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr"/>
@@ -15215,27 +15215,27 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USD</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Sold</t>
+          <t>Bought</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>0.00355124 BTC</t>
+          <t>955.41401274 DOGE</t>
         </is>
       </c>
       <c r="E477" t="n">
-        <v>84291.17999999999</v>
+        <v>0.1582</v>
       </c>
       <c r="F477" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G477" t="n">
-        <v>-0.66</v>
+        <v>-1.14</v>
       </c>
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr"/>
@@ -15246,27 +15246,27 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USD</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Sold</t>
+          <t>Bought</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>0.00379719 BTC</t>
+          <t>948.28628145 DOGE</t>
         </is>
       </c>
       <c r="E478" t="n">
-        <v>84479.98540000001</v>
+        <v>0.1589</v>
       </c>
       <c r="F478" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="G478" t="n">
-        <v>0.79</v>
+        <v>-0.65</v>
       </c>
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr"/>
@@ -15287,17 +15287,17 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>955.41401274 DOGE</t>
+          <t>818.12064821 DOGE</t>
         </is>
       </c>
       <c r="E479" t="n">
-        <v>0.1582</v>
+        <v>0.1596</v>
       </c>
       <c r="F479" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G479" t="n">
-        <v>-1.14</v>
+        <v>-0.55</v>
       </c>
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr"/>
@@ -15308,27 +15308,27 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USD</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Sold</t>
+          <t>Bought</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>0.00391632 BTC</t>
+          <t>755.19194462 DOGE</t>
         </is>
       </c>
       <c r="E480" t="n">
-        <v>84173.28999999999</v>
+        <v>0.1567</v>
       </c>
       <c r="F480" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="G480" t="n">
-        <v>-0.35</v>
+        <v>1.67</v>
       </c>
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr"/>
@@ -15380,17 +15380,17 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>0.00366099 BTC</t>
+          <t>0.00368357 BTC</t>
         </is>
       </c>
       <c r="E482" t="n">
-        <v>87204.17999999999</v>
+        <v>87394.64999999999</v>
       </c>
       <c r="F482" t="n">
         <v>320</v>
       </c>
       <c r="G482" t="n">
-        <v>-0.75</v>
+        <v>1.92</v>
       </c>
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr"/>
@@ -15401,7 +15401,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USD</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -15411,17 +15411,17 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>0.00411358 BTC</t>
+          <t>637.47051699 DOGE</t>
         </is>
       </c>
       <c r="E483" t="n">
-        <v>88136.09</v>
+        <v>0.1564</v>
       </c>
       <c r="F483" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="G483" t="n">
-        <v>2.03</v>
+        <v>-0.29</v>
       </c>
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr"/>
@@ -15463,7 +15463,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>DOGE/USD</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -15473,17 +15473,17 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>637.47051699 DOGE</t>
+          <t>0.00411358 BTC</t>
         </is>
       </c>
       <c r="E485" t="n">
-        <v>0.1564</v>
+        <v>88136.09</v>
       </c>
       <c r="F485" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="G485" t="n">
-        <v>-0.29</v>
+        <v>2.03</v>
       </c>
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr"/>
@@ -15504,17 +15504,17 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>0.00368357 BTC</t>
+          <t>0.00366099 BTC</t>
         </is>
       </c>
       <c r="E486" t="n">
-        <v>87394.64999999999</v>
+        <v>87204.17999999999</v>
       </c>
       <c r="F486" t="n">
         <v>320</v>
       </c>
       <c r="G486" t="n">
-        <v>1.92</v>
+        <v>-0.75</v>
       </c>
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr"/>
@@ -15525,27 +15525,27 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>DOGE/USD</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Bought</t>
+          <t>Sold</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>585.06706646 DOGE</t>
+          <t>0.00172078 BTC</t>
         </is>
       </c>
       <c r="E487" t="n">
-        <v>0.1713</v>
+        <v>92798.39999999999</v>
       </c>
       <c r="F487" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="G487" t="n">
-        <v>-0.21</v>
+        <v>-0.31</v>
       </c>
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr"/>
@@ -15773,27 +15773,27 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USD</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Sold</t>
+          <t>Bought</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>0.00172078 BTC</t>
+          <t>585.06706646 DOGE</t>
         </is>
       </c>
       <c r="E495" t="n">
-        <v>92798.39999999999</v>
+        <v>0.1713</v>
       </c>
       <c r="F495" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G495" t="n">
-        <v>-0.31</v>
+        <v>-0.21</v>
       </c>
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr"/>
@@ -15814,17 +15814,17 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>0.00221492 BTC</t>
+          <t>0.00210697 BTC</t>
         </is>
       </c>
       <c r="E496" t="n">
-        <v>90611.17999999999</v>
+        <v>90287.67</v>
       </c>
       <c r="F496" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G496" t="n">
-        <v>0.7</v>
+        <v>0.23</v>
       </c>
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr"/>
@@ -15835,27 +15835,27 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>DOGE/USD</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Bought</t>
+          <t>Sold</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>591.91259619 DOGE</t>
+          <t>0.00221492 BTC</t>
         </is>
       </c>
       <c r="E497" t="n">
-        <v>0.1698</v>
+        <v>90611.17999999999</v>
       </c>
       <c r="F497" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G497" t="n">
-        <v>-0.51</v>
+        <v>0.7</v>
       </c>
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr"/>
@@ -15866,27 +15866,27 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>DOGE/USD</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Sold</t>
+          <t>Bought</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>0.00220469 BTC</t>
+          <t>591.91259619 DOGE</t>
         </is>
       </c>
       <c r="E498" t="n">
-        <v>90689.31</v>
+        <v>0.1698</v>
       </c>
       <c r="F498" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G498" t="n">
-        <v>-0.06</v>
+        <v>-0.51</v>
       </c>
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr"/>
@@ -15907,17 +15907,17 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>0.00225686 BTC</t>
+          <t>0.00221370 BTC</t>
         </is>
       </c>
       <c r="E499" t="n">
-        <v>88221.5</v>
+        <v>90220.89999999999</v>
       </c>
       <c r="F499" t="n">
         <v>200</v>
       </c>
       <c r="G499" t="n">
-        <v>-0.9</v>
+        <v>-0.28</v>
       </c>
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr"/>
@@ -15938,17 +15938,17 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>0.00226729 BTC</t>
+          <t>0.00354955 BTC</t>
         </is>
       </c>
       <c r="E500" t="n">
-        <v>88094.06</v>
+        <v>90103.16</v>
       </c>
       <c r="F500" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="G500" t="n">
-        <v>-0.27</v>
+        <v>-0.17</v>
       </c>
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr"/>
@@ -15969,17 +15969,17 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>0.00545252 BTC</t>
+          <t>0.00356881 BTC</t>
         </is>
       </c>
       <c r="E501" t="n">
-        <v>88306.64</v>
+        <v>90153.2</v>
       </c>
       <c r="F501" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="G501" t="n">
-        <v>1.49</v>
+        <v>1.74</v>
       </c>
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr"/>
@@ -16000,17 +16000,17 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>0.00549662 BTC</t>
+          <t>0.00545252 BTC</t>
         </is>
       </c>
       <c r="E502" t="n">
-        <v>88396.67</v>
+        <v>88306.64</v>
       </c>
       <c r="F502" t="n">
         <v>480</v>
       </c>
       <c r="G502" t="n">
-        <v>5.88</v>
+        <v>1.49</v>
       </c>
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr"/>
@@ -16031,17 +16031,17 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>0.00354955 BTC</t>
+          <t>0.00226729 BTC</t>
         </is>
       </c>
       <c r="E503" t="n">
-        <v>90103.16</v>
+        <v>88094.06</v>
       </c>
       <c r="F503" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="G503" t="n">
-        <v>-0.17</v>
+        <v>-0.27</v>
       </c>
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr"/>
@@ -16062,17 +16062,17 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>0.00210697 BTC</t>
+          <t>0.00225686 BTC</t>
         </is>
       </c>
       <c r="E504" t="n">
-        <v>90287.67</v>
+        <v>88221.5</v>
       </c>
       <c r="F504" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G504" t="n">
-        <v>0.23</v>
+        <v>-0.9</v>
       </c>
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr"/>
@@ -16093,17 +16093,17 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>0.00221370 BTC</t>
+          <t>0.00549662 BTC</t>
         </is>
       </c>
       <c r="E505" t="n">
-        <v>90220.89999999999</v>
+        <v>88396.67</v>
       </c>
       <c r="F505" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="G505" t="n">
-        <v>-0.28</v>
+        <v>5.88</v>
       </c>
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr"/>
@@ -16124,17 +16124,17 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>0.00356881 BTC</t>
+          <t>0.00220469 BTC</t>
         </is>
       </c>
       <c r="E506" t="n">
-        <v>90153.2</v>
+        <v>90689.31</v>
       </c>
       <c r="F506" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="G506" t="n">
-        <v>1.74</v>
+        <v>-0.06</v>
       </c>
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr"/>
@@ -16310,17 +16310,17 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>0.00533539 BTC</t>
+          <t>0.00514652 BTC</t>
         </is>
       </c>
       <c r="E512" t="n">
-        <v>93645.08</v>
+        <v>93709.7107</v>
       </c>
       <c r="F512" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="G512" t="n">
-        <v>-0.37</v>
+        <v>2.28</v>
       </c>
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr"/>
@@ -16341,17 +16341,17 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>0.00514652 BTC</t>
+          <t>0.00533539 BTC</t>
         </is>
       </c>
       <c r="E513" t="n">
-        <v>93709.7107</v>
+        <v>93645.08</v>
       </c>
       <c r="F513" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="G513" t="n">
-        <v>2.28</v>
+        <v>-0.37</v>
       </c>
       <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr"/>
@@ -17085,17 +17085,17 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>0.01184684 BTC</t>
+          <t>0.01525589 BTC</t>
         </is>
       </c>
       <c r="E537" t="n">
-        <v>94507.75999999999</v>
+        <v>94481.75</v>
       </c>
       <c r="F537" t="n">
-        <v>1120</v>
+        <v>1440</v>
       </c>
       <c r="G537" t="n">
-        <v>-0.38</v>
+        <v>1.4</v>
       </c>
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr"/>
@@ -17209,17 +17209,17 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>0.01178979 BTC</t>
+          <t>0.01179135 BTC</t>
         </is>
       </c>
       <c r="E541" t="n">
-        <v>94934.94</v>
+        <v>94937.82000000001</v>
       </c>
       <c r="F541" t="n">
         <v>1120</v>
       </c>
       <c r="G541" t="n">
-        <v>-0.74</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr"/>
@@ -17364,17 +17364,17 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>0.01359225 BTC</t>
+          <t>0.01178979 BTC</t>
         </is>
       </c>
       <c r="E546" t="n">
-        <v>94384.60000000001</v>
+        <v>94934.94</v>
       </c>
       <c r="F546" t="n">
-        <v>1280</v>
+        <v>1120</v>
       </c>
       <c r="G546" t="n">
-        <v>2.9</v>
+        <v>-0.74</v>
       </c>
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr"/>
@@ -17395,17 +17395,17 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>0.01179135 BTC</t>
+          <t>0.01359225 BTC</t>
         </is>
       </c>
       <c r="E547" t="n">
-        <v>94937.82000000001</v>
+        <v>94384.60000000001</v>
       </c>
       <c r="F547" t="n">
-        <v>1120</v>
+        <v>1280</v>
       </c>
       <c r="G547" t="n">
-        <v>-0.5600000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr"/>
@@ -17736,17 +17736,17 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>0.01525589 BTC</t>
+          <t>0.01184684 BTC</t>
         </is>
       </c>
       <c r="E558" t="n">
-        <v>94481.75</v>
+        <v>94507.75999999999</v>
       </c>
       <c r="F558" t="n">
-        <v>1440</v>
+        <v>1120</v>
       </c>
       <c r="G558" t="n">
-        <v>1.4</v>
+        <v>-0.38</v>
       </c>
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr"/>
@@ -18325,17 +18325,17 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>0.01024865 BTC</t>
+          <t>0.01186082 BTC</t>
         </is>
       </c>
       <c r="E577" t="n">
-        <v>93608.91</v>
+        <v>94333.5</v>
       </c>
       <c r="F577" t="n">
-        <v>960</v>
+        <v>1120</v>
       </c>
       <c r="G577" t="n">
-        <v>-0.64</v>
+        <v>-1.13</v>
       </c>
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr"/>
@@ -18356,17 +18356,17 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>0.01186082 BTC</t>
+          <t>0.01024865 BTC</t>
         </is>
       </c>
       <c r="E578" t="n">
-        <v>94333.5</v>
+        <v>93608.91</v>
       </c>
       <c r="F578" t="n">
-        <v>1120</v>
+        <v>960</v>
       </c>
       <c r="G578" t="n">
-        <v>-1.13</v>
+        <v>-0.64</v>
       </c>
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr"/>
@@ -19007,17 +19007,17 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>0.01182678 BTC</t>
+          <t>0.01186407 BTC</t>
         </is>
       </c>
       <c r="E599" t="n">
-        <v>94763.74000000001</v>
+        <v>94801.3783</v>
       </c>
       <c r="F599" t="n">
         <v>1120</v>
       </c>
       <c r="G599" t="n">
-        <v>0.75</v>
+        <v>4.73</v>
       </c>
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr"/>
@@ -19038,17 +19038,17 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>0.01186407 BTC</t>
+          <t>0.01182678 BTC</t>
         </is>
       </c>
       <c r="E600" t="n">
-        <v>94801.3783</v>
+        <v>94763.74000000001</v>
       </c>
       <c r="F600" t="n">
         <v>1120</v>
       </c>
       <c r="G600" t="n">
-        <v>4.73</v>
+        <v>0.75</v>
       </c>
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr"/>
@@ -19348,17 +19348,17 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>0.00852485 BTC</t>
+          <t>0.00682230 BTC</t>
         </is>
       </c>
       <c r="E610" t="n">
-        <v>93787.34</v>
+        <v>93755.14</v>
       </c>
       <c r="F610" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="G610" t="n">
-        <v>-0.48</v>
+        <v>-0.37</v>
       </c>
       <c r="H610" t="inlineStr"/>
       <c r="I610" t="inlineStr"/>
@@ -19441,17 +19441,17 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>0.00682230 BTC</t>
+          <t>0.00852485 BTC</t>
         </is>
       </c>
       <c r="E613" t="n">
-        <v>93755.14</v>
+        <v>93787.34</v>
       </c>
       <c r="F613" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="G613" t="n">
-        <v>-0.37</v>
+        <v>-0.48</v>
       </c>
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr"/>
@@ -19875,17 +19875,17 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>0.01008668 BTC</t>
+          <t>0.01191869 BTC</t>
         </is>
       </c>
       <c r="E627" t="n">
-        <v>95075.55</v>
+        <v>95085.56</v>
       </c>
       <c r="F627" t="n">
-        <v>960</v>
+        <v>1130</v>
       </c>
       <c r="G627" t="n">
-        <v>-1</v>
+        <v>-4.8</v>
       </c>
       <c r="H627" t="inlineStr"/>
       <c r="I627" t="inlineStr"/>
@@ -19968,17 +19968,17 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>0.01191869 BTC</t>
+          <t>0.01008668 BTC</t>
         </is>
       </c>
       <c r="E630" t="n">
-        <v>95085.56</v>
+        <v>95075.55</v>
       </c>
       <c r="F630" t="n">
-        <v>1130</v>
+        <v>960</v>
       </c>
       <c r="G630" t="n">
-        <v>-4.8</v>
+        <v>-1</v>
       </c>
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr"/>
@@ -19999,17 +19999,17 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>0.01053673 BTC</t>
+          <t>0.01175550 BTC</t>
         </is>
       </c>
       <c r="E631" t="n">
-        <v>95279.48</v>
+        <v>95288</v>
       </c>
       <c r="F631" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="G631" t="n">
-        <v>3.93</v>
+        <v>0.16</v>
       </c>
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr"/>
@@ -20030,17 +20030,17 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>0.01052824 BTC</t>
+          <t>0.01052744 BTC</t>
         </is>
       </c>
       <c r="E632" t="n">
-        <v>95260.78999999999</v>
+        <v>94897.97</v>
       </c>
       <c r="F632" t="n">
         <v>1000</v>
       </c>
       <c r="G632" t="n">
-        <v>2.93</v>
+        <v>-0.97</v>
       </c>
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr"/>
@@ -20061,17 +20061,17 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>0.01051746 BTC</t>
+          <t>0.01053311 BTC</t>
         </is>
       </c>
       <c r="E633" t="n">
-        <v>95067.41</v>
+        <v>94970.09</v>
       </c>
       <c r="F633" t="n">
         <v>1000</v>
       </c>
       <c r="G633" t="n">
-        <v>-0.13</v>
+        <v>0.33</v>
       </c>
       <c r="H633" t="inlineStr"/>
       <c r="I633" t="inlineStr"/>
@@ -20092,17 +20092,17 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>0.01053311 BTC</t>
+          <t>0.00633762 BTC</t>
         </is>
       </c>
       <c r="E634" t="n">
-        <v>94970.09</v>
+        <v>94480.00999999999</v>
       </c>
       <c r="F634" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G634" t="n">
-        <v>0.33</v>
+        <v>-1.22</v>
       </c>
       <c r="H634" t="inlineStr"/>
       <c r="I634" t="inlineStr"/>
@@ -20123,17 +20123,17 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>0.01052744 BTC</t>
+          <t>0.01052824 BTC</t>
         </is>
       </c>
       <c r="E635" t="n">
-        <v>94897.97</v>
+        <v>95260.78999999999</v>
       </c>
       <c r="F635" t="n">
         <v>1000</v>
       </c>
       <c r="G635" t="n">
-        <v>-0.97</v>
+        <v>2.93</v>
       </c>
       <c r="H635" t="inlineStr"/>
       <c r="I635" t="inlineStr"/>
@@ -20154,17 +20154,17 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>0.00633762 BTC</t>
+          <t>0.01053673 BTC</t>
         </is>
       </c>
       <c r="E636" t="n">
-        <v>94480.00999999999</v>
+        <v>95279.48</v>
       </c>
       <c r="F636" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="G636" t="n">
-        <v>-1.22</v>
+        <v>3.93</v>
       </c>
       <c r="H636" t="inlineStr"/>
       <c r="I636" t="inlineStr"/>
@@ -20185,17 +20185,17 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>0.01175550 BTC</t>
+          <t>0.01051746 BTC</t>
         </is>
       </c>
       <c r="E637" t="n">
-        <v>95288</v>
+        <v>95067.41</v>
       </c>
       <c r="F637" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="G637" t="n">
-        <v>0.16</v>
+        <v>-0.13</v>
       </c>
       <c r="H637" t="inlineStr"/>
       <c r="I637" t="inlineStr"/>
@@ -20216,17 +20216,17 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>0.00850414 BTC</t>
+          <t>0.00010716 BTC</t>
         </is>
       </c>
       <c r="E638" t="n">
-        <v>94186.83</v>
+        <v>94204.61</v>
       </c>
       <c r="F638" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="G638" t="n">
-        <v>0.98</v>
+        <v>3.03</v>
       </c>
       <c r="H638" t="inlineStr"/>
       <c r="I638" t="inlineStr"/>
@@ -20247,17 +20247,17 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>0.00010716 BTC</t>
+          <t>0.00861305 BTC</t>
         </is>
       </c>
       <c r="E639" t="n">
-        <v>94204.61</v>
+        <v>94126.38</v>
       </c>
       <c r="F639" t="n">
-        <v>10</v>
+        <v>808</v>
       </c>
       <c r="G639" t="n">
-        <v>3.03</v>
+        <v>1.45</v>
       </c>
       <c r="H639" t="inlineStr"/>
       <c r="I639" t="inlineStr"/>
@@ -20278,17 +20278,17 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>0.00861305 BTC</t>
+          <t>0.00677822 BTC</t>
         </is>
       </c>
       <c r="E640" t="n">
-        <v>94126.38</v>
+        <v>94318.3</v>
       </c>
       <c r="F640" t="n">
-        <v>808</v>
+        <v>640</v>
       </c>
       <c r="G640" t="n">
-        <v>1.45</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr"/>
@@ -20309,17 +20309,17 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>0.00861146 BTC</t>
+          <t>0.01203622 BTC</t>
         </is>
       </c>
       <c r="E641" t="n">
-        <v>94324.39</v>
+        <v>94146.92</v>
       </c>
       <c r="F641" t="n">
-        <v>810</v>
+        <v>1130</v>
       </c>
       <c r="G641" t="n">
-        <v>1.21</v>
+        <v>-0.08</v>
       </c>
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr"/>
@@ -20340,17 +20340,17 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>0.00677822 BTC</t>
+          <t>0.00424746 BTC</t>
         </is>
       </c>
       <c r="E642" t="n">
-        <v>94318.3</v>
+        <v>94507.64999999999</v>
       </c>
       <c r="F642" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="G642" t="n">
-        <v>-0.6899999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H642" t="inlineStr"/>
       <c r="I642" t="inlineStr"/>
@@ -20371,17 +20371,17 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>0.01203622 BTC</t>
+          <t>0.00687381 BTC</t>
         </is>
       </c>
       <c r="E643" t="n">
-        <v>94146.92</v>
+        <v>94555.63</v>
       </c>
       <c r="F643" t="n">
-        <v>1130</v>
+        <v>650</v>
       </c>
       <c r="G643" t="n">
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr"/>
@@ -20402,17 +20402,17 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>0.00424746 BTC</t>
+          <t>0.00849912 BTC</t>
         </is>
       </c>
       <c r="E644" t="n">
-        <v>94507.64999999999</v>
+        <v>94015.86</v>
       </c>
       <c r="F644" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G644" t="n">
-        <v>3.1</v>
+        <v>-0.95</v>
       </c>
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="inlineStr"/>
@@ -20433,17 +20433,17 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>0.00687381 BTC</t>
+          <t>0.00850414 BTC</t>
         </is>
       </c>
       <c r="E645" t="n">
-        <v>94555.63</v>
+        <v>94186.83</v>
       </c>
       <c r="F645" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="G645" t="n">
-        <v>-0.04</v>
+        <v>0.98</v>
       </c>
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr"/>
@@ -20464,17 +20464,17 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>0.00849912 BTC</t>
+          <t>0.00861146 BTC</t>
         </is>
       </c>
       <c r="E646" t="n">
-        <v>94015.86</v>
+        <v>94324.39</v>
       </c>
       <c r="F646" t="n">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="G646" t="n">
-        <v>-0.95</v>
+        <v>1.21</v>
       </c>
       <c r="H646" t="inlineStr"/>
       <c r="I646" t="inlineStr"/>
@@ -20495,17 +20495,17 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>0.00835323 BTC</t>
+          <t>0.00391608 BTC</t>
         </is>
       </c>
       <c r="E647" t="n">
-        <v>97104.0033</v>
+        <v>97642.77</v>
       </c>
       <c r="F647" t="n">
-        <v>810</v>
+        <v>380</v>
       </c>
       <c r="G647" t="n">
-        <v>2</v>
+        <v>3.66</v>
       </c>
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr"/>
@@ -20526,17 +20526,17 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>0.00391608 BTC</t>
+          <t>0.00835323 BTC</t>
         </is>
       </c>
       <c r="E648" t="n">
-        <v>97642.77</v>
+        <v>97104.0033</v>
       </c>
       <c r="F648" t="n">
-        <v>380</v>
+        <v>810</v>
       </c>
       <c r="G648" t="n">
-        <v>3.66</v>
+        <v>2</v>
       </c>
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr"/>
@@ -20588,17 +20588,17 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>0.02125146 BTC</t>
+          <t>0.00011005 BTC</t>
         </is>
       </c>
       <c r="E650" t="n">
-        <v>94310.48</v>
+        <v>94699.98</v>
       </c>
       <c r="F650" t="n">
-        <v>2000.24</v>
+        <v>10.42</v>
       </c>
       <c r="G650" t="n">
-        <v>-37.04</v>
+        <v>-0.08</v>
       </c>
       <c r="H650" t="inlineStr"/>
       <c r="I650" t="inlineStr"/>
@@ -20619,17 +20619,17 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>0.00011005 BTC</t>
+          <t>0.00010593 BTC</t>
         </is>
       </c>
       <c r="E651" t="n">
-        <v>94699.98</v>
+        <v>94998.99000000001</v>
       </c>
       <c r="F651" t="n">
-        <v>10.42</v>
+        <v>10.02</v>
       </c>
       <c r="G651" t="n">
-        <v>-0.08</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr"/>
@@ -20650,17 +20650,17 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>0.00010593 BTC</t>
+          <t>0.02067653 BTC</t>
         </is>
       </c>
       <c r="E652" t="n">
-        <v>94998.99000000001</v>
+        <v>96661.28999999999</v>
       </c>
       <c r="F652" t="n">
-        <v>10.02</v>
+        <v>2000.12</v>
       </c>
       <c r="G652" t="n">
-        <v>9.289999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="H652" t="inlineStr"/>
       <c r="I652" t="inlineStr"/>
@@ -20681,17 +20681,17 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>0.02067653 BTC</t>
+          <t>0.00010326 BTC</t>
         </is>
       </c>
       <c r="E653" t="n">
-        <v>96661.28999999999</v>
+        <v>96822.41</v>
       </c>
       <c r="F653" t="n">
-        <v>2000.12</v>
+        <v>10</v>
       </c>
       <c r="G653" t="n">
-        <v>5.3</v>
+        <v>1.49</v>
       </c>
       <c r="H653" t="inlineStr"/>
       <c r="I653" t="inlineStr"/>
@@ -20712,17 +20712,17 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>0.00010326 BTC</t>
+          <t>0.02125146 BTC</t>
         </is>
       </c>
       <c r="E654" t="n">
-        <v>96822.41</v>
+        <v>94310.48</v>
       </c>
       <c r="F654" t="n">
-        <v>10</v>
+        <v>2000.24</v>
       </c>
       <c r="G654" t="n">
-        <v>1.49</v>
+        <v>-37.04</v>
       </c>
       <c r="H654" t="inlineStr"/>
       <c r="I654" t="inlineStr"/>
@@ -20774,17 +20774,17 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>0.00362792 BTC</t>
+          <t>0.00259136 BTC</t>
         </is>
       </c>
       <c r="E656" t="n">
-        <v>96640.12</v>
+        <v>96293.37</v>
       </c>
       <c r="F656" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G656" t="n">
-        <v>0.6</v>
+        <v>-0.47</v>
       </c>
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr"/>
@@ -20805,17 +20805,17 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>0.00363750 BTC</t>
+          <t>0.00362792 BTC</t>
         </is>
       </c>
       <c r="E657" t="n">
-        <v>96300.92</v>
+        <v>96640.12</v>
       </c>
       <c r="F657" t="n">
         <v>350</v>
       </c>
       <c r="G657" t="n">
-        <v>0.29</v>
+        <v>0.6</v>
       </c>
       <c r="H657" t="inlineStr"/>
       <c r="I657" t="inlineStr"/>
@@ -20836,17 +20836,17 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>0.00258977 BTC</t>
+          <t>0.00363750 BTC</t>
         </is>
       </c>
       <c r="E658" t="n">
-        <v>96187.5</v>
+        <v>96300.92</v>
       </c>
       <c r="F658" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G658" t="n">
-        <v>-1.02</v>
+        <v>0.29</v>
       </c>
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr"/>
@@ -20867,11 +20867,11 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>0.00258195 BTC</t>
+          <t>0.00258977 BTC</t>
         </is>
       </c>
       <c r="E659" t="n">
-        <v>96546.17999999999</v>
+        <v>96187.5</v>
       </c>
       <c r="F659" t="n">
         <v>250</v>
@@ -20898,17 +20898,17 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>0.00259136 BTC</t>
+          <t>0.00258131 BTC</t>
         </is>
       </c>
       <c r="E660" t="n">
-        <v>96293.37</v>
+        <v>96854.33</v>
       </c>
       <c r="F660" t="n">
         <v>250</v>
       </c>
       <c r="G660" t="n">
-        <v>-0.47</v>
+        <v>0.15</v>
       </c>
       <c r="H660" t="inlineStr"/>
       <c r="I660" t="inlineStr"/>
@@ -21084,17 +21084,17 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>0.00258131 BTC</t>
+          <t>0.00258195 BTC</t>
         </is>
       </c>
       <c r="E666" t="n">
-        <v>96854.33</v>
+        <v>96546.17999999999</v>
       </c>
       <c r="F666" t="n">
         <v>250</v>
       </c>
       <c r="G666" t="n">
-        <v>0.15</v>
+        <v>-1.02</v>
       </c>
       <c r="H666" t="inlineStr"/>
       <c r="I666" t="inlineStr"/>
@@ -21115,17 +21115,17 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>0.00256519 BTC</t>
+          <t>0.00489585 BTC</t>
         </is>
       </c>
       <c r="E667" t="n">
-        <v>102043.03</v>
+        <v>102787.99</v>
       </c>
       <c r="F667" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="G667" t="n">
-        <v>2.74</v>
+        <v>3.23</v>
       </c>
       <c r="H667" t="inlineStr"/>
       <c r="I667" t="inlineStr"/>
@@ -21146,17 +21146,17 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>0.00405403 BTC</t>
+          <t>0.00256519 BTC</t>
         </is>
       </c>
       <c r="E668" t="n">
-        <v>101619.96</v>
+        <v>102043.03</v>
       </c>
       <c r="F668" t="n">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="G668" t="n">
-        <v>4.83</v>
+        <v>2.74</v>
       </c>
       <c r="H668" t="inlineStr"/>
       <c r="I668" t="inlineStr"/>
@@ -21177,17 +21177,17 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>0.00489585 BTC</t>
+          <t>0.00418465 BTC</t>
         </is>
       </c>
       <c r="E669" t="n">
-        <v>102787.99</v>
+        <v>98683.09</v>
       </c>
       <c r="F669" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="G669" t="n">
-        <v>3.23</v>
+        <v>3.14</v>
       </c>
       <c r="H669" t="inlineStr"/>
       <c r="I669" t="inlineStr"/>
@@ -21208,17 +21208,17 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>0.00418465 BTC</t>
+          <t>0.00904764 BTC</t>
         </is>
       </c>
       <c r="E670" t="n">
-        <v>98683.09</v>
+        <v>100439.54</v>
       </c>
       <c r="F670" t="n">
-        <v>410</v>
+        <v>900</v>
       </c>
       <c r="G670" t="n">
-        <v>3.14</v>
+        <v>4.73</v>
       </c>
       <c r="H670" t="inlineStr"/>
       <c r="I670" t="inlineStr"/>
@@ -21270,17 +21270,17 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>0.00904764 BTC</t>
+          <t>0.00405403 BTC</t>
         </is>
       </c>
       <c r="E672" t="n">
-        <v>100439.54</v>
+        <v>101619.96</v>
       </c>
       <c r="F672" t="n">
-        <v>900</v>
+        <v>410</v>
       </c>
       <c r="G672" t="n">
-        <v>4.73</v>
+        <v>4.83</v>
       </c>
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr"/>
@@ -21563,6 +21563,130 @@
       </c>
       <c r="H681" t="inlineStr"/>
       <c r="I681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>0.00385169 BTC</t>
+        </is>
+      </c>
+      <c r="E682" t="n">
+        <v>104031.07</v>
+      </c>
+      <c r="F682" t="n">
+        <v>400</v>
+      </c>
+      <c r="G682" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H682" t="inlineStr"/>
+      <c r="I682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>0.00768410 BTC</t>
+        </is>
+      </c>
+      <c r="E683" t="n">
+        <v>104074.95</v>
+      </c>
+      <c r="F683" t="n">
+        <v>800</v>
+      </c>
+      <c r="G683" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="H683" t="inlineStr"/>
+      <c r="I683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>0.00384591 BTC</t>
+        </is>
+      </c>
+      <c r="E684" t="n">
+        <v>103864.63</v>
+      </c>
+      <c r="F684" t="n">
+        <v>400</v>
+      </c>
+      <c r="G684" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="H684" t="inlineStr"/>
+      <c r="I684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>BTC/USDT</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Sold</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>0.00768893 BTC</t>
+        </is>
+      </c>
+      <c r="E685" t="n">
+        <v>104999.99</v>
+      </c>
+      <c r="F685" t="n">
+        <v>800</v>
+      </c>
+      <c r="G685" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="H685" t="inlineStr"/>
+      <c r="I685" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
